--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -6830,77 +6830,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v9
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
 Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
@@ -7072,6 +7001,77 @@
   </si>
   <si>
     <t>Backup Network NSGs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v9.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11457,7 +11457,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11468,7 +11468,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="71" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -30410,7 +30410,7 @@
         <v>98</v>
       </c>
       <c r="P2" s="114" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>444</v>
@@ -45425,7 +45425,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1" s="118"/>
       <c r="C1" s="118"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -7016,7 +7016,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -7037,17 +7037,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Release - v9.0</t>
     </r>
     <r>
       <rPr>
@@ -7058,7 +7048,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v9.0
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -11457,7 +11447,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11473,7 +11463,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -117,7 +117,7 @@
     <definedName name="VM_Shapes" localSheetId="27">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="6">#REF!</definedName>
-    <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AA$397:$AA$407</definedName>
+    <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$397:$AB$407</definedName>
     <definedName name="VM_shapes_drop" localSheetId="10">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="6">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="30">[3]Database_Dropdown!$A$2:$A$7</definedName>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1035">
   <si>
     <t>Region</t>
   </si>
@@ -17747,10 +17747,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="O3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -17773,12 +17773,13 @@
     <col min="21" max="23" width="20.453125" style="39"/>
     <col min="24" max="24" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.1796875" style="39" customWidth="1"/>
-    <col min="26" max="26" width="20.453125" style="39"/>
-    <col min="27" max="27" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="20.453125" style="39"/>
+    <col min="26" max="26" width="14.81640625" style="39" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" style="39"/>
+    <col min="28" max="28" width="23.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="20.453125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="55" customFormat="1" ht="135.75" customHeight="1">
+    <row r="1" spans="1:27" s="55" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="117" t="s">
         <v>598</v>
       </c>
@@ -17806,9 +17807,10 @@
       <c r="W1" s="118"/>
       <c r="X1" s="118"/>
       <c r="Y1" s="118"/>
-      <c r="Z1" s="119"/>
-    </row>
-    <row r="2" spans="1:26" s="66" customFormat="1" ht="43.5">
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="119"/>
+    </row>
+    <row r="2" spans="1:27" s="66" customFormat="1" ht="43.5">
       <c r="A2" s="69" t="s">
         <v>0</v>
       </c>
@@ -17885,10 +17887,13 @@
         <v>596</v>
       </c>
       <c r="Z2" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="69" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
@@ -17917,8 +17922,9 @@
       <c r="X3" s="40"/>
       <c r="Y3" s="40"/>
       <c r="Z3" s="40"/>
-    </row>
-    <row r="4" spans="1:26" ht="29">
+      <c r="AA3" s="40"/>
+    </row>
+    <row r="4" spans="1:27" ht="29">
       <c r="A4" s="106" t="s">
         <v>325</v>
       </c>
@@ -17991,8 +17997,9 @@
         <v>597</v>
       </c>
       <c r="Z4" s="40"/>
-    </row>
-    <row r="5" spans="1:26" ht="29">
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" ht="29">
       <c r="A5" s="108" t="s">
         <v>325</v>
       </c>
@@ -18067,8 +18074,9 @@
         <v>597</v>
       </c>
       <c r="Z5" s="40"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="40"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="106"/>
       <c r="B6" s="106"/>
       <c r="C6" s="106"/>
@@ -18095,8 +18103,9 @@
       <c r="X6" s="40"/>
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="40"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="106"/>
       <c r="B7" s="106"/>
       <c r="C7" s="106"/>
@@ -18123,56 +18132,57 @@
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="40"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="51"/>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
       <c r="D8" s="60"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="51"/>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
       <c r="D9" s="60"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="51"/>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
       <c r="D10" s="60"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="51"/>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="60"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="51"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="60"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="51"/>
       <c r="B13" s="51"/>
       <c r="C13" s="51"/>
       <c r="D13" s="60"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="51"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
       <c r="D14" s="60"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
       <c r="D15" s="60"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="51"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -24084,47 +24094,32 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1001:S1048576">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1001:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1001:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1001:P1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1001:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1001:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1001:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576">
       <formula1>nchar_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1000">
-      <formula1>nchar_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1000">
-      <formula1>char_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1000">
-      <formula1>workload_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P1000">
       <formula1>db_sersion_drop</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1000">
-      <formula1>license_type_drop</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1000">
-      <formula1>software_drop</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44845,7 +44840,25 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A83 A87:A533</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A84:A86</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84:C86</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
@@ -44872,15 +44885,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C187</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A83 A87:A533</xm:sqref>
+          <xm:sqref>C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -44890,33 +44903,87 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C598,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C109:C110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C637,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C148:C149</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
+          <xm:sqref>C112</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C151</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C601,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C640,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
+          <xm:sqref>C108</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -44953,18 +45020,6 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
-          <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A84:A86</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84:C86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="1035">
   <si>
     <t>Region</t>
   </si>
@@ -7608,7 +7608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7938,6 +7938,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -11447,7 +11454,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -45747,10 +45754,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -45762,11 +45769,12 @@
     <col min="5" max="5" width="23.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.81640625" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.1796875" style="39" customWidth="1"/>
-    <col min="8" max="18" width="8.6328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="8.6328125" style="39" customWidth="1"/>
     <col min="19" max="16384" width="8.6328125" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="222" customHeight="1">
+    <row r="1" spans="1:8" ht="222" customHeight="1">
       <c r="A1" s="117" t="s">
         <v>810</v>
       </c>
@@ -45774,12 +45782,13 @@
       <c r="C1" s="118"/>
       <c r="D1" s="118"/>
       <c r="E1" s="118"/>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="137" t="s">
         <v>811</v>
       </c>
-      <c r="G1" s="118"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
@@ -45801,8 +45810,11 @@
       <c r="G2" s="82" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="139" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
         <v>325</v>
       </c>
@@ -45824,8 +45836,9 @@
       <c r="G3" s="38" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
@@ -45835,8 +45848,9 @@
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -45844,8 +45858,9 @@
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -45853,8 +45868,9 @@
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
@@ -45862,8 +45878,9 @@
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
-    </row>
-    <row r="8" spans="1:7" s="83" customFormat="1">
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" s="83" customFormat="1">
       <c r="A8" s="68"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -45871,8 +45888,9 @@
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
       <c r="G8" s="68"/>
-    </row>
-    <row r="9" spans="1:7" s="83" customFormat="1">
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" s="83" customFormat="1">
       <c r="A9" s="68"/>
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
@@ -45880,8 +45898,9 @@
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="38"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -45889,8 +45908,9 @@
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="38"/>
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
@@ -45898,8 +45918,9 @@
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -45907,8 +45928,9 @@
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -45916,8 +45938,9 @@
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38"/>
@@ -45925,8 +45948,9 @@
       <c r="E14" s="38"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="40"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38"/>
@@ -45934,8 +45958,9 @@
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="40"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
@@ -45943,8 +45968,9 @@
       <c r="E16" s="38"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
@@ -45952,8 +45978,9 @@
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38"/>
@@ -45961,8 +45988,9 @@
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="38"/>
@@ -45970,8 +45998,9 @@
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -45979,8 +46008,9 @@
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -45988,8 +46018,9 @@
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38"/>
@@ -45997,8 +46028,9 @@
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -46006,8 +46038,9 @@
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -46015,8 +46048,9 @@
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38"/>
@@ -46024,8 +46058,9 @@
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="38"/>
@@ -46033,8 +46068,9 @@
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -46042,8 +46078,9 @@
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="40"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -46051,8 +46088,9 @@
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -46060,8 +46098,9 @@
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="40"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -46069,8 +46108,9 @@
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="38"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -46078,8 +46118,9 @@
       <c r="E31" s="38"/>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="38"/>
       <c r="B32" s="38"/>
       <c r="C32" s="38"/>
@@ -46087,11 +46128,12 @@
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
+      <c r="H32" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D2A2DF-D2EA-4746-96A8-8D49FD222D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F17DA-C771-FE47-B715-ADF85F509CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1039">
   <si>
     <t>Region</t>
   </si>
@@ -4817,77 +4817,6 @@
   </si>
   <si>
     <r>
-      <t>Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 "Attached To Instance"  - </t>
     </r>
@@ -7068,6 +6997,192 @@
   </si>
   <si>
     <t>Reserved IPs (Y|N|OCID)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+Is PV Encryption In Transit Enabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when left empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
+    </r>
+  </si>
+  <si>
+    <t>Memory In GBs</t>
+  </si>
+  <si>
+    <t>Boot Volume Size In GBs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is PV Encryption In Transit Enabled </t>
   </si>
 </sst>
 </file>
@@ -11446,7 +11561,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -11552,7 +11667,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -11572,25 +11687,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D2" s="32" t="s">
+        <v>802</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>803</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>804</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>443</v>
@@ -11605,23 +11720,23 @@
         <v>365</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="68" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H3" s="68" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="40"/>
@@ -13518,13 +13633,13 @@
         <v>365</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>749</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>750</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>751</v>
       </c>
       <c r="F3" s="38" t="s">
         <v>400</v>
@@ -13538,7 +13653,7 @@
         <v>401</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
@@ -13551,7 +13666,7 @@
       <c r="P3" s="38"/>
       <c r="Q3" s="38"/>
       <c r="R3" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S3" s="38"/>
       <c r="T3" s="38"/>
@@ -13564,13 +13679,13 @@
         <v>365</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F4" s="38" t="s">
         <v>400</v>
@@ -13579,7 +13694,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>29</v>
@@ -13597,7 +13712,7 @@
       <c r="P4" s="38"/>
       <c r="Q4" s="38"/>
       <c r="R4" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="S4" s="38"/>
       <c r="T4" s="38"/>
@@ -13610,13 +13725,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F5" s="38" t="s">
         <v>400</v>
@@ -13625,10 +13740,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J5" s="38"/>
       <c r="K5" s="38"/>
@@ -13643,7 +13758,7 @@
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="S5" s="38"/>
       <c r="T5" s="38"/>
@@ -13656,13 +13771,13 @@
         <v>365</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F6" s="38" t="s">
         <v>400</v>
@@ -13676,7 +13791,7 @@
         <v>401</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -13689,7 +13804,7 @@
       <c r="P6" s="38"/>
       <c r="Q6" s="38"/>
       <c r="R6" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
@@ -13702,13 +13817,13 @@
         <v>365</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F7" s="38" t="s">
         <v>400</v>
@@ -13717,10 +13832,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J7" s="38"/>
       <c r="K7" s="38"/>
@@ -13735,7 +13850,7 @@
       <c r="P7" s="38"/>
       <c r="Q7" s="38"/>
       <c r="R7" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
@@ -13748,13 +13863,13 @@
         <v>365</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F8" s="38" t="s">
         <v>400</v>
@@ -13763,10 +13878,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I8" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J8" s="38"/>
       <c r="K8" s="38"/>
@@ -13781,7 +13896,7 @@
       <c r="P8" s="38"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S8" s="38"/>
       <c r="T8" s="38"/>
@@ -13794,13 +13909,13 @@
         <v>365</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F9" s="38" t="s">
         <v>400</v>
@@ -13814,7 +13929,7 @@
         <v>401</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L9" s="38"/>
       <c r="M9" s="38"/>
@@ -13827,7 +13942,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S9" s="38"/>
       <c r="T9" s="38"/>
@@ -13840,13 +13955,13 @@
         <v>365</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F10" s="38" t="s">
         <v>400</v>
@@ -13857,10 +13972,10 @@
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="K10" s="38" t="s">
         <v>766</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>767</v>
       </c>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -13873,7 +13988,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S10" s="38"/>
       <c r="T10" s="38"/>
@@ -13886,13 +14001,13 @@
         <v>365</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F11" s="38" t="s">
         <v>400</v>
@@ -13901,10 +14016,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I11" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -13919,7 +14034,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
@@ -13932,13 +14047,13 @@
         <v>365</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>400</v>
@@ -13947,10 +14062,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -13965,7 +14080,7 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
@@ -13978,13 +14093,13 @@
         <v>365</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F13" s="38" t="s">
         <v>400</v>
@@ -13998,7 +14113,7 @@
         <v>401</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -14011,7 +14126,7 @@
       <c r="P13" s="38"/>
       <c r="Q13" s="38"/>
       <c r="R13" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
@@ -14024,13 +14139,13 @@
         <v>365</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F14" s="38" t="s">
         <v>400</v>
@@ -14041,10 +14156,10 @@
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>766</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>767</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -14057,7 +14172,7 @@
       <c r="P14" s="38"/>
       <c r="Q14" s="38"/>
       <c r="R14" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
@@ -14070,13 +14185,13 @@
         <v>365</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F15" s="38" t="s">
         <v>400</v>
@@ -14085,10 +14200,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -14103,7 +14218,7 @@
       <c r="P15" s="38"/>
       <c r="Q15" s="38"/>
       <c r="R15" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S15" s="38"/>
       <c r="T15" s="38"/>
@@ -14116,13 +14231,13 @@
         <v>365</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F16" s="38" t="s">
         <v>400</v>
@@ -14131,10 +14246,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I16" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -14149,7 +14264,7 @@
       <c r="P16" s="38"/>
       <c r="Q16" s="38"/>
       <c r="R16" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S16" s="38"/>
       <c r="T16" s="38"/>
@@ -14566,10 +14681,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14583,18 +14698,18 @@
     <col min="7" max="7" width="18.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="39" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="10" max="13" width="22.1640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="26.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="39" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="39" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
@@ -14604,7 +14719,7 @@
       <c r="G1" s="128"/>
       <c r="H1" s="129"/>
       <c r="I1" s="118" t="s">
-        <v>593</v>
+        <v>1035</v>
       </c>
       <c r="J1" s="119"/>
       <c r="K1" s="119"/>
@@ -14612,9 +14727,12 @@
       <c r="M1" s="119"/>
       <c r="N1" s="119"/>
       <c r="O1" s="119"/>
-      <c r="P1" s="120"/>
-    </row>
-    <row r="2" spans="1:16" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="120"/>
+    </row>
+    <row r="2" spans="1:19" s="47" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
@@ -14646,25 +14764,34 @@
         <v>86</v>
       </c>
       <c r="K2" s="32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>1037</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N2" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="Q2" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="S2" s="32" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
@@ -14692,27 +14819,34 @@
       <c r="I3" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="40" t="s">
+      <c r="J3" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="40">
+        <v>16</v>
+      </c>
+      <c r="L3" s="40">
+        <v>55</v>
+      </c>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="O3" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="P3" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40" t="s">
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
@@ -14730,9 +14864,12 @@
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
@@ -14761,20 +14898,23 @@
       <c r="J5" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="O5" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5" s="40"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
@@ -14803,20 +14943,23 @@
       <c r="J6" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40" t="s">
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40" t="s">
         <v>402</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
         <v>5</v>
       </c>
@@ -14845,26 +14988,29 @@
       <c r="J7" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="40" t="s">
+      <c r="O7" s="40" t="s">
         <v>406</v>
       </c>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40" t="s">
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L10" s="94"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O10" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14899,25 +15045,43 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$S$2:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L500</xm:sqref>
+          <xm:sqref>O3:O500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000005000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3 M3</xm:sqref>
+          <xm:sqref>P3 B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000007000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 M4</xm:sqref>
+          <xm:sqref>P4 B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000009000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B502,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B500 M5:M500</xm:sqref>
+          <xm:sqref>P5:P500 B5:B500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W501,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W500,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000010000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W502,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R5:R500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-0F00-00000B000000}">
           <x14:formula1>
@@ -14936,24 +15100,6 @@
             <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$D$2:D502,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T501,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T500,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000010000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T502,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O5:O500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14984,7 +15130,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -15265,7 +15411,7 @@
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="E3" s="38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -15304,7 +15450,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -15329,7 +15475,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>127</v>
@@ -15353,7 +15499,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>129</v>
@@ -15390,7 +15536,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -15423,7 +15569,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>134</v>
@@ -15462,7 +15608,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>136</v>
@@ -15499,7 +15645,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -15608,13 +15754,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>846</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>847</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>848</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>140</v>
@@ -15626,7 +15772,7 @@
         <v>98</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>142</v>
@@ -15893,10 +16039,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>599</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>600</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>417</v>
@@ -15908,10 +16054,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>601</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>602</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>417</v>
@@ -15926,7 +16072,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>417</v>
@@ -15938,10 +16084,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>604</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>605</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>417</v>
@@ -16170,7 +16316,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>159</v>
@@ -17748,7 +17894,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="55" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -17791,31 +17937,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F2" s="69" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="69" t="s">
+        <v>917</v>
+      </c>
+      <c r="H2" s="69" t="s">
         <v>918</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="I2" s="69" t="s">
         <v>919</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="J2" s="69" t="s">
         <v>920</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="K2" s="95" t="s">
         <v>921</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="69" t="s">
         <v>922</v>
       </c>
-      <c r="L2" s="69" t="s">
+      <c r="M2" s="70" t="s">
         <v>923</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>924</v>
       </c>
       <c r="N2" s="69" t="s">
         <v>424</v>
@@ -17833,10 +17979,10 @@
         <v>427</v>
       </c>
       <c r="S2" s="69" t="s">
+        <v>924</v>
+      </c>
+      <c r="T2" s="69" t="s">
         <v>925</v>
-      </c>
-      <c r="T2" s="69" t="s">
-        <v>926</v>
       </c>
       <c r="U2" s="69" t="s">
         <v>96</v>
@@ -17848,10 +17994,10 @@
         <v>331</v>
       </c>
       <c r="X2" s="69" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="Y2" s="69" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z2" s="69" t="s">
         <v>98</v>
@@ -17896,16 +18042,16 @@
         <v>324</v>
       </c>
       <c r="B4" s="106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="106" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="38" t="s">
+        <v>960</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>961</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>962</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>348</v>
@@ -17928,7 +18074,7 @@
         <v>337</v>
       </c>
       <c r="N4" s="56" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O4" s="56" t="s">
         <v>338</v>
@@ -17961,7 +18107,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z4" s="40"/>
       <c r="AA4" s="40"/>
@@ -17971,16 +18117,16 @@
         <v>324</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C5" s="106" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E5" s="107" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F5" s="56" t="s">
         <v>351</v>
@@ -18005,7 +18151,7 @@
         <v>337</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="O5" s="56" t="s">
         <v>353</v>
@@ -18038,7 +18184,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z5" s="40"/>
       <c r="AA5" s="40"/>
@@ -24176,7 +24322,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -24194,7 +24340,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D2" s="95" t="s">
         <v>85</v>
@@ -24203,10 +24349,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="95" t="s">
+        <v>937</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>938</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>939</v>
       </c>
       <c r="H2" s="98" t="s">
         <v>443</v>
@@ -24229,7 +24375,7 @@
         <v>324</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>431</v>
@@ -24238,7 +24384,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F4" s="38">
         <v>2</v>
@@ -30289,7 +30435,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="55" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
@@ -30323,46 +30469,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D2" s="70" t="s">
+        <v>941</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>942</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>943</v>
       </c>
       <c r="F2" s="95" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H2" s="70" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I2" s="95" t="s">
         <v>424</v>
       </c>
       <c r="J2" s="95" t="s">
+        <v>943</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>944</v>
       </c>
-      <c r="K2" s="95" t="s">
+      <c r="L2" s="95" t="s">
         <v>945</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>946</v>
       </c>
       <c r="M2" s="95" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="95" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O2" s="114" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="114" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="Q2" s="102" t="s">
         <v>443</v>
@@ -30400,19 +30546,19 @@
         <v>324</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>431</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G4" s="110">
         <v>4</v>
@@ -30421,7 +30567,7 @@
         <v>337</v>
       </c>
       <c r="I4" s="104" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J4" s="104" t="s">
         <v>436</v>
@@ -30436,7 +30582,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P4" s="40"/>
       <c r="Q4" s="38" t="s">
@@ -37293,22 +37439,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>432</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>357</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G1" s="62" t="s">
         <v>331</v>
@@ -37317,13 +37463,13 @@
         <v>330</v>
       </c>
       <c r="I1" s="97" t="s">
+        <v>921</v>
+      </c>
+      <c r="J1" s="97" t="s">
         <v>922</v>
       </c>
-      <c r="J1" s="97" t="s">
-        <v>923</v>
-      </c>
       <c r="K1" s="62" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -37355,7 +37501,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="68" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K2" s="40">
         <v>1</v>
@@ -37363,7 +37509,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="96" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>434</v>
@@ -37390,7 +37536,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K3" s="40">
         <v>2</v>
@@ -37398,7 +37544,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="96" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>352</v>
@@ -37420,7 +37566,7 @@
         <v>348</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>435</v>
@@ -37440,7 +37586,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D6" s="40"/>
       <c r="E6" s="40" t="s">
@@ -37453,11 +37599,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="96" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B7" s="40"/>
       <c r="C7" s="40" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D7" s="40"/>
       <c r="E7" s="40" t="s">
@@ -37470,11 +37616,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="96" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D8" s="40"/>
       <c r="E8" s="40" t="s">
@@ -37508,7 +37654,7 @@
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40" t="s">
@@ -37521,11 +37667,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="96" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40" t="s">
@@ -37542,11 +37688,11 @@
       </c>
       <c r="B12" s="40"/>
       <c r="C12" s="40" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F12" s="40"/>
       <c r="H12" s="40" t="s">
@@ -37559,7 +37705,7 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -37574,7 +37720,7 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="40" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -38108,91 +38254,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="85" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>850</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="C1" s="93" t="s">
         <v>851</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="D1" s="93" t="s">
         <v>852</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="E1" s="93" t="s">
         <v>853</v>
       </c>
-      <c r="E1" s="93" t="s">
+      <c r="F1" s="93" t="s">
         <v>854</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>855</v>
       </c>
       <c r="G1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="93" t="s">
+        <v>855</v>
+      </c>
+      <c r="I1" s="93" t="s">
         <v>856</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="J1" s="93" t="s">
         <v>857</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>858</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="L1" s="93" t="s">
         <v>859</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="M1" s="93" t="s">
+        <v>911</v>
+      </c>
+      <c r="N1" s="93" t="s">
         <v>860</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="O1" s="93" t="s">
+        <v>861</v>
+      </c>
+      <c r="P1" s="93" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q1" s="93" t="s">
+        <v>863</v>
+      </c>
+      <c r="R1" s="93" t="s">
+        <v>864</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>865</v>
+      </c>
+      <c r="T1" s="93" t="s">
+        <v>913</v>
+      </c>
+      <c r="U1" s="93" t="s">
+        <v>866</v>
+      </c>
+      <c r="V1" s="84" t="s">
+        <v>867</v>
+      </c>
+      <c r="W1" s="84" t="s">
+        <v>868</v>
+      </c>
+      <c r="X1" s="84" t="s">
+        <v>869</v>
+      </c>
+      <c r="Y1" s="93" t="s">
         <v>912</v>
-      </c>
-      <c r="N1" s="93" t="s">
-        <v>861</v>
-      </c>
-      <c r="O1" s="93" t="s">
-        <v>862</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>863</v>
-      </c>
-      <c r="Q1" s="93" t="s">
-        <v>864</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>865</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>866</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>914</v>
-      </c>
-      <c r="U1" s="93" t="s">
-        <v>867</v>
-      </c>
-      <c r="V1" s="84" t="s">
-        <v>868</v>
-      </c>
-      <c r="W1" s="84" t="s">
-        <v>869</v>
-      </c>
-      <c r="X1" s="84" t="s">
-        <v>870</v>
-      </c>
-      <c r="Y1" s="93" t="s">
-        <v>913</v>
       </c>
       <c r="Z1" s="84" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="84" t="s">
+        <v>870</v>
+      </c>
+      <c r="AB1" s="84" t="s">
         <v>871</v>
       </c>
-      <c r="AB1" s="84" t="s">
+      <c r="AC1" s="84" t="s">
         <v>872</v>
-      </c>
-      <c r="AC1" s="84" t="s">
-        <v>873</v>
       </c>
       <c r="AD1" s="84" t="s">
         <v>253</v>
@@ -38213,7 +38359,7 @@
         <v>258</v>
       </c>
       <c r="AJ1" s="84" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AK1" s="84" t="s">
         <v>323</v>
@@ -38245,7 +38391,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>39</v>
@@ -38268,13 +38414,13 @@
         <v>ash-drg</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O2" s="87" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Q2" s="87" t="s">
         <v>364</v>
@@ -38294,13 +38440,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="87" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="W2" s="87" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="87" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Y2" s="87" t="b">
         <v>1</v>
@@ -38309,7 +38455,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="87" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AB2" s="87" t="s">
         <v>171</v>
@@ -38375,7 +38521,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -38389,7 +38535,7 @@
         <v/>
       </c>
       <c r="N3" s="87" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O3" s="87" t="s">
         <v>400</v>
@@ -38404,7 +38550,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="87" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="T3" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -38421,7 +38567,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="87" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="Y3" s="87" t="b">
         <v>0</v>
@@ -38433,7 +38579,7 @@
         <v>170</v>
       </c>
       <c r="AB3" s="87" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AC3" s="87" t="s">
         <v>173</v>
@@ -38457,7 +38603,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="87" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AK3" s="86" t="s">
         <v>329</v>
@@ -38485,7 +38631,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H4" s="87"/>
       <c r="I4" s="87" t="s">
@@ -38515,7 +38661,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="87" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T4" s="87" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -38528,14 +38674,14 @@
       <c r="V4" s="87"/>
       <c r="W4" s="87"/>
       <c r="X4" s="87" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Y4" s="87"/>
       <c r="Z4" s="87" t="s">
+        <v>885</v>
+      </c>
+      <c r="AA4" s="87" t="s">
         <v>886</v>
-      </c>
-      <c r="AA4" s="87" t="s">
-        <v>887</v>
       </c>
       <c r="AB4" s="87"/>
       <c r="AC4" s="87" t="s">
@@ -38582,7 +38728,7 @@
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H5" s="87"/>
       <c r="I5" s="87" t="s">
@@ -38600,7 +38746,7 @@
       </c>
       <c r="N5" s="87"/>
       <c r="O5" s="87" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P5" s="88"/>
       <c r="Q5" s="87"/>
@@ -38617,7 +38763,7 @@
       <c r="X5" s="87"/>
       <c r="Y5" s="87"/>
       <c r="Z5" s="87" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AA5" s="87"/>
       <c r="AB5" s="87"/>
@@ -38661,7 +38807,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H6" s="87"/>
       <c r="I6" s="87"/>
@@ -38677,7 +38823,7 @@
       </c>
       <c r="N6" s="87"/>
       <c r="O6" s="87" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="87"/>
@@ -38734,7 +38880,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
@@ -38750,7 +38896,7 @@
       </c>
       <c r="N7" s="87"/>
       <c r="O7" s="87" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="87"/>
@@ -38805,7 +38951,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H8" s="87"/>
       <c r="I8" s="87"/>
@@ -38874,7 +39020,7 @@
       </c>
       <c r="F9" s="87"/>
       <c r="G9" s="87" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
@@ -38943,7 +39089,7 @@
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
@@ -39012,7 +39158,7 @@
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
@@ -39081,7 +39227,7 @@
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
@@ -39148,7 +39294,7 @@
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
@@ -39215,7 +39361,7 @@
       </c>
       <c r="F14" s="87"/>
       <c r="G14" s="87" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
@@ -39349,7 +39495,7 @@
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="87" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H16" s="87"/>
       <c r="I16" s="87"/>
@@ -39416,7 +39562,7 @@
       </c>
       <c r="F17" s="87"/>
       <c r="G17" s="87" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H17" s="87"/>
       <c r="I17" s="87"/>
@@ -39483,7 +39629,7 @@
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="87" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
@@ -39550,7 +39696,7 @@
       </c>
       <c r="F19" s="87"/>
       <c r="G19" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H19" s="87"/>
       <c r="I19" s="87"/>
@@ -39617,7 +39763,7 @@
       </c>
       <c r="F20" s="87"/>
       <c r="G20" s="87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H20" s="87"/>
       <c r="I20" s="87"/>
@@ -39684,7 +39830,7 @@
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="87" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H21" s="87"/>
       <c r="I21" s="87"/>
@@ -39751,7 +39897,7 @@
       </c>
       <c r="F22" s="87"/>
       <c r="G22" s="87" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H22" s="87"/>
       <c r="I22" s="87"/>
@@ -39818,7 +39964,7 @@
       </c>
       <c r="F23" s="87"/>
       <c r="G23" s="87" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
@@ -39885,7 +40031,7 @@
       </c>
       <c r="F24" s="87"/>
       <c r="G24" s="87" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H24" s="87"/>
       <c r="I24" s="87"/>
@@ -41364,10 +41510,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>606</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>607</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="40"/>
@@ -41377,10 +41523,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>609</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="40"/>
@@ -41390,10 +41536,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>611</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="40"/>
@@ -41403,10 +41549,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>612</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>613</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="40"/>
@@ -41416,10 +41562,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="76" t="s">
         <v>614</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>615</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -41429,10 +41575,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="38" t="s">
         <v>616</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>617</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="38"/>
@@ -41442,10 +41588,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>774</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>775</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -41455,10 +41601,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>811</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>812</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -41468,10 +41614,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="38" t="s">
+        <v>957</v>
+      </c>
+      <c r="C11" s="38" t="s">
         <v>958</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>959</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -41850,10 +41996,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -42366,16 +42512,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>777</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>778</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -42387,7 +42533,7 @@
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
       <c r="E4" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
@@ -42398,16 +42544,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D5" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>619</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>620</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -42419,7 +42565,7 @@
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -42431,7 +42577,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
@@ -42443,7 +42589,7 @@
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
       <c r="E8" s="38" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -42455,7 +42601,7 @@
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
@@ -42467,7 +42613,7 @@
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -42479,7 +42625,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
@@ -42491,7 +42637,7 @@
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -42503,7 +42649,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -42515,7 +42661,7 @@
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
@@ -42527,7 +42673,7 @@
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
@@ -42539,7 +42685,7 @@
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
@@ -42551,7 +42697,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
@@ -42563,7 +42709,7 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
@@ -42575,7 +42721,7 @@
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
@@ -42587,7 +42733,7 @@
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -42599,7 +42745,7 @@
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
@@ -42611,7 +42757,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
@@ -42623,7 +42769,7 @@
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
@@ -42635,7 +42781,7 @@
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
@@ -42647,7 +42793,7 @@
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
@@ -42659,7 +42805,7 @@
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
       <c r="E26" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
@@ -42671,7 +42817,7 @@
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="38" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
@@ -42683,7 +42829,7 @@
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
@@ -42695,7 +42841,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
@@ -42707,7 +42853,7 @@
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -42719,7 +42865,7 @@
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F31" s="38"/>
       <c r="G31" s="38"/>
@@ -42731,7 +42877,7 @@
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
@@ -42743,7 +42889,7 @@
       <c r="C33" s="38"/>
       <c r="D33" s="38"/>
       <c r="E33" s="38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
@@ -42755,7 +42901,7 @@
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
       <c r="E34" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
@@ -42767,7 +42913,7 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
@@ -42779,7 +42925,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
@@ -42791,7 +42937,7 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
@@ -42803,7 +42949,7 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
@@ -42815,7 +42961,7 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
@@ -42827,7 +42973,7 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
@@ -42839,7 +42985,7 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
@@ -42851,7 +42997,7 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
@@ -42863,7 +43009,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -42875,7 +43021,7 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -42887,7 +43033,7 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
@@ -42899,7 +43045,7 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
@@ -42910,16 +43056,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="111" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D47" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E47" s="38" t="s">
         <v>645</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>646</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
@@ -42931,7 +43077,7 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
@@ -42943,7 +43089,7 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
@@ -42955,7 +43101,7 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
@@ -42967,7 +43113,7 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
@@ -42979,7 +43125,7 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
@@ -42991,7 +43137,7 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
@@ -43003,7 +43149,7 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
@@ -43015,7 +43161,7 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
@@ -43027,7 +43173,7 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
@@ -43039,7 +43185,7 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
@@ -43051,7 +43197,7 @@
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
@@ -43063,7 +43209,7 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
@@ -43075,7 +43221,7 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
@@ -43087,7 +43233,7 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
@@ -43099,7 +43245,7 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
@@ -43110,16 +43256,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D63" s="38" t="s">
+        <v>821</v>
+      </c>
+      <c r="E63" s="38" t="s">
         <v>822</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>823</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
@@ -43131,7 +43277,7 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -43143,7 +43289,7 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
@@ -43155,7 +43301,7 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
@@ -43166,16 +43312,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C67" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D67" s="38" t="s">
+        <v>657</v>
+      </c>
+      <c r="E67" s="38" t="s">
         <v>658</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>659</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
@@ -43187,7 +43333,7 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
@@ -43199,7 +43345,7 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
@@ -43211,7 +43357,7 @@
       <c r="C70" s="38"/>
       <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -43223,7 +43369,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -43235,7 +43381,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -43247,7 +43393,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -43259,7 +43405,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -43271,7 +43417,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -43283,7 +43429,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -43295,7 +43441,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -43307,7 +43453,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -43319,7 +43465,7 @@
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
       <c r="E79" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
@@ -43331,7 +43477,7 @@
       <c r="C80" s="38"/>
       <c r="D80" s="38"/>
       <c r="E80" s="38" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -43343,7 +43489,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -43355,7 +43501,7 @@
       <c r="C82" s="38"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
@@ -43367,7 +43513,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -43379,7 +43525,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -43391,7 +43537,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -43403,7 +43549,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -43414,16 +43560,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="111" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D87" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="E87" s="38" t="s">
         <v>677</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>678</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -43435,7 +43581,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -43447,7 +43593,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -43459,7 +43605,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -43471,7 +43617,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -43483,7 +43629,7 @@
       <c r="C92" s="38"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -43495,7 +43641,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -43507,7 +43653,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -43519,7 +43665,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -43531,7 +43677,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -43543,7 +43689,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -43555,7 +43701,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -43567,7 +43713,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -43579,7 +43725,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -43591,7 +43737,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -43603,7 +43749,7 @@
       <c r="C102" s="38"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -43615,7 +43761,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -43627,7 +43773,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -43639,7 +43785,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -43651,7 +43797,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -43663,7 +43809,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -43675,7 +43821,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -43687,7 +43833,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -43699,7 +43845,7 @@
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
       <c r="E110" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
@@ -43711,7 +43857,7 @@
       <c r="C111" s="38"/>
       <c r="D111" s="38"/>
       <c r="E111" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -43723,7 +43869,7 @@
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -43735,7 +43881,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -43747,7 +43893,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -43759,7 +43905,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -43771,7 +43917,7 @@
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -43782,16 +43928,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D117" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E117" s="111" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -43803,7 +43949,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="111" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -43815,7 +43961,7 @@
       <c r="C119" s="38"/>
       <c r="D119" s="38"/>
       <c r="E119" s="111" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -43827,7 +43973,7 @@
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="111" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -43839,7 +43985,7 @@
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="111" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -43851,7 +43997,7 @@
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="111" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -43863,7 +44009,7 @@
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
       <c r="E123" s="111" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
@@ -43875,7 +44021,7 @@
       <c r="C124" s="38"/>
       <c r="D124" s="38"/>
       <c r="E124" s="111" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -43887,7 +44033,7 @@
       <c r="C125" s="38"/>
       <c r="D125" s="38"/>
       <c r="E125" s="111" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -43899,7 +44045,7 @@
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="111" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -43911,7 +44057,7 @@
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="111" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -43923,7 +44069,7 @@
       <c r="C128" s="38"/>
       <c r="D128" s="38"/>
       <c r="E128" s="111" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
@@ -43935,7 +44081,7 @@
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="111" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
@@ -43947,7 +44093,7 @@
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
@@ -43959,7 +44105,7 @@
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
@@ -43971,7 +44117,7 @@
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
@@ -43983,7 +44129,7 @@
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
@@ -43995,7 +44141,7 @@
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
@@ -44006,16 +44152,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="111" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C135" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D135" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E135" s="38" t="s">
         <v>706</v>
-      </c>
-      <c r="E135" s="38" t="s">
-        <v>707</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -44027,7 +44173,7 @@
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
@@ -44039,7 +44185,7 @@
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
       <c r="E137" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
@@ -44051,7 +44197,7 @@
       <c r="C138" s="38"/>
       <c r="D138" s="38"/>
       <c r="E138" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
@@ -44063,7 +44209,7 @@
       <c r="C139" s="38"/>
       <c r="D139" s="38"/>
       <c r="E139" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
@@ -44075,7 +44221,7 @@
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
       <c r="E140" s="38" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
@@ -44087,7 +44233,7 @@
       <c r="C141" s="38"/>
       <c r="D141" s="38"/>
       <c r="E141" s="38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
@@ -44099,7 +44245,7 @@
       <c r="C142" s="38"/>
       <c r="D142" s="38"/>
       <c r="E142" s="38" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
@@ -44111,7 +44257,7 @@
       <c r="C143" s="38"/>
       <c r="D143" s="38"/>
       <c r="E143" s="38" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
@@ -44123,7 +44269,7 @@
       <c r="C144" s="38"/>
       <c r="D144" s="38"/>
       <c r="E144" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
@@ -44135,7 +44281,7 @@
       <c r="C145" s="38"/>
       <c r="D145" s="38"/>
       <c r="E145" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -44147,7 +44293,7 @@
       <c r="C146" s="38"/>
       <c r="D146" s="38"/>
       <c r="E146" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
@@ -44159,7 +44305,7 @@
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
       <c r="E147" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
@@ -44171,7 +44317,7 @@
       <c r="C148" s="38"/>
       <c r="D148" s="38"/>
       <c r="E148" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
@@ -44183,7 +44329,7 @@
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
       <c r="E149" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F149" s="38"/>
       <c r="G149" s="38"/>
@@ -44195,7 +44341,7 @@
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
       <c r="E150" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
@@ -44207,7 +44353,7 @@
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
       <c r="E151" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F151" s="38"/>
       <c r="G151" s="38"/>
@@ -44219,7 +44365,7 @@
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
       <c r="E152" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F152" s="38"/>
       <c r="G152" s="38"/>
@@ -44231,7 +44377,7 @@
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
       <c r="E153" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F153" s="38"/>
       <c r="G153" s="38"/>
@@ -44243,7 +44389,7 @@
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
       <c r="E154" s="38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F154" s="38"/>
       <c r="G154" s="38"/>
@@ -44255,7 +44401,7 @@
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
       <c r="E155" s="38" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F155" s="38"/>
       <c r="G155" s="38"/>
@@ -44266,16 +44412,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C156" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D156" s="38" t="s">
+        <v>786</v>
+      </c>
+      <c r="E156" s="38" t="s">
         <v>787</v>
-      </c>
-      <c r="E156" s="38" t="s">
-        <v>788</v>
       </c>
       <c r="F156" s="38"/>
       <c r="G156" s="38"/>
@@ -44286,16 +44432,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="103" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C157" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D157" s="38" t="s">
+        <v>954</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>955</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>956</v>
       </c>
       <c r="F157" s="38"/>
       <c r="G157" s="38"/>
@@ -44307,7 +44453,7 @@
       <c r="C158" s="38"/>
       <c r="D158" s="38"/>
       <c r="E158" s="38" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="38"/>
@@ -44318,16 +44464,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="111" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C159" s="38" t="s">
         <v>417</v>
       </c>
       <c r="D159" s="38" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="38"/>
@@ -44339,7 +44485,7 @@
       <c r="C160" s="38"/>
       <c r="D160" s="38"/>
       <c r="E160" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F160" s="38"/>
       <c r="G160" s="38"/>
@@ -44351,7 +44497,7 @@
       <c r="C161" s="38"/>
       <c r="D161" s="38"/>
       <c r="E161" s="38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F161" s="38"/>
       <c r="G161" s="38"/>
@@ -44363,7 +44509,7 @@
       <c r="C162" s="38"/>
       <c r="D162" s="38"/>
       <c r="E162" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F162" s="38"/>
       <c r="G162" s="38"/>
@@ -44375,7 +44521,7 @@
       <c r="C163" s="38"/>
       <c r="D163" s="38"/>
       <c r="E163" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F163" s="38"/>
       <c r="G163" s="38"/>
@@ -44387,7 +44533,7 @@
       <c r="C164" s="38"/>
       <c r="D164" s="38"/>
       <c r="E164" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="38"/>
@@ -44399,7 +44545,7 @@
       <c r="C165" s="38"/>
       <c r="D165" s="38"/>
       <c r="E165" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="38"/>
@@ -44411,7 +44557,7 @@
       <c r="C166" s="38"/>
       <c r="D166" s="38"/>
       <c r="E166" s="38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F166" s="38"/>
       <c r="G166" s="38"/>
@@ -44423,7 +44569,7 @@
       <c r="C167" s="38"/>
       <c r="D167" s="38"/>
       <c r="E167" s="38" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F167" s="38"/>
       <c r="G167" s="38"/>
@@ -44435,7 +44581,7 @@
       <c r="C168" s="38"/>
       <c r="D168" s="38"/>
       <c r="E168" s="38" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F168" s="38"/>
       <c r="G168" s="38"/>
@@ -44447,7 +44593,7 @@
       <c r="C169" s="38"/>
       <c r="D169" s="38"/>
       <c r="E169" s="38" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F169" s="38"/>
       <c r="G169" s="38"/>
@@ -44459,7 +44605,7 @@
       <c r="C170" s="38"/>
       <c r="D170" s="38"/>
       <c r="E170" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F170" s="38"/>
       <c r="G170" s="38"/>
@@ -44471,7 +44617,7 @@
       <c r="C171" s="38"/>
       <c r="D171" s="38"/>
       <c r="E171" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F171" s="38"/>
       <c r="G171" s="38"/>
@@ -44483,7 +44629,7 @@
       <c r="C172" s="38"/>
       <c r="D172" s="38"/>
       <c r="E172" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F172" s="38"/>
       <c r="G172" s="38"/>
@@ -44495,7 +44641,7 @@
       <c r="C173" s="38"/>
       <c r="D173" s="38"/>
       <c r="E173" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F173" s="38"/>
       <c r="G173" s="38"/>
@@ -44507,7 +44653,7 @@
       <c r="C174" s="38"/>
       <c r="D174" s="38"/>
       <c r="E174" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F174" s="38"/>
       <c r="G174" s="38"/>
@@ -44519,7 +44665,7 @@
       <c r="C175" s="38"/>
       <c r="D175" s="38"/>
       <c r="E175" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F175" s="38"/>
       <c r="G175" s="38"/>
@@ -44531,7 +44677,7 @@
       <c r="C176" s="38"/>
       <c r="D176" s="38"/>
       <c r="E176" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F176" s="38"/>
       <c r="G176" s="38"/>
@@ -44543,7 +44689,7 @@
       <c r="C177" s="38"/>
       <c r="D177" s="38"/>
       <c r="E177" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F177" s="38"/>
       <c r="G177" s="38"/>
@@ -44555,7 +44701,7 @@
       <c r="C178" s="38"/>
       <c r="D178" s="38"/>
       <c r="E178" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F178" s="38"/>
       <c r="G178" s="38"/>
@@ -44567,7 +44713,7 @@
       <c r="C179" s="38"/>
       <c r="D179" s="38"/>
       <c r="E179" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F179" s="38"/>
       <c r="G179" s="38"/>
@@ -44579,7 +44725,7 @@
       <c r="C180" s="38"/>
       <c r="D180" s="38"/>
       <c r="E180" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F180" s="38"/>
       <c r="G180" s="38"/>
@@ -44591,7 +44737,7 @@
       <c r="C181" s="38"/>
       <c r="D181" s="38"/>
       <c r="E181" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F181" s="38"/>
       <c r="G181" s="38"/>
@@ -44603,7 +44749,7 @@
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
       <c r="E182" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
@@ -44615,7 +44761,7 @@
       <c r="C183" s="38"/>
       <c r="D183" s="38"/>
       <c r="E183" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F183" s="38"/>
       <c r="G183" s="38"/>
@@ -44627,7 +44773,7 @@
       <c r="C184" s="38"/>
       <c r="D184" s="38"/>
       <c r="E184" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F184" s="38"/>
       <c r="G184" s="38"/>
@@ -44639,7 +44785,7 @@
       <c r="C185" s="38"/>
       <c r="D185" s="38"/>
       <c r="E185" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F185" s="38"/>
       <c r="G185" s="38"/>
@@ -44651,7 +44797,7 @@
       <c r="C186" s="38"/>
       <c r="D186" s="38"/>
       <c r="E186" s="38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F186" s="38"/>
       <c r="G186" s="38"/>
@@ -44663,7 +44809,7 @@
       <c r="C187" s="38"/>
       <c r="D187" s="38"/>
       <c r="E187" s="38" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F187" s="38"/>
       <c r="G187" s="38"/>
@@ -44675,7 +44821,7 @@
       <c r="C188" s="38"/>
       <c r="D188" s="38"/>
       <c r="E188" s="38" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F188" s="38"/>
       <c r="G188" s="38"/>
@@ -44687,7 +44833,7 @@
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
       <c r="E189" s="38" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
@@ -44699,7 +44845,7 @@
       <c r="C190" s="38"/>
       <c r="D190" s="38"/>
       <c r="E190" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F190" s="38"/>
       <c r="G190" s="38"/>
@@ -44711,7 +44857,7 @@
       <c r="C191" s="38"/>
       <c r="D191" s="38"/>
       <c r="E191" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F191" s="38"/>
       <c r="G191" s="38"/>
@@ -44723,7 +44869,7 @@
       <c r="C192" s="38"/>
       <c r="D192" s="38"/>
       <c r="E192" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F192" s="38"/>
       <c r="G192" s="38"/>
@@ -44735,7 +44881,7 @@
       <c r="C193" s="38"/>
       <c r="D193" s="38"/>
       <c r="E193" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F193" s="38"/>
       <c r="G193" s="38"/>
@@ -44747,7 +44893,7 @@
       <c r="C194" s="38"/>
       <c r="D194" s="38"/>
       <c r="E194" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F194" s="38"/>
       <c r="G194" s="38"/>
@@ -44759,7 +44905,7 @@
       <c r="C195" s="38"/>
       <c r="D195" s="38"/>
       <c r="E195" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F195" s="38"/>
       <c r="G195" s="38"/>
@@ -44771,7 +44917,7 @@
       <c r="C196" s="38"/>
       <c r="D196" s="38"/>
       <c r="E196" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F196" s="38"/>
       <c r="G196" s="38"/>
@@ -44783,7 +44929,7 @@
       <c r="C197" s="76"/>
       <c r="D197" s="76"/>
       <c r="E197" s="76" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F197" s="76"/>
       <c r="G197" s="76"/>
@@ -44791,7 +44937,7 @@
     </row>
     <row r="198" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E198" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -44866,7 +45012,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
           <x14:formula1>
@@ -44878,13 +45024,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C113 C111 C152 C150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C107 C41:C43 C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
           <x14:formula1>
@@ -44958,7 +45104,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -45012,16 +45158,16 @@
         <v>417</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E3" s="38" t="s">
+        <v>788</v>
+      </c>
+      <c r="F3" s="38" t="s">
         <v>789</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>790</v>
       </c>
       <c r="G3" s="38" t="b">
         <v>1</v>
@@ -45031,7 +45177,7 @@
         <v>417</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -45042,16 +45188,16 @@
         <v>417</v>
       </c>
       <c r="C4" s="79" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E4" s="38" t="s">
+        <v>791</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>792</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>793</v>
       </c>
       <c r="G4" s="38" t="b">
         <v>0</v>
@@ -45061,7 +45207,7 @@
         <v>417</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -45371,7 +45517,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="39" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -45398,7 +45544,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>12</v>
@@ -45433,13 +45579,13 @@
         <v>365</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>21</v>
@@ -45454,7 +45600,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K3" s="40"/>
       <c r="L3" s="34"/>
@@ -45489,7 +45635,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F5" s="74" t="s">
         <v>23</v>
@@ -45501,13 +45647,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="74" t="s">
+        <v>1012</v>
+      </c>
+      <c r="J5" s="74" t="s">
         <v>1013</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="K5" s="74" t="s">
         <v>1014</v>
-      </c>
-      <c r="K5" s="74" t="s">
-        <v>1015</v>
       </c>
       <c r="L5" s="75" t="s">
         <v>463</v>
@@ -45539,10 +45685,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>1016</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>1017</v>
       </c>
       <c r="K6" s="74"/>
       <c r="L6" s="74"/>
@@ -45573,10 +45719,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="74" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J7" s="74" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K7" s="74"/>
       <c r="L7" s="74"/>
@@ -45670,14 +45816,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
       <c r="D1" s="119"/>
       <c r="E1" s="119"/>
       <c r="F1" s="124" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G1" s="125"/>
       <c r="H1" s="125"/>
@@ -45690,19 +45836,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="80" t="s">
+        <v>800</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>801</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>802</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="81" t="s">
         <v>803</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="82" t="s">
         <v>804</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>805</v>
       </c>
       <c r="H2" s="116" t="s">
         <v>443</v>
@@ -45716,19 +45862,19 @@
         <v>365</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D3" s="38" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>1019</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="F3" s="38" t="s">
         <v>1020</v>
       </c>
-      <c r="F3" s="38" t="s">
-        <v>1021</v>
-      </c>
       <c r="G3" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H3" s="40"/>
     </row>
@@ -46125,7 +46271,7 @@
         <v>365</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>36</v>
@@ -46134,7 +46280,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
@@ -46234,7 +46380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -46348,10 +46494,10 @@
         <v>365</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E3" s="40" t="s">
         <v>51</v>
@@ -46360,7 +46506,7 @@
         <v>52</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H3" s="40" t="s">
         <v>36</v>
@@ -46396,13 +46542,13 @@
         <v>365</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>52</v>
@@ -46444,13 +46590,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>52</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -52,6 +52,7 @@
     <externalReference r:id="rId36"/>
     <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="20">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1035">
   <si>
     <t>Region</t>
   </si>
@@ -5699,13 +5700,7 @@
     <t>Frankfurt</t>
   </si>
   <si>
-    <t>ssh</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>rdp</t>
   </si>
   <si>
     <t>Jeddah</t>
@@ -7990,6 +7985,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8059,14 +8062,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -11211,6 +11206,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -11527,7 +11537,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="67" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -11567,28 +11577,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="122" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="126" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -11654,10 +11664,10 @@
         <v>364</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>50</v>
@@ -11702,10 +11712,10 @@
         <v>364</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>742</v>
@@ -11750,10 +11760,10 @@
         <v>364</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>840</v>
@@ -12144,18 +12154,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>802</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -13752,17 +13762,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
@@ -13837,7 +13847,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -13853,25 +13863,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -14005,34 +14015,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="113" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -14053,7 +14063,7 @@
       <c r="H2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="114" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="61" t="s">
@@ -14991,15 +15001,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -15177,30 +15187,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="135" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>794</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="114" t="s">
-        <v>1032</v>
-      </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="116"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="118" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="120"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -15234,16 +15244,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>95</v>
@@ -15292,7 +15302,7 @@
       <c r="I3" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="J3" s="138" t="s">
+      <c r="J3" s="115" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="37">
@@ -15418,13 +15428,13 @@
       <c r="I6" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
       <c r="O6" s="37" t="s">
         <v>103</v>
       </c>
@@ -15464,13 +15474,13 @@
       <c r="I7" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="J7" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
       <c r="O7" s="37" t="s">
         <v>103</v>
       </c>
@@ -15630,19 +15640,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="114.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" s="44" customFormat="1" ht="43.5">
       <c r="A2" s="29" t="s">
@@ -15667,7 +15677,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>96</v>
@@ -15751,7 +15761,7 @@
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
-      <c r="J5" s="139"/>
+      <c r="J5" s="116"/>
       <c r="K5" s="37"/>
     </row>
     <row r="6" spans="1:11">
@@ -15954,27 +15964,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="130" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="133" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="124" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -16037,7 +16047,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="35" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -16352,27 +16362,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="18" t="s">
@@ -16385,7 +16395,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>838</v>
@@ -16403,7 +16413,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>141</v>
@@ -16640,13 +16650,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="29" t="s">
@@ -16906,29 +16916,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="104" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="116"/>
+      <c r="A1" s="118" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="120"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="38" t="s">
@@ -16941,13 +16951,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>157</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>158</v>
@@ -17250,29 +17260,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="121" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="131"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="135"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -17949,14 +17959,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="136" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="138"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="18" t="s">
@@ -18105,24 +18115,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="109" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
+      <c r="A1" s="117" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -18147,7 +18157,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>245</v>
@@ -18350,17 +18360,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
@@ -18524,35 +18534,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="51" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="116"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="120"/>
     </row>
     <row r="2" spans="1:27" s="62" customFormat="1" ht="43.5">
       <c r="A2" s="65" t="s">
@@ -18568,31 +18578,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="65" t="s">
+        <v>907</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>908</v>
+      </c>
+      <c r="I2" s="65" t="s">
         <v>909</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="J2" s="65" t="s">
         <v>910</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="K2" s="91" t="s">
         <v>911</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="L2" s="65" t="s">
         <v>912</v>
       </c>
-      <c r="K2" s="91" t="s">
+      <c r="M2" s="66" t="s">
         <v>913</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>914</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>915</v>
       </c>
       <c r="N2" s="65" t="s">
         <v>423</v>
@@ -18610,10 +18620,10 @@
         <v>426</v>
       </c>
       <c r="S2" s="65" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="T2" s="65" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="U2" s="65" t="s">
         <v>95</v>
@@ -18625,7 +18635,7 @@
         <v>330</v>
       </c>
       <c r="X2" s="65" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="Y2" s="65" t="s">
         <v>590</v>
@@ -18679,10 +18689,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>347</v>
@@ -18705,7 +18715,7 @@
         <v>336</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="O4" s="52" t="s">
         <v>337</v>
@@ -18754,10 +18764,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>350</v>
@@ -18782,7 +18792,7 @@
         <v>336</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="O5" s="52" t="s">
         <v>352</v>
@@ -24952,16 +24962,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>932</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="A1" s="118" t="s">
+        <v>930</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="91" t="s">
@@ -24971,7 +24981,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>84</v>
@@ -24980,10 +24990,10 @@
         <v>85</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H2" s="94" t="s">
         <v>442</v>
@@ -25015,7 +25025,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F4" s="35">
         <v>2</v>
@@ -31065,25 +31075,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="51" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
       <c r="R1" s="97"/>
       <c r="S1" s="97"/>
       <c r="T1" s="97"/>
@@ -31100,34 +31110,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F2" s="91" t="s">
         <v>354</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I2" s="91" t="s">
         <v>423</v>
       </c>
       <c r="J2" s="91" t="s">
+        <v>933</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>934</v>
+      </c>
+      <c r="L2" s="91" t="s">
         <v>935</v>
-      </c>
-      <c r="K2" s="91" t="s">
-        <v>936</v>
-      </c>
-      <c r="L2" s="91" t="s">
-        <v>937</v>
       </c>
       <c r="M2" s="91" t="s">
         <v>95</v>
@@ -31139,7 +31149,7 @@
         <v>97</v>
       </c>
       <c r="P2" s="110" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="Q2" s="98" t="s">
         <v>442</v>
@@ -31183,13 +31193,13 @@
         <v>430</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G4" s="106">
         <v>4</v>
@@ -31198,7 +31208,7 @@
         <v>336</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J4" s="100" t="s">
         <v>435</v>
@@ -38070,22 +38080,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="48" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>431</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>356</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>330</v>
@@ -38094,13 +38104,13 @@
         <v>329</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J1" s="93" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -38132,7 +38142,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
@@ -38140,7 +38150,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="92" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>433</v>
@@ -38167,7 +38177,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
@@ -38175,7 +38185,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="92" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>351</v>
@@ -38197,7 +38207,7 @@
         <v>347</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>434</v>
@@ -38217,7 +38227,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
@@ -38230,11 +38240,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="92" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
@@ -38247,11 +38257,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="92" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
@@ -38285,7 +38295,7 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
@@ -38298,11 +38308,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="92" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
@@ -38319,11 +38329,11 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
@@ -38336,7 +38346,7 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -38351,7 +38361,7 @@
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -38840,8 +38850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5"/>
@@ -38921,7 +38931,7 @@
         <v>851</v>
       </c>
       <c r="M1" s="89" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N1" s="89" t="s">
         <v>852</v>
@@ -38942,7 +38952,7 @@
         <v>857</v>
       </c>
       <c r="T1" s="89" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="U1" s="89" t="s">
         <v>858</v>
@@ -38957,7 +38967,7 @@
         <v>861</v>
       </c>
       <c r="Y1" s="89" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="Z1" s="80" t="s">
         <v>85</v>
@@ -39394,7 +39404,7 @@
       <c r="X5" s="83"/>
       <c r="Y5" s="83"/>
       <c r="Z5" s="83" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="AA5" s="83"/>
       <c r="AB5" s="83"/>
@@ -39453,9 +39463,7 @@
         <v/>
       </c>
       <c r="N6" s="83"/>
-      <c r="O6" s="83" t="s">
-        <v>882</v>
-      </c>
+      <c r="O6" s="83"/>
       <c r="P6" s="84"/>
       <c r="Q6" s="83"/>
       <c r="R6" s="83"/>
@@ -39511,7 +39519,7 @@
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="83" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
@@ -39526,9 +39534,7 @@
         <v/>
       </c>
       <c r="N7" s="83"/>
-      <c r="O7" s="83" t="s">
-        <v>884</v>
-      </c>
+      <c r="O7" s="83"/>
       <c r="P7" s="84"/>
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
@@ -39582,7 +39588,7 @@
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="83" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H8" s="83"/>
       <c r="I8" s="83"/>
@@ -39651,7 +39657,7 @@
       </c>
       <c r="F9" s="83"/>
       <c r="G9" s="83" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
@@ -39720,7 +39726,7 @@
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="83" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -39789,7 +39795,7 @@
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="83" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -39858,7 +39864,7 @@
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="83" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H12" s="83"/>
       <c r="I12" s="83"/>
@@ -39925,7 +39931,7 @@
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="83" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="83"/>
@@ -39992,7 +39998,7 @@
       </c>
       <c r="F14" s="83"/>
       <c r="G14" s="83" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
@@ -40126,7 +40132,7 @@
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H16" s="83"/>
       <c r="I16" s="83"/>
@@ -40193,7 +40199,7 @@
       </c>
       <c r="F17" s="83"/>
       <c r="G17" s="83" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H17" s="83"/>
       <c r="I17" s="83"/>
@@ -40260,7 +40266,7 @@
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H18" s="83"/>
       <c r="I18" s="83"/>
@@ -40327,7 +40333,7 @@
       </c>
       <c r="F19" s="83"/>
       <c r="G19" s="83" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H19" s="83"/>
       <c r="I19" s="83"/>
@@ -40394,7 +40400,7 @@
       </c>
       <c r="F20" s="83"/>
       <c r="G20" s="83" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H20" s="83"/>
       <c r="I20" s="83"/>
@@ -40461,7 +40467,7 @@
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="83" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H21" s="83"/>
       <c r="I21" s="83"/>
@@ -40528,7 +40534,7 @@
       </c>
       <c r="F22" s="83"/>
       <c r="G22" s="83" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
@@ -40595,7 +40601,7 @@
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="83" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H23" s="83"/>
       <c r="I23" s="83"/>
@@ -40662,7 +40668,7 @@
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="83" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H24" s="83"/>
       <c r="I24" s="83"/>
@@ -42111,13 +42117,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -42245,10 +42251,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -42630,7 +42636,7 @@
         <v>841</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -43101,16 +43107,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -43556,7 +43562,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="1" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -43568,7 +43574,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -43580,7 +43586,7 @@
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -43592,7 +43598,7 @@
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
@@ -43604,7 +43610,7 @@
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -43640,7 +43646,7 @@
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -43664,7 +43670,7 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -43676,7 +43682,7 @@
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -43864,7 +43870,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -43876,7 +43882,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -44156,7 +44162,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -44168,7 +44174,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -44180,7 +44186,7 @@
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
@@ -44416,7 +44422,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -44428,7 +44434,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -44440,7 +44446,7 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="E107" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -44452,7 +44458,7 @@
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -44464,7 +44470,7 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -44476,7 +44482,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -44488,7 +44494,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -44500,7 +44506,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
@@ -44512,7 +44518,7 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -44536,7 +44542,7 @@
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -44548,7 +44554,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -44924,7 +44930,7 @@
       <c r="C146" s="35"/>
       <c r="D146" s="35"/>
       <c r="E146" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
@@ -44936,7 +44942,7 @@
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
       <c r="E147" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
@@ -44948,7 +44954,7 @@
       <c r="C148" s="35"/>
       <c r="D148" s="35"/>
       <c r="E148" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F148" s="35"/>
       <c r="G148" s="35"/>
@@ -44960,7 +44966,7 @@
       <c r="C149" s="35"/>
       <c r="D149" s="35"/>
       <c r="E149" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
@@ -44972,7 +44978,7 @@
       <c r="C150" s="35"/>
       <c r="D150" s="35"/>
       <c r="E150" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -44984,7 +44990,7 @@
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
       <c r="E151" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
@@ -44996,7 +45002,7 @@
       <c r="C152" s="35"/>
       <c r="D152" s="35"/>
       <c r="E152" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -45020,7 +45026,7 @@
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
       <c r="E154" s="35" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="35"/>
@@ -45032,7 +45038,7 @@
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="E155" s="35" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
@@ -45063,16 +45069,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="99" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C157" s="35" t="s">
         <v>416</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
@@ -45084,7 +45090,7 @@
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
       <c r="E158" s="35" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
@@ -45428,7 +45434,7 @@
       <c r="C186" s="35"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -45440,7 +45446,7 @@
       <c r="C187" s="35"/>
       <c r="D187" s="35"/>
       <c r="E187" s="35" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -45452,7 +45458,7 @@
       <c r="C188" s="35"/>
       <c r="D188" s="35"/>
       <c r="E188" s="35" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
@@ -45464,7 +45470,7 @@
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
       <c r="E189" s="35" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -45476,7 +45482,7 @@
       <c r="C190" s="35"/>
       <c r="D190" s="35"/>
       <c r="E190" s="35" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -45488,7 +45494,7 @@
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F191" s="35"/>
       <c r="G191" s="35"/>
@@ -45560,7 +45566,7 @@
       <c r="C197" s="72"/>
       <c r="D197" s="72"/>
       <c r="E197" s="72" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F197" s="72"/>
       <c r="G197" s="72"/>
@@ -45568,7 +45574,7 @@
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" ht="29">
       <c r="E198" s="35" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -45734,20 +45740,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>902</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117" t="s">
+      <c r="A1" s="118" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121" t="s">
         <v>480</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="41" t="s">
@@ -45792,7 +45798,7 @@
         <v>789</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>783</v>
@@ -45822,7 +45828,7 @@
         <v>789</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>786</v>
@@ -46147,22 +46153,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="36" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="114" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="A1" s="118" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="118" t="s">
         <v>469</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -46175,7 +46181,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -46210,13 +46216,13 @@
         <v>364</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>21</v>
@@ -46231,7 +46237,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="31"/>
@@ -46266,7 +46272,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>23</v>
@@ -46278,13 +46284,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="70" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K5" s="70" t="s">
         <v>1004</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>1005</v>
-      </c>
-      <c r="K5" s="70" t="s">
-        <v>1006</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>461</v>
@@ -46316,10 +46322,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
@@ -46350,10 +46356,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70"/>
@@ -46446,18 +46452,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>803</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="120" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="124" t="s">
         <v>804</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="76" t="s">
@@ -46493,16 +46499,16 @@
         <v>364</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>1010</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>1012</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>837</v>
@@ -46852,10 +46858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1">
-      <c r="A1" s="113" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B1" s="119"/>
+      <c r="A1" s="117" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="10" t="s">
@@ -46920,16 +46926,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -46965,7 +46971,7 @@
         <v>364</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>35</v>
@@ -46974,7 +46980,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="1037">
   <si>
     <t>Region</t>
   </si>
@@ -7180,6 +7180,12 @@
       <t xml:space="preserve">Modified Instances Tab, BlockVolumes Tab, LB Tabs
 </t>
     </r>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>/dev/oracleoci/oraclevdb</t>
   </si>
 </sst>
 </file>
@@ -11209,12 +11215,70 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVolumes"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DBSystems-VM-BM"/>
+      <sheetName val="EXA-Infra"/>
+      <sheetName val="EXA-VMClusters"/>
+      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
+      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14942,37 +15006,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,3,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,3,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -15117,7 +15181,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -15140,7 +15204,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B5 B7:B499</xm:sqref>
+          <xm:sqref>B3:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B505,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B499</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -15509,103 +15579,103 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S5:S500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q5:Q500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>P3:P500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid option selected">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -15617,10 +15687,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -15631,15 +15701,15 @@
     <col min="4" max="4" width="10.6328125" style="36" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" style="36" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="36"/>
-    <col min="10" max="10" width="18.453125" style="36" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="36" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="36"/>
+    <col min="7" max="8" width="17.6328125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="36"/>
+    <col min="11" max="11" width="18.453125" style="36" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="114.75" customHeight="1">
+    <row r="1" spans="1:12" ht="114.75" customHeight="1">
       <c r="A1" s="118" t="s">
         <v>589</v>
       </c>
@@ -15652,9 +15722,10 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
       <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
-    </row>
-    <row r="2" spans="1:11" s="44" customFormat="1" ht="43.5">
+      <c r="K1" s="119"/>
+      <c r="L1" s="120"/>
+    </row>
+    <row r="2" spans="1:12" s="44" customFormat="1" ht="43.5">
       <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
@@ -15677,19 +15748,22 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>1033</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="J2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="30" t="s">
         <v>587</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="L2" s="30" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.75" customHeight="1">
+    <row r="3" spans="1:12" ht="31.75" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
@@ -15703,8 +15777,9 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.75" customHeight="1">
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.75" customHeight="1">
       <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
@@ -15726,18 +15801,21 @@
       <c r="G4" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="22" t="b">
+      <c r="H4" s="35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="I4" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="L4" s="35" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.75" customHeight="1">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1">
       <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
@@ -15759,173 +15837,168 @@
       <c r="G5" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="37"/>
+      <c r="H5" s="102"/>
       <c r="I5" s="37"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="H6" s="47"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="37"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="H7" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="H8" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="I8" s="47"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="H9" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="H10" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="I10" s="47"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="H11" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="H12" s="47"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="I12" s="47"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="H13" s="47"/>
+      <c r="J12" s="47"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="H14" s="47"/>
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="H15" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="H16" s="47"/>
+      <c r="J15" s="47"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="47"/>
+      <c r="J16" s="47"/>
+    </row>
+    <row r="17" spans="9:10">
       <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="47"/>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="9:10">
       <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="47"/>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="9:10">
       <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="47"/>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="9:10">
       <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="47"/>
+      <c r="J20" s="47"/>
+    </row>
+    <row r="21" spans="9:10">
       <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="47"/>
+      <c r="J21" s="47"/>
+    </row>
+    <row r="22" spans="9:10">
       <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="47"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="9:10">
       <c r="I23" s="47"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="47"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="9:10">
       <c r="I24" s="47"/>
-    </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="47"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="9:10">
       <c r="I25" s="47"/>
-    </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="47"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="9:10">
       <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="47"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="9:10">
       <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="47"/>
+      <c r="J27" s="47"/>
+    </row>
+    <row r="28" spans="9:10">
       <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="47"/>
+      <c r="J28" s="47"/>
+    </row>
+    <row r="29" spans="9:10">
       <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="47"/>
+      <c r="J29" s="47"/>
+    </row>
+    <row r="30" spans="9:10">
       <c r="I30" s="47"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="9:10">
       <c r="I31" s="47"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="47"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="9:10">
       <c r="I32" s="47"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="47"/>
+      <c r="J32" s="47"/>
+    </row>
+    <row r="33" spans="9:10">
       <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>J3:J500</xm:sqref>
+          <xm:sqref>B3:B500 K3:K500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I34:I500</xm:sqref>
+          <xm:sqref>J34:J500 E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G500 H34:H500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E500</xm:sqref>
+          <xm:sqref>I34:I500 G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
+          <x14:formula1>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3 H5:H500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16304,25 +16377,25 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -16598,31 +16671,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_feature\oci_tools\cd3_automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -45590,7 +45663,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -45635,9 +45708,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C187</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
+          <xm:sqref>C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -45647,33 +45726,87 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C598,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C109:C110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C637,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C148:C149</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
+          <xm:sqref>C112</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C151</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C601,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C640,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
+          <xm:sqref>C108</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -46098,7 +46231,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating Tags.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -46113,9 +46246,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:I500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I500 B4:B500</xm:sqref>
+          <xm:sqref>I3:I500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name. Specify 'root' to create in root compartment.">
           <x14:formula1>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -6378,9 +6378,6 @@
     <t>Backend ServerComp&amp;ServerName:Port</t>
   </si>
   <si>
-    <t>Reserved IPs (Y|N|OCID)</t>
-  </si>
-  <si>
     <t>Memory In GBs</t>
   </si>
   <si>
@@ -7186,6 +7183,9 @@
   </si>
   <si>
     <t>/dev/oracleoci/oraclevdb</t>
+  </si>
+  <si>
+    <t>Reserved IP (Y|N|OCID)</t>
   </si>
 </sst>
 </file>
@@ -11215,70 +11215,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11601,7 +11543,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="67" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -15006,37 +14948,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,3,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,3,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -15268,7 +15210,7 @@
       <c r="G1" s="128"/>
       <c r="H1" s="129"/>
       <c r="I1" s="118" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J1" s="119"/>
       <c r="K1" s="119"/>
@@ -15314,16 +15256,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>1024</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>1025</v>
-      </c>
       <c r="M2" s="30" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>1031</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>1032</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>95</v>
@@ -15579,103 +15521,103 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S5:S500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q5:Q500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>P3:P500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid option selected">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -15748,10 +15690,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>96</v>
@@ -15802,7 +15744,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="I4" s="22" t="b">
         <v>1</v>
@@ -15966,37 +15908,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500 K3:K500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>J34:J500 E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I500 G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H3 H5:H500</xm:sqref>
         </x14:dataValidation>
@@ -16377,25 +16319,25 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -16410,7 +16352,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16486,7 +16428,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>141</v>
@@ -16671,31 +16613,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -16990,7 +16932,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="104" customHeight="1">
       <c r="A1" s="118" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -17024,7 +16966,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>157</v>
@@ -18189,7 +18131,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="109" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -18230,7 +18172,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>245</v>
@@ -46998,7 +46940,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1">
       <c r="A1" s="117" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="123"/>
     </row>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976640F1-2B7A-6643-8F6C-B9D76B8053DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF15361-89D9-214D-BAE0-8367D18AFAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16650,7 +16650,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38050,31 +38050,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-1A00-000007000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C6:C501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-1A00-000008000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:F1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-1A00-000009000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-1A00-00000A000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D6:D501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region" xr:uid="{00000000-0002-0000-1A00-00000B000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1000</xm:sqref>
         </x14:dataValidation>
@@ -42133,7 +42133,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43120,7 +43120,7 @@
   <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45628,13 +45628,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies." xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A84:A86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C84:C86</xm:sqref>
         </x14:dataValidation>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF15361-89D9-214D-BAE0-8367D18AFAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF5419-7F5E-214E-9237-F05DEE7DF78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="1037">
   <si>
     <t>Region</t>
   </si>
@@ -1069,9 +1069,6 @@
     <t>Validator</t>
   </si>
   <si>
-    <t>Default Tag Value</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -1084,9 +1081,6 @@
     <t>ENUM::"application-team","ocs"</t>
   </si>
   <si>
-    <t>ocs</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
@@ -1111,9 +1105,6 @@
     <t>Development Environment</t>
   </si>
   <si>
-    <t>ocs-development</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
@@ -1505,9 +1496,6 @@
   </si>
   <si>
     <t>10.117.0.0/16</t>
-  </si>
-  <si>
-    <t>Default Tag Compartment</t>
   </si>
   <si>
     <t>ENUM::"internal-team","ocs-internal"</t>
@@ -3880,80 +3868,6 @@
     <t>Backend HealthCheck Interval In Millis</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Default Tag Compartment" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the compartment to which the tag should be assigned as default.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Default Tag Value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - To use 'User-Assigned Value':
-                                                    - Leave this field empty .
-                                         To use 'Default Values':
-                                                    - (if the Validator is set) mention one of the values in Validator.
-                                                    - (If the Validator is empty) the user can enter any value.
-Specify Tag Keys in different rows as shown in the example below.(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
-    </r>
-  </si>
-  <si>
     <t>AR8ADOS710</t>
   </si>
   <si>
@@ -5179,16 +5093,10 @@
     <t>Identifies who created the resource.</t>
   </si>
   <si>
-    <t>${iam.principal.name}</t>
-  </si>
-  <si>
     <t>CreatedOn</t>
   </si>
   <si>
     <t>Identifies when the resource was created.</t>
-  </si>
-  <si>
-    <t>${oci.datetime}</t>
   </si>
   <si>
     <t>OracleTags</t>
@@ -7235,6 +7143,129 @@
   <si>
     <t>Trusted Certificate Authority IDs</t>
   </si>
+  <si>
+    <t>root=${iam.principal.name}</t>
+  </si>
+  <si>
+    <t>root=${oci.datetime}</t>
+  </si>
+  <si>
+    <t>Network=ocs</t>
+  </si>
+  <si>
+    <t>Network::TCC=ocs-development</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Default Tag Compartment = Default Tag Value "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the compartment to which the tag should be assigned as default. Use Semi Colon as the delimeter between two values.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:OMCDev::OMCDev-VM=${iam.principal.name};OMCDev::OMCDev-VM::demo-Application=) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directives to specify Default Tag Value :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - To use 'User-Assigned Value':  Leave this field empty . (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: OMCDev::OMCDev-VM::demo-Application=)
+ - To use 'Default Values':
+     - (if the Validator is set) mention one of the values from Validator.
+     - (If the Validator is empty)  user can enter any value.
+Specify Tag Keys in different rows as shown in the example below.(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
+    </r>
+  </si>
+  <si>
+    <t>Default Tag Compartment = Default Tag Value</t>
+  </si>
 </sst>
 </file>
 
@@ -7243,7 +7274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7476,6 +7507,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="11">
@@ -8065,14 +8102,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11625,7 +11662,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -11666,7 +11703,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -11676,7 +11713,7 @@
       <c r="G1" s="119"/>
       <c r="H1" s="120"/>
       <c r="I1" s="126" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J1" s="126"/>
       <c r="K1" s="126"/>
@@ -11741,21 +11778,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="105" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>50</v>
@@ -11764,7 +11801,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>35</v>
@@ -11794,19 +11831,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>51</v>
@@ -11842,19 +11879,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>51</v>
@@ -11871,7 +11908,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="109" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M5" s="109" t="s">
         <v>21</v>
@@ -11914,13 +11951,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>50</v>
@@ -11942,7 +11979,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="73" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M7" s="73" t="s">
         <v>21</v>
@@ -11958,7 +11995,7 @@
       </c>
       <c r="Q7" s="73"/>
       <c r="R7" s="71" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -11966,16 +12003,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D8" s="70" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F8" s="70" t="s">
         <v>51</v>
@@ -12014,13 +12051,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="70" t="s">
         <v>55</v>
@@ -12062,16 +12099,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D10" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="E10" s="70" t="s">
         <v>388</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>391</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>51</v>
@@ -12080,7 +12117,7 @@
         <v>57</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I10" s="70"/>
       <c r="J10" s="70" t="s">
@@ -12112,16 +12149,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F11" s="70" t="s">
         <v>51</v>
@@ -12130,11 +12167,11 @@
         <v>57</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I11" s="70"/>
       <c r="J11" s="70" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K11" s="70" t="s">
         <v>23</v>
@@ -12162,16 +12199,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F12" s="70" t="s">
         <v>51</v>
@@ -12180,17 +12217,17 @@
         <v>57</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I12" s="70"/>
       <c r="J12" s="70" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K12" s="70" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M12" s="73" t="s">
         <v>23</v>
@@ -12243,7 +12280,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -12263,28 +12300,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K2" s="62"/>
     </row>
@@ -13851,7 +13888,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -13888,7 +13925,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -13952,7 +13989,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -14021,7 +14058,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -14104,7 +14141,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -14182,30 +14219,30 @@
         <v>61</v>
       </c>
       <c r="S2" s="61" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T2" s="61" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>79</v>
@@ -14213,10 +14250,10 @@
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -14229,35 +14266,35 @@
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>29</v>
@@ -14275,38 +14312,38 @@
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
     </row>
     <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -14321,29 +14358,29 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
     </row>
     <row r="6" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>79</v>
@@ -14351,10 +14388,10 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -14367,38 +14404,38 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
     </row>
     <row r="7" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -14413,38 +14450,38 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -14459,29 +14496,29 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>79</v>
@@ -14489,10 +14526,10 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -14505,29 +14542,29 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>79</v>
@@ -14535,10 +14572,10 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
@@ -14551,38 +14588,38 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
     </row>
     <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
@@ -14597,38 +14634,38 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
     </row>
     <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
@@ -14643,29 +14680,29 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>746</v>
-      </c>
       <c r="E13" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>79</v>
@@ -14673,10 +14710,10 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -14689,29 +14726,29 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="D14" s="35" t="s">
-        <v>746</v>
-      </c>
       <c r="E14" s="35" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>79</v>
@@ -14719,10 +14756,10 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -14735,38 +14772,38 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
     </row>
     <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="D15" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>746</v>
-      </c>
       <c r="E15" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -14781,38 +14818,38 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
     </row>
     <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" s="35" t="s">
+        <v>736</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>741</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>746</v>
-      </c>
       <c r="E16" s="35" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -14827,7 +14864,7 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
@@ -14861,13 +14898,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C18" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="70" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E18" s="70" t="s">
         <v>77</v>
@@ -14894,7 +14931,7 @@
       <c r="Q18" s="73"/>
       <c r="R18" s="71"/>
       <c r="T18" s="36" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14902,28 +14939,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C19" s="70" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E19" s="70" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G19" s="70" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I19" s="70" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J19" s="70"/>
       <c r="K19" s="70"/>
@@ -14944,13 +14981,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E20" s="70" t="s">
         <v>77</v>
@@ -14982,13 +15019,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D21" s="70" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E21" s="70" t="s">
         <v>82</v>
@@ -15003,7 +15040,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="70" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J21" s="70"/>
       <c r="K21" s="70"/>
@@ -15078,7 +15115,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -15095,7 +15132,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>84</v>
@@ -15107,7 +15144,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -15115,7 +15152,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>87</v>
@@ -15130,7 +15167,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15138,7 +15175,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>89</v>
@@ -15159,7 +15196,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>91</v>
@@ -15171,7 +15208,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G5" s="37"/>
     </row>
@@ -15264,7 +15301,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
@@ -15274,7 +15311,7 @@
       <c r="G1" s="128"/>
       <c r="H1" s="129"/>
       <c r="I1" s="118" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="J1" s="119"/>
       <c r="K1" s="119"/>
@@ -15299,7 +15336,7 @@
         <v>84</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>86</v>
@@ -15314,22 +15351,22 @@
         <v>93</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>95</v>
@@ -15338,7 +15375,7 @@
         <v>96</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>97</v>
@@ -15347,7 +15384,7 @@
         <v>98</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -15355,28 +15392,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J3" s="115" t="s">
         <v>105</v>
@@ -15393,17 +15430,17 @@
         <v>103</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="R3" s="37"/>
       <c r="S3" s="37" t="s">
         <v>91</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15435,29 +15472,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G5" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
@@ -15469,7 +15506,7 @@
         <v>103</v>
       </c>
       <c r="P5" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
@@ -15483,26 +15520,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G6" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="46"/>
       <c r="I6" s="37" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J6" s="115" t="s">
         <v>105</v>
@@ -15515,11 +15552,11 @@
         <v>103</v>
       </c>
       <c r="P6" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="37"/>
       <c r="R6" s="37" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
@@ -15529,26 +15566,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G7" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="46"/>
       <c r="I7" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J7" s="115" t="s">
         <v>105</v>
@@ -15561,11 +15598,11 @@
         <v>103</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="37"/>
       <c r="R7" s="37" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
@@ -15663,7 +15700,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -15700,19 +15737,19 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15736,10 +15773,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="37">
         <v>150</v>
@@ -15748,23 +15785,23 @@
         <v>56</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="I4" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="46" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15772,10 +15809,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D5" s="37">
         <v>150</v>
@@ -15784,7 +15821,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G5" s="102" t="s">
         <v>110</v>
@@ -15984,7 +16021,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="130" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -15994,7 +16031,7 @@
       <c r="G1" s="131"/>
       <c r="H1" s="132"/>
       <c r="I1" s="133" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J1" s="133"/>
       <c r="K1" s="133"/>
@@ -16055,7 +16092,7 @@
         <v>97</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
@@ -16066,7 +16103,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="35" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -16086,7 +16123,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>90</v>
@@ -16095,7 +16132,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37" t="s">
@@ -16105,7 +16142,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -16114,10 +16151,10 @@
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="35" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
@@ -16130,7 +16167,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>126</v>
@@ -16154,7 +16191,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>128</v>
@@ -16174,7 +16211,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>90</v>
@@ -16183,7 +16220,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -16191,7 +16228,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -16207,7 +16244,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>99</v>
@@ -16216,7 +16253,7 @@
         <v>131</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -16224,7 +16261,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="J8" s="37" t="s">
         <v>133</v>
@@ -16237,7 +16274,7 @@
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
       <c r="P8" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="37"/>
     </row>
@@ -16246,7 +16283,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>99</v>
@@ -16255,7 +16292,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -16263,7 +16300,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="J9" s="37" t="s">
         <v>135</v>
@@ -16283,7 +16320,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="37" t="s">
         <v>90</v>
@@ -16292,7 +16329,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -16300,7 +16337,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -16382,7 +16419,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -16414,13 +16451,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>139</v>
@@ -16432,7 +16469,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>141</v>
@@ -16453,13 +16490,13 @@
         <v>146</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16490,10 +16527,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>147</v>
@@ -16501,7 +16538,7 @@
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H4" s="37" t="b">
         <v>1</v>
@@ -16523,13 +16560,13 @@
         <v>151</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R4" s="59" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16564,10 +16601,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>153</v>
@@ -16575,13 +16612,13 @@
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H6" s="37" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J6" s="37"/>
       <c r="K6" s="35" t="s">
@@ -16664,7 +16701,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -16685,7 +16722,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -16693,13 +16730,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E3" s="37"/>
     </row>
@@ -16708,13 +16745,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E4" s="37"/>
     </row>
@@ -16723,13 +16760,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E5" s="37"/>
     </row>
@@ -16738,13 +16775,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E6" s="37"/>
     </row>
@@ -16762,10 +16799,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D8" s="70"/>
       <c r="E8" s="70"/>
@@ -16775,13 +16812,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C9" s="70" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E9" s="70"/>
     </row>
@@ -16790,13 +16827,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E10" s="70"/>
     </row>
@@ -16805,10 +16842,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70"/>
@@ -16818,13 +16855,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D12" s="70" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E12" s="70"/>
     </row>
@@ -16833,13 +16870,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E13" s="70"/>
     </row>
@@ -16848,13 +16885,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D14" s="70" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E14" s="70"/>
     </row>
@@ -16863,16 +16900,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="70" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D15" s="70" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -16930,7 +16967,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -16965,16 +17002,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>158</v>
@@ -16989,7 +17026,7 @@
         <v>161</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>162</v>
@@ -17010,16 +17047,16 @@
         <v>167</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -17053,10 +17090,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
@@ -17064,7 +17101,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H4" s="37" t="s">
         <v>169</v>
@@ -17100,10 +17137,10 @@
         <v>100</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T4" s="60" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U4" s="37">
         <v>2</v>
@@ -17124,7 +17161,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H5" s="37" t="s">
         <v>169</v>
@@ -17161,10 +17198,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -17172,7 +17209,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H6" s="37" t="s">
         <v>169</v>
@@ -17282,7 +17319,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -17293,7 +17330,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
       <c r="J1" s="121" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K1" s="134"/>
       <c r="L1" s="134"/>
@@ -17349,7 +17386,7 @@
         <v>189</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>190</v>
@@ -17392,7 +17429,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>193</v>
@@ -17401,7 +17438,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -17872,7 +17909,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>230</v>
@@ -17981,7 +18018,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
@@ -18024,7 +18061,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>233</v>
@@ -18074,7 +18111,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C7" s="37" t="s">
         <v>239</v>
@@ -18137,7 +18174,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -18179,16 +18216,16 @@
         <v>244</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>246</v>
@@ -18197,16 +18234,16 @@
         <v>247</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P2" s="30" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -18235,7 +18272,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>168</v>
@@ -18255,16 +18292,16 @@
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K4" s="37"/>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
       <c r="N4" s="37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O4" s="60" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P4" s="37">
         <v>2</v>
@@ -18292,7 +18329,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="37"/>
@@ -18307,7 +18344,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C6" s="37" t="s">
         <v>177</v>
@@ -18390,7 +18427,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="139" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1" s="139"/>
       <c r="C1" s="139"/>
@@ -18409,25 +18446,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="H2" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="I2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -18445,19 +18482,19 @@
     </row>
     <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F4" s="37">
         <v>1</v>
@@ -18466,28 +18503,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F5" s="37">
         <v>1</v>
@@ -18496,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
@@ -18564,7 +18601,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="51" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -18607,73 +18644,73 @@
         <v>39</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="65" t="s">
+        <v>900</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>901</v>
+      </c>
+      <c r="I2" s="65" t="s">
+        <v>902</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>903</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>904</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>905</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>906</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q2" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" s="65" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="65" t="s">
         <v>907</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="T2" s="65" t="s">
         <v>908</v>
-      </c>
-      <c r="I2" s="65" t="s">
-        <v>909</v>
-      </c>
-      <c r="J2" s="65" t="s">
-        <v>910</v>
-      </c>
-      <c r="K2" s="91" t="s">
-        <v>911</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>912</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>913</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="65" t="s">
-        <v>318</v>
-      </c>
-      <c r="P2" s="65" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q2" s="65" t="s">
-        <v>425</v>
-      </c>
-      <c r="R2" s="65" t="s">
-        <v>426</v>
-      </c>
-      <c r="S2" s="65" t="s">
-        <v>914</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>915</v>
       </c>
       <c r="U2" s="65" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="65" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="W2" s="65" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="X2" s="65" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="Y2" s="65" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Z2" s="65" t="s">
         <v>97</v>
       </c>
       <c r="AA2" s="65" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -18709,57 +18746,57 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="102" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="102" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G4" s="52">
         <v>1</v>
       </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J4" s="52">
         <v>256</v>
       </c>
       <c r="K4" s="52"/>
       <c r="L4" s="52" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M4" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>945</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>952</v>
-      </c>
-      <c r="O4" s="52" t="s">
+      <c r="R4" s="52" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q4" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>340</v>
-      </c>
       <c r="S4" s="52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T4" s="52" t="b">
         <v>1</v>
@@ -18768,38 +18805,38 @@
         <v>103</v>
       </c>
       <c r="V4" s="37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W4" s="37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X4" s="37">
         <v>15</v>
       </c>
       <c r="Y4" s="37" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="104" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C5" s="102" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="E5" s="103" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G5" s="52">
         <v>2</v>
@@ -18808,35 +18845,35 @@
         <v>4</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J5" s="52">
         <v>256</v>
       </c>
       <c r="K5" s="52"/>
       <c r="L5" s="52" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>947</v>
+      </c>
+      <c r="O5" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="P5" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q5" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="N5" s="52" t="s">
-        <v>954</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>352</v>
-      </c>
-      <c r="P5" s="53" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q5" s="52" t="s">
-        <v>339</v>
-      </c>
       <c r="R5" s="52" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S5" s="52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T5" s="52" t="b">
         <v>1</v>
@@ -18845,16 +18882,16 @@
         <v>103</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W5" s="37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X5" s="37">
         <v>15</v>
       </c>
       <c r="Y5" s="37" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Z5" s="37"/>
       <c r="AA5" s="37"/>
@@ -24992,7 +25029,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -25010,7 +25047,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>84</v>
@@ -25019,13 +25056,13 @@
         <v>85</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="H2" s="94" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -25042,19 +25079,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F4" s="35">
         <v>2</v>
@@ -31105,7 +31142,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="51" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
@@ -31139,49 +31176,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="66" t="s">
+        <v>919</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>924</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>925</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>901</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>906</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" s="91" t="s">
         <v>926</v>
       </c>
-      <c r="D2" s="66" t="s">
-        <v>931</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>932</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>908</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>913</v>
-      </c>
-      <c r="I2" s="91" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>933</v>
-      </c>
       <c r="K2" s="91" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="L2" s="91" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="M2" s="91" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="91" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O2" s="110" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="110" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="Q2" s="98" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R2" s="47"/>
       <c r="S2" s="47"/>
@@ -31213,34 +31250,34 @@
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="G4" s="106">
         <v>4</v>
       </c>
       <c r="H4" s="100" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I4" s="100" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="J4" s="100" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K4" s="100" t="b">
         <v>1</v>
@@ -31252,11 +31289,11 @@
         <v>103</v>
       </c>
       <c r="N4" s="60" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P4" s="37"/>
       <c r="Q4" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="37" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -38109,37 +38146,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="C1" s="57" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I1" s="93" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="J1" s="93" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -38147,31 +38184,31 @@
         <v>102</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G2" s="68" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I2" s="35">
         <v>80</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
@@ -38179,34 +38216,34 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="92" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="68" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I3" s="35">
         <v>40</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
@@ -38214,659 +38251,659 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="92" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F4" s="37"/>
       <c r="H4" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="92" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F5" s="37"/>
       <c r="H5" s="37" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F6" s="37"/>
       <c r="H6" s="37" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="92" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F7" s="37"/>
       <c r="H7" s="37" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="92" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F8" s="37"/>
       <c r="H8" s="37" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F9" s="37"/>
       <c r="H9" s="37" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="92" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F10" s="37"/>
       <c r="H10" s="37" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="92" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F11" s="37"/>
       <c r="H11" s="37" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="92" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="92" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="H13" s="37" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="92" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="H14" s="37" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H15" s="37" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H16" s="37" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="37" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="37" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="37" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="37" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="37" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="37" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="37" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="37" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="37" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="37" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="37" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="37" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="37" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="37" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="37" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="37" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="37" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="37" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="37" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="37" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="37" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="37" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="37" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="37" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="37" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="37" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="37" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="37" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="37" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="37" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="37" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="37" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="37" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="37" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="37" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="37" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="37" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="37" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="37" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="37" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="37" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="37" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="37" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="37" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="37" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="37" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="37" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="37" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="37" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="37" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="37" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="37" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="37" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="37" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="37" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="37" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="37" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="37" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="37" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="37" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="37" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="37" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="37" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="37" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="37" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="37" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="37" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="37" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="37" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="37" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="37" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="37" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="37" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="37" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="37" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="37" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="37" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="37" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="37" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="37" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="37" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="37" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="37" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="37" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="37" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="37" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="37" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="37" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="37" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="37" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="37" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -38924,91 +38961,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="81" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="89" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="D1" s="89" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="E1" s="89" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F1" s="89" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="G1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="89" t="s">
+        <v>840</v>
+      </c>
+      <c r="I1" s="89" t="s">
+        <v>841</v>
+      </c>
+      <c r="J1" s="89" t="s">
+        <v>842</v>
+      </c>
+      <c r="K1" s="89" t="s">
+        <v>843</v>
+      </c>
+      <c r="L1" s="89" t="s">
+        <v>844</v>
+      </c>
+      <c r="M1" s="89" t="s">
+        <v>894</v>
+      </c>
+      <c r="N1" s="89" t="s">
+        <v>845</v>
+      </c>
+      <c r="O1" s="89" t="s">
+        <v>846</v>
+      </c>
+      <c r="P1" s="89" t="s">
         <v>847</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="Q1" s="89" t="s">
         <v>848</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="R1" s="89" t="s">
         <v>849</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="S1" s="89" t="s">
         <v>850</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="T1" s="89" t="s">
+        <v>896</v>
+      </c>
+      <c r="U1" s="89" t="s">
         <v>851</v>
       </c>
-      <c r="M1" s="89" t="s">
-        <v>901</v>
-      </c>
-      <c r="N1" s="89" t="s">
+      <c r="V1" s="80" t="s">
         <v>852</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="W1" s="80" t="s">
         <v>853</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="X1" s="80" t="s">
         <v>854</v>
       </c>
-      <c r="Q1" s="89" t="s">
-        <v>855</v>
-      </c>
-      <c r="R1" s="89" t="s">
-        <v>856</v>
-      </c>
-      <c r="S1" s="89" t="s">
-        <v>857</v>
-      </c>
-      <c r="T1" s="89" t="s">
-        <v>903</v>
-      </c>
-      <c r="U1" s="89" t="s">
-        <v>858</v>
-      </c>
-      <c r="V1" s="80" t="s">
-        <v>859</v>
-      </c>
-      <c r="W1" s="80" t="s">
-        <v>860</v>
-      </c>
-      <c r="X1" s="80" t="s">
-        <v>861</v>
-      </c>
       <c r="Y1" s="89" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="Z1" s="80" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="80" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="AB1" s="80" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="AC1" s="80" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="AD1" s="80" t="s">
         <v>252</v>
@@ -39029,10 +39066,10 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="80" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="AK1" s="80" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL1" s="80"/>
       <c r="AM1" s="80"/>
@@ -39061,7 +39098,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="83" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H2" s="83" t="s">
         <v>38</v>
@@ -39084,22 +39121,22 @@
         <v>ash-drg</v>
       </c>
       <c r="N2" s="83" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="O2" s="83" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="84" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="Q2" s="83" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R2" s="83" t="s">
         <v>56</v>
       </c>
       <c r="S2" s="83" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T2" s="83" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
@@ -39110,13 +39147,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="83" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="W2" s="83" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="83" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="Y2" s="83" t="b">
         <v>1</v>
@@ -39125,7 +39162,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="83" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="AB2" s="83" t="s">
         <v>170</v>
@@ -39155,7 +39192,7 @@
         <v>170</v>
       </c>
       <c r="AK2" s="82" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -39182,7 +39219,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="83" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H3" s="83" t="s">
         <v>36</v>
@@ -39191,7 +39228,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="83" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="K3" s="83" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -39205,10 +39242,10 @@
         <v/>
       </c>
       <c r="N3" s="83" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="O3" s="83" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P3" s="84" t="s">
         <v>79</v>
@@ -39220,7 +39257,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="83" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="T3" s="83" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -39237,7 +39274,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="83" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="Y3" s="83" t="b">
         <v>0</v>
@@ -39249,7 +39286,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="83" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="AC3" s="83" t="s">
         <v>172</v>
@@ -39273,10 +39310,10 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="83" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="AK3" s="82" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -39301,7 +39338,7 @@
       </c>
       <c r="F4" s="83"/>
       <c r="G4" s="83" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="H4" s="83"/>
       <c r="I4" s="83" t="s">
@@ -39313,7 +39350,7 @@
         <v/>
       </c>
       <c r="L4" s="83" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="83" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
@@ -39331,7 +39368,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="83" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="T4" s="83" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -39344,14 +39381,14 @@
       <c r="V4" s="83"/>
       <c r="W4" s="83"/>
       <c r="X4" s="83" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="Y4" s="83"/>
       <c r="Z4" s="83" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="AA4" s="83" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="AB4" s="83"/>
       <c r="AC4" s="83" t="s">
@@ -39398,7 +39435,7 @@
       </c>
       <c r="F5" s="83"/>
       <c r="G5" s="83" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="H5" s="83"/>
       <c r="I5" s="83" t="s">
@@ -39416,7 +39453,7 @@
       </c>
       <c r="N5" s="83"/>
       <c r="O5" s="83" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="P5" s="84"/>
       <c r="Q5" s="83"/>
@@ -39433,7 +39470,7 @@
       <c r="X5" s="83"/>
       <c r="Y5" s="83"/>
       <c r="Z5" s="83" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="AA5" s="83"/>
       <c r="AB5" s="83"/>
@@ -39477,7 +39514,7 @@
       </c>
       <c r="F6" s="83"/>
       <c r="G6" s="83" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
@@ -39548,7 +39585,7 @@
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="83" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
@@ -39617,7 +39654,7 @@
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="83" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H8" s="83"/>
       <c r="I8" s="83"/>
@@ -39686,7 +39723,7 @@
       </c>
       <c r="F9" s="83"/>
       <c r="G9" s="83" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
@@ -39755,7 +39792,7 @@
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="83" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
@@ -39824,7 +39861,7 @@
       </c>
       <c r="F11" s="83"/>
       <c r="G11" s="83" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
@@ -39893,7 +39930,7 @@
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="83" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="H12" s="83"/>
       <c r="I12" s="83"/>
@@ -39960,7 +39997,7 @@
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="83" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="H13" s="83"/>
       <c r="I13" s="83"/>
@@ -40027,7 +40064,7 @@
       </c>
       <c r="F14" s="83"/>
       <c r="G14" s="83" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
@@ -40161,7 +40198,7 @@
       </c>
       <c r="F16" s="83"/>
       <c r="G16" s="83" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="H16" s="83"/>
       <c r="I16" s="83"/>
@@ -40228,7 +40265,7 @@
       </c>
       <c r="F17" s="83"/>
       <c r="G17" s="83" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="H17" s="83"/>
       <c r="I17" s="83"/>
@@ -40295,7 +40332,7 @@
       </c>
       <c r="F18" s="83"/>
       <c r="G18" s="83" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="H18" s="83"/>
       <c r="I18" s="83"/>
@@ -40362,7 +40399,7 @@
       </c>
       <c r="F19" s="83"/>
       <c r="G19" s="83" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="H19" s="83"/>
       <c r="I19" s="83"/>
@@ -40429,7 +40466,7 @@
       </c>
       <c r="F20" s="83"/>
       <c r="G20" s="83" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="H20" s="83"/>
       <c r="I20" s="83"/>
@@ -40496,7 +40533,7 @@
       </c>
       <c r="F21" s="83"/>
       <c r="G21" s="83" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="H21" s="83"/>
       <c r="I21" s="83"/>
@@ -40563,7 +40600,7 @@
       </c>
       <c r="F22" s="83"/>
       <c r="G22" s="83" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
@@ -40630,7 +40667,7 @@
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="83" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="H23" s="83"/>
       <c r="I23" s="83"/>
@@ -40697,7 +40734,7 @@
       </c>
       <c r="F24" s="83"/>
       <c r="G24" s="83" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="H24" s="83"/>
       <c r="I24" s="83"/>
@@ -42147,7 +42184,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -42165,10 +42202,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -42176,10 +42213,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="37"/>
@@ -42189,10 +42226,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="37"/>
@@ -42202,10 +42239,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="37"/>
@@ -42215,10 +42252,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="37"/>
@@ -42228,10 +42265,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -42241,10 +42278,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -42254,10 +42291,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -42267,10 +42304,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -42280,10 +42317,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -42662,16 +42699,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="80" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B1" s="80" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="82"/>
       <c r="B2" s="82" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -43137,7 +43174,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -43170,7 +43207,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -43178,16 +43215,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -43199,7 +43236,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
@@ -43210,16 +43247,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -43231,7 +43268,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -43243,7 +43280,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -43255,7 +43292,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -43267,7 +43304,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -43279,7 +43316,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
@@ -43291,7 +43328,7 @@
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -43303,7 +43340,7 @@
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -43315,7 +43352,7 @@
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -43327,7 +43364,7 @@
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -43339,7 +43376,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
@@ -43351,7 +43388,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
@@ -43363,7 +43400,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -43375,7 +43412,7 @@
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -43387,7 +43424,7 @@
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -43399,7 +43436,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -43411,7 +43448,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -43423,7 +43460,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -43435,7 +43472,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
@@ -43447,7 +43484,7 @@
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -43459,7 +43496,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -43471,7 +43508,7 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
@@ -43483,7 +43520,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -43495,7 +43532,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -43507,7 +43544,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -43519,7 +43556,7 @@
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -43531,7 +43568,7 @@
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -43543,7 +43580,7 @@
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -43555,7 +43592,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -43567,7 +43604,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -43579,7 +43616,7 @@
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -43591,7 +43628,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="1" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -43603,7 +43640,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="1" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -43615,7 +43652,7 @@
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="1" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -43627,7 +43664,7 @@
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="1" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
@@ -43639,7 +43676,7 @@
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="1" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -43651,7 +43688,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -43663,7 +43700,7 @@
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -43675,7 +43712,7 @@
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="1" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -43687,7 +43724,7 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -43699,7 +43736,7 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -43711,7 +43748,7 @@
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -43722,16 +43759,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -43743,7 +43780,7 @@
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -43755,7 +43792,7 @@
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -43767,7 +43804,7 @@
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -43779,7 +43816,7 @@
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -43791,7 +43828,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -43803,7 +43840,7 @@
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -43815,7 +43852,7 @@
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -43827,7 +43864,7 @@
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -43839,7 +43876,7 @@
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -43851,7 +43888,7 @@
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -43863,7 +43900,7 @@
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -43875,7 +43912,7 @@
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -43887,7 +43924,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -43899,7 +43936,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -43911,7 +43948,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -43922,16 +43959,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -43943,7 +43980,7 @@
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -43955,7 +43992,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -43967,7 +44004,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -43978,16 +44015,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -43999,7 +44036,7 @@
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -44011,7 +44048,7 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
@@ -44023,7 +44060,7 @@
       <c r="C70" s="35"/>
       <c r="D70" s="35"/>
       <c r="E70" s="35" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -44035,7 +44072,7 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -44047,7 +44084,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -44059,7 +44096,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -44071,7 +44108,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -44083,7 +44120,7 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -44095,7 +44132,7 @@
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
@@ -44107,7 +44144,7 @@
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
@@ -44119,7 +44156,7 @@
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -44131,7 +44168,7 @@
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
@@ -44143,7 +44180,7 @@
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
@@ -44155,7 +44192,7 @@
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -44167,7 +44204,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -44179,7 +44216,7 @@
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
@@ -44191,7 +44228,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -44203,7 +44240,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -44215,7 +44252,7 @@
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
@@ -44226,16 +44263,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="107" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C87" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E87" s="35" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
@@ -44247,7 +44284,7 @@
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
@@ -44259,7 +44296,7 @@
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -44271,7 +44308,7 @@
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -44283,7 +44320,7 @@
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -44295,7 +44332,7 @@
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -44307,7 +44344,7 @@
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -44319,7 +44356,7 @@
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -44331,7 +44368,7 @@
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -44343,7 +44380,7 @@
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
@@ -44355,7 +44392,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -44367,7 +44404,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -44379,7 +44416,7 @@
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -44391,7 +44428,7 @@
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -44403,7 +44440,7 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -44415,7 +44452,7 @@
       <c r="C102" s="35"/>
       <c r="D102" s="35"/>
       <c r="E102" s="35" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -44427,7 +44464,7 @@
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="35" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -44439,7 +44476,7 @@
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -44451,7 +44488,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -44463,7 +44500,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -44475,7 +44512,7 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="E107" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -44487,7 +44524,7 @@
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="1" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -44499,7 +44536,7 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -44511,7 +44548,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -44523,7 +44560,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -44535,7 +44572,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
@@ -44547,7 +44584,7 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -44559,7 +44596,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -44571,7 +44608,7 @@
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -44583,7 +44620,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -44594,16 +44631,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="107" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C117" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D117" s="35" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E117" s="107" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -44615,7 +44652,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="107" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -44627,7 +44664,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="107" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -44639,7 +44676,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="107" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -44651,7 +44688,7 @@
       <c r="C121" s="35"/>
       <c r="D121" s="35"/>
       <c r="E121" s="107" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
@@ -44663,7 +44700,7 @@
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
       <c r="E122" s="107" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
@@ -44675,7 +44712,7 @@
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
       <c r="E123" s="107" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
@@ -44687,7 +44724,7 @@
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
       <c r="E124" s="107" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
@@ -44699,7 +44736,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="107" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -44711,7 +44748,7 @@
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
       <c r="E126" s="107" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
@@ -44723,7 +44760,7 @@
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
       <c r="E127" s="107" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="35"/>
@@ -44735,7 +44772,7 @@
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
       <c r="E128" s="107" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
@@ -44747,7 +44784,7 @@
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
       <c r="E129" s="107" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
@@ -44759,7 +44796,7 @@
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -44771,7 +44808,7 @@
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
       <c r="E131" s="35" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
@@ -44783,7 +44820,7 @@
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="35"/>
@@ -44795,7 +44832,7 @@
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
       <c r="E133" s="35" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
@@ -44807,7 +44844,7 @@
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
       <c r="E134" s="35" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
@@ -44818,16 +44855,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="107" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D135" s="35" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E135" s="35" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="35"/>
@@ -44839,7 +44876,7 @@
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
@@ -44851,7 +44888,7 @@
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
@@ -44863,7 +44900,7 @@
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="35"/>
@@ -44875,7 +44912,7 @@
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
@@ -44887,7 +44924,7 @@
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
       <c r="E140" s="35" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
@@ -44899,7 +44936,7 @@
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
       <c r="E141" s="35" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="35"/>
@@ -44911,7 +44948,7 @@
       <c r="C142" s="35"/>
       <c r="D142" s="35"/>
       <c r="E142" s="35" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
@@ -44923,7 +44960,7 @@
       <c r="C143" s="35"/>
       <c r="D143" s="35"/>
       <c r="E143" s="35" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="35"/>
@@ -44935,7 +44972,7 @@
       <c r="C144" s="35"/>
       <c r="D144" s="35"/>
       <c r="E144" s="35" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="35"/>
@@ -44947,7 +44984,7 @@
       <c r="C145" s="35"/>
       <c r="D145" s="35"/>
       <c r="E145" s="35" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
@@ -44959,7 +44996,7 @@
       <c r="C146" s="35"/>
       <c r="D146" s="35"/>
       <c r="E146" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
@@ -44971,7 +45008,7 @@
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
       <c r="E147" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
@@ -44983,7 +45020,7 @@
       <c r="C148" s="35"/>
       <c r="D148" s="35"/>
       <c r="E148" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="F148" s="35"/>
       <c r="G148" s="35"/>
@@ -44995,7 +45032,7 @@
       <c r="C149" s="35"/>
       <c r="D149" s="35"/>
       <c r="E149" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
@@ -45007,7 +45044,7 @@
       <c r="C150" s="35"/>
       <c r="D150" s="35"/>
       <c r="E150" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -45019,7 +45056,7 @@
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
       <c r="E151" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
@@ -45031,7 +45068,7 @@
       <c r="C152" s="35"/>
       <c r="D152" s="35"/>
       <c r="E152" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -45043,7 +45080,7 @@
       <c r="C153" s="35"/>
       <c r="D153" s="35"/>
       <c r="E153" s="35" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="35"/>
@@ -45055,7 +45092,7 @@
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
       <c r="E154" s="35" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="35"/>
@@ -45067,7 +45104,7 @@
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="E155" s="35" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
@@ -45078,16 +45115,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
@@ -45098,16 +45135,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="99" t="s">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
@@ -45119,7 +45156,7 @@
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
       <c r="E158" s="35" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
@@ -45130,16 +45167,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="107" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="35"/>
@@ -45151,7 +45188,7 @@
       <c r="C160" s="35"/>
       <c r="D160" s="35"/>
       <c r="E160" s="35" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="35"/>
@@ -45163,7 +45200,7 @@
       <c r="C161" s="35"/>
       <c r="D161" s="35"/>
       <c r="E161" s="35" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="35"/>
@@ -45175,7 +45212,7 @@
       <c r="C162" s="35"/>
       <c r="D162" s="35"/>
       <c r="E162" s="35" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
@@ -45187,7 +45224,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -45199,7 +45236,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -45211,7 +45248,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -45223,7 +45260,7 @@
       <c r="C166" s="35"/>
       <c r="D166" s="35"/>
       <c r="E166" s="35" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
@@ -45235,7 +45272,7 @@
       <c r="C167" s="35"/>
       <c r="D167" s="35"/>
       <c r="E167" s="35" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="35"/>
@@ -45247,7 +45284,7 @@
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
       <c r="E168" s="35" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="35"/>
@@ -45259,7 +45296,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -45271,7 +45308,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -45283,7 +45320,7 @@
       <c r="C171" s="35"/>
       <c r="D171" s="35"/>
       <c r="E171" s="35" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
@@ -45295,7 +45332,7 @@
       <c r="C172" s="35"/>
       <c r="D172" s="35"/>
       <c r="E172" s="35" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F172" s="35"/>
       <c r="G172" s="35"/>
@@ -45307,7 +45344,7 @@
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
       <c r="E173" s="35" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
@@ -45319,7 +45356,7 @@
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="35"/>
@@ -45331,7 +45368,7 @@
       <c r="C175" s="35"/>
       <c r="D175" s="35"/>
       <c r="E175" s="35" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
@@ -45343,7 +45380,7 @@
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
@@ -45355,7 +45392,7 @@
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -45367,7 +45404,7 @@
       <c r="C178" s="35"/>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -45379,7 +45416,7 @@
       <c r="C179" s="35"/>
       <c r="D179" s="35"/>
       <c r="E179" s="35" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -45391,7 +45428,7 @@
       <c r="C180" s="35"/>
       <c r="D180" s="35"/>
       <c r="E180" s="35" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -45403,7 +45440,7 @@
       <c r="C181" s="35"/>
       <c r="D181" s="35"/>
       <c r="E181" s="35" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -45415,7 +45452,7 @@
       <c r="C182" s="35"/>
       <c r="D182" s="35"/>
       <c r="E182" s="35" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -45427,7 +45464,7 @@
       <c r="C183" s="35"/>
       <c r="D183" s="35"/>
       <c r="E183" s="35" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -45439,7 +45476,7 @@
       <c r="C184" s="35"/>
       <c r="D184" s="35"/>
       <c r="E184" s="35" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -45451,7 +45488,7 @@
       <c r="C185" s="35"/>
       <c r="D185" s="35"/>
       <c r="E185" s="35" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -45463,7 +45500,7 @@
       <c r="C186" s="35"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -45475,7 +45512,7 @@
       <c r="C187" s="35"/>
       <c r="D187" s="35"/>
       <c r="E187" s="35" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -45487,7 +45524,7 @@
       <c r="C188" s="35"/>
       <c r="D188" s="35"/>
       <c r="E188" s="35" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
@@ -45499,7 +45536,7 @@
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
       <c r="E189" s="35" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -45511,7 +45548,7 @@
       <c r="C190" s="35"/>
       <c r="D190" s="35"/>
       <c r="E190" s="35" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -45523,7 +45560,7 @@
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F191" s="35"/>
       <c r="G191" s="35"/>
@@ -45535,7 +45572,7 @@
       <c r="C192" s="35"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F192" s="35"/>
       <c r="G192" s="35"/>
@@ -45547,7 +45584,7 @@
       <c r="C193" s="35"/>
       <c r="D193" s="35"/>
       <c r="E193" s="35" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F193" s="35"/>
       <c r="G193" s="35"/>
@@ -45559,7 +45596,7 @@
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
       <c r="E194" s="35" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F194" s="35"/>
       <c r="G194" s="35"/>
@@ -45571,7 +45608,7 @@
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="35" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="35"/>
@@ -45583,7 +45620,7 @@
       <c r="C196" s="35"/>
       <c r="D196" s="35"/>
       <c r="E196" s="35" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F196" s="35"/>
       <c r="G196" s="35"/>
@@ -45595,7 +45632,7 @@
       <c r="C197" s="72"/>
       <c r="D197" s="72"/>
       <c r="E197" s="72" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F197" s="72"/>
       <c r="G197" s="72"/>
@@ -45603,7 +45640,7 @@
     </row>
     <row r="198" spans="1:8" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E198" s="35" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -45678,7 +45715,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
+          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
           <x14:formula1>
@@ -45690,13 +45727,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C111 C152 C150</xm:sqref>
+          <xm:sqref>C113 C150 C152 C111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C41:C43 C146</xm:sqref>
+          <xm:sqref>C107 C146 C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
           <x14:formula1>
@@ -45748,10 +45785,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45764,13 +45801,12 @@
     <col min="6" max="6" width="21.83203125" style="36" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="36" customWidth="1"/>
     <col min="8" max="8" width="21" style="36" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="50.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -45778,13 +45814,12 @@
       <c r="E1" s="119"/>
       <c r="F1" s="120"/>
       <c r="G1" s="121" t="s">
-        <v>480</v>
+        <v>1035</v>
       </c>
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
@@ -45810,73 +45845,64 @@
         <v>298</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G3" s="35" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="35"/>
       <c r="I3" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="74" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G4" s="35" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
@@ -45888,79 +45914,72 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C6" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="E6" s="70" t="s">
         <v>301</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>302</v>
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="70" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C7" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="70" t="s">
-        <v>301</v>
-      </c>
       <c r="E7" s="70" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="70" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="J7" s="70"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="70"/>
       <c r="E8" s="70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="70" t="b">
@@ -45968,23 +45987,22 @@
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E9" s="70" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="70" t="b">
@@ -45992,23 +46010,22 @@
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="70" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F10" s="70"/>
       <c r="G10" s="70" t="b">
@@ -46016,49 +46033,45 @@
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="70"/>
       <c r="E11" s="70" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G11" s="70" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="J11" s="70" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="70" t="b">
@@ -46066,21 +46079,20 @@
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="70" t="b">
@@ -46088,21 +46100,20 @@
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="70" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="70" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70" t="b">
@@ -46110,14 +46121,13 @@
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="J14" s="70"/>
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This field is equivalent to specifying a list of values to Defined Tags during its creation (in OCI Console)._x000a__x000a_For entering values of type &quot;list&quot; use ENUM::&lt;values in double quotes separated by comma&gt;._x000a__x000a_For type &quot;string&quot; use ENUM::&quot;&lt;value&gt;&quot;." sqref="H4:H500" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -46183,7 +46193,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="36" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -46191,7 +46201,7 @@
       <c r="E1" s="119"/>
       <c r="F1" s="120"/>
       <c r="G1" s="118" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
@@ -46210,7 +46220,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -46234,24 +46244,24 @@
         <v>18</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>21</v>
@@ -46266,7 +46276,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="31"/>
@@ -46292,7 +46302,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="70" t="s">
         <v>19</v>
@@ -46301,7 +46311,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>23</v>
@@ -46313,16 +46323,16 @@
         <v>21</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -46330,10 +46340,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>22</v>
@@ -46351,10 +46361,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
@@ -46364,10 +46374,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D7" s="70" t="s">
         <v>24</v>
@@ -46385,10 +46395,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="70" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="K7" s="70"/>
       <c r="L7" s="70"/>
@@ -46482,17 +46492,17 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
       <c r="D1" s="119"/>
       <c r="E1" s="119"/>
-      <c r="F1" s="124" t="s">
-        <v>804</v>
-      </c>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
+      <c r="F1" s="123" t="s">
+        <v>797</v>
+      </c>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
@@ -46502,45 +46512,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G2" s="78" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="H2" s="112" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="H3" s="37"/>
     </row>
@@ -46888,9 +46898,9 @@
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B1" s="123"/>
+        <v>1019</v>
+      </c>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -46956,7 +46966,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="117" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -46989,18 +46999,18 @@
         <v>34</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>35</v>
@@ -47009,7 +47019,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -47031,7 +47041,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="70" t="s">
         <v>19</v>
@@ -47046,10 +47056,10 @@
         <v>37</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47057,10 +47067,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="70" t="s">
         <v>35</v>
@@ -47079,13 +47089,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C7" s="70" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E7" s="70" t="s">
         <v>38</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E435EB43-FF22-194C-901B-CF8E27877118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BFE256-C7CF-454C-B640-FA9A09740D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,6 @@
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
-    <externalReference r:id="rId43"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="21">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -67,44 +66,44 @@
     <definedName name="bm_shapes_drop" localSheetId="6">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="32">[3]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="30">[4]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="24">[9]Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="23">[9]Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="24">[5]Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="23">[5]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop">Database_Dropdown!#REF!</definedName>
     <definedName name="char_set" localSheetId="10">[1]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="6">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="32">[3]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="30">[4]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="24">[9]Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="23">[9]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="24">[5]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="23">[5]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set">Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="D3D1000">'DBSystems-VM-BM'!$D$3</definedName>
     <definedName name="db_sersion_drop" localSheetId="10">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="6">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="32">[3]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="30">[4]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="24">[9]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="23">[9]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="24">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="23">[5]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop">Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="exa_shapes_drop" localSheetId="10">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="6">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="32">[3]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="30">[4]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="24">[9]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="23">[9]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="24">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="23">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop">Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="Header_Size" localSheetId="10">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="6">'[2]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="32">'[3]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="30">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="24">'[9]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="23">'[9]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="24">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="23">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="license_type_drop" localSheetId="10">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="6">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="32">[3]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="30">[4]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="24">[9]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="23">[9]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="24">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="23">[5]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop">Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="Match_Style" localSheetId="22">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="Match_Style" localSheetId="21">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
@@ -112,15 +111,15 @@
     <definedName name="nchar_set" localSheetId="6">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="32">[3]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="30">[4]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="24">[9]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="23">[9]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="24">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="23">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set">Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="Response_Code" localSheetId="10">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="6">'[2]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="32">'[3]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="30">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="24">'[9]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="23">'[9]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="24">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="23">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Shape_Option" localSheetId="29">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="26">#REF!</definedName>
@@ -132,13 +131,13 @@
     <definedName name="Shape_Option" localSheetId="24">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[5]Database!$B$10:$J$10</definedName>
+    <definedName name="Shape_Option_DB">[6]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="10">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="6">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="32">[3]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="30">[4]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="24">[9]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="23">[9]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="24">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="23">[5]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop">Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="VM_Shapes" localSheetId="29">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
@@ -148,15 +147,15 @@
     <definedName name="VM_shapes_drop" localSheetId="6">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="32">[3]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="30">[4]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="24">[9]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="23">[9]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="24">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="23">[5]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop">Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="workload_drop" localSheetId="10">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="6">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="32">[3]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="30">[4]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="24">[9]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="23">[9]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="24">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="23">[5]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop">Database_Dropdown!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -7122,6 +7121,19 @@
     <t>Network::TCC=ocs-development</t>
   </si>
   <si>
+    <t>Oracle-Tags</t>
+  </si>
+  <si>
+    <t>SanJose</t>
+  </si>
+  <si>
+    <t>SaoPaulo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -7131,7 +7143,189 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Default Tag Compartment = Default Tag Value "</t>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Release - v9.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Added Tabs for Network Load Balancers,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modified</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tags Tab to support default tags for multiple compartments
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>nonprod-vcn_nonprod-dmz</t>
+  </si>
+  <si>
+    <t>10.112.1.3</t>
+  </si>
+  <si>
+    <t>BS2-2</t>
+  </si>
+  <si>
+    <t>Lis2-2</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>BS2-1</t>
+  </si>
+  <si>
+    <t>Lis2-1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NSG-App,NSG-LBR</t>
+  </si>
+  <si>
+    <t>fwl-vcn_fwl-pub</t>
+  </si>
+  <si>
+    <t>NLB2</t>
+  </si>
+  <si>
+    <t>UDP/TCP</t>
+  </si>
+  <si>
+    <t>BS1-1</t>
+  </si>
+  <si>
+    <t>Lis1-1</t>
+  </si>
+  <si>
+    <t>NLB1</t>
+  </si>
+  <si>
+    <t>Listener Protocol(UDP|TCP|UDP/TCP|Any)</t>
+  </si>
+  <si>
+    <t>Reserved IP(Y|N|OCID)</t>
+  </si>
+  <si>
+    <t>Is Preserve Source Destination(True|False)</t>
+  </si>
+  <si>
+    <t>NLB Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+  </si>
+  <si>
+    <t>Backend Policy(FIVE_TUPLE|THREE_TUPLE|TWO_TUPLE)</t>
+  </si>
+  <si>
+    <t>Is Preserve Source(True|False)</t>
+  </si>
+  <si>
+    <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP)</t>
+  </si>
+  <si>
+    <t>FIVE_TUPLE</t>
+  </si>
+  <si>
+    <t>/url1</t>
+  </si>
+  <si>
+    <t>CD3aaS&amp;CD3aaS-Dev-Instance-Venv:9,&amp;10.2.2.2:9</t>
+  </si>
+  <si>
+    <t>TWO_TUPLE</t>
+  </si>
+  <si>
+    <t>CD3aaS&amp;cd3aas-new:1,CD3aaS&amp;test-360:10,&amp;10.0.0.144:10,CD3aaS&amp;grafana-vm:1</t>
+  </si>
+  <si>
+    <t>THREE_TUPLE</t>
+  </si>
+  <si>
+    <t>CD3aaS&amp;jump-vm:20,CD3aaS&amp;jump-vm2:20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Default Tag Compartment=Default Tag Value "</t>
     </r>
     <r>
       <rPr>
@@ -7230,202 +7424,7 @@
     </r>
   </si>
   <si>
-    <t>Default Tag Compartment = Default Tag Value</t>
-  </si>
-  <si>
-    <t>Oracle-Tags</t>
-  </si>
-  <si>
-    <t>SanJose</t>
-  </si>
-  <si>
-    <t>SaoPaulo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release - v9.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Added Tabs for Network Load Balancers,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>modified</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tags Tab to support default tags for multiple compartments
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Bastion</t>
-  </si>
-  <si>
-    <t>nonprod-vcn_nonprod-dmz</t>
-  </si>
-  <si>
-    <t>10.112.1.3</t>
-  </si>
-  <si>
-    <t>BS2-2</t>
-  </si>
-  <si>
-    <t>Lis2-2</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>BS2-1</t>
-  </si>
-  <si>
-    <t>Lis2-1</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>NSG-App,NSG-LBR</t>
-  </si>
-  <si>
-    <t>fwl-vcn_fwl-pub</t>
-  </si>
-  <si>
-    <t>NLB2</t>
-  </si>
-  <si>
-    <t>UDP/TCP</t>
-  </si>
-  <si>
-    <t>BS1-1</t>
-  </si>
-  <si>
-    <t>Lis1-1</t>
-  </si>
-  <si>
-    <t>NLB1</t>
-  </si>
-  <si>
-    <t>Listener Protocol(UDP|TCP|UDP/TCP|Any)</t>
-  </si>
-  <si>
-    <t>Reserved IP(Y|N|OCID)</t>
-  </si>
-  <si>
-    <t>Is Preserve Source Destination(True|False)</t>
-  </si>
-  <si>
-    <t>NLB Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-  </si>
-  <si>
-    <t>Backend Policy(FIVE_TUPLE|THREE_TUPLE|TWO_TUPLE)</t>
-  </si>
-  <si>
-    <t>Is Preserve Source(True|False)</t>
-  </si>
-  <si>
-    <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP)</t>
-  </si>
-  <si>
-    <t>FIVE_TUPLE</t>
-  </si>
-  <si>
-    <t>/url1</t>
-  </si>
-  <si>
-    <t>CD3aaS&amp;CD3aaS-Dev-Instance-Venv:9,&amp;10.2.2.2:9</t>
-  </si>
-  <si>
-    <t>TWO_TUPLE</t>
-  </si>
-  <si>
-    <t>CD3aaS&amp;cd3aas-new:1,CD3aaS&amp;test-360:10,&amp;10.0.0.144:10,CD3aaS&amp;grafana-vm:1</t>
-  </si>
-  <si>
-    <t>THREE_TUPLE</t>
-  </si>
-  <si>
-    <t>CD3aaS&amp;jump-vm:20,CD3aaS&amp;jump-vm2:20</t>
+    <t>Default Tag Compartment=Default Tag Value</t>
   </si>
 </sst>
 </file>
@@ -8229,6 +8228,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8297,12 +8302,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9088,83 +9087,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="NLB-Listeners"/>
-      <sheetName val="NLB-BackendSets-BackendServers"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -11426,133 +11348,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Database"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Data_Validation Values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -12321,6 +12116,133 @@
         </row>
       </sheetData>
       <sheetData sheetId="35"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Database"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12663,8 +12585,8 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
-        <v>1035</v>
+      <c r="A2" s="114" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -12704,28 +12626,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="123" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="125" t="s">
         <v>452</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -13281,18 +13203,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>793</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -14889,17 +14811,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -14990,25 +14912,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -15142,28 +15064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
@@ -16116,15 +16038,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16302,30 +16224,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>785</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="115" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="117" t="s">
         <v>1016</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="117"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="119"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16400,19 +16322,19 @@
         <v>56</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>458</v>
@@ -16701,20 +16623,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -17022,27 +16944,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="129" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -17420,27 +17342,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -17702,13 +17624,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -17968,30 +17890,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>1024</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="119"/>
     </row>
     <row r="2" spans="1:22" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -18316,25 +18238,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>1023</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
     </row>
     <row r="2" spans="1:17" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -18572,29 +18494,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="118" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="120" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="132"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -19271,14 +19193,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="135"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -19425,25 +19347,25 @@
     <col min="8" max="9" width="8.6640625" style="36" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="36" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="36" customWidth="1"/>
-    <col min="13" max="18" width="8.6640625" style="138"/>
+    <col min="13" max="18" width="8.6640625" style="115"/>
     <col min="19" max="16384" width="8.6640625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117"/>
+      <c r="A1" s="117" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19453,19 +19375,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>245</v>
@@ -19474,7 +19396,7 @@
         <v>157</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>246</v>
@@ -19507,10 +19429,10 @@
         <v>361</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E4" s="70" t="b">
         <v>0</v>
@@ -19518,20 +19440,20 @@
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K4" s="70">
         <v>7003</v>
       </c>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" s="138" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="115" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="70" t="s">
         <v>875</v>
       </c>
@@ -19539,35 +19461,35 @@
         <v>361</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E5" s="70" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="K5" s="70">
         <v>53</v>
       </c>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:12" s="138" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -19576,10 +19498,10 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="J6" s="70" t="s">
         <v>864</v>
@@ -19589,7 +19511,7 @@
       </c>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -19603,7 +19525,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -19617,7 +19539,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -19631,7 +19553,7 @@
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -19645,7 +19567,7 @@
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -19659,7 +19581,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -19673,7 +19595,7 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -19687,7 +19609,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -19701,7 +19623,7 @@
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -19715,7 +19637,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -19729,7 +19651,7 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -19743,7 +19665,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -19757,7 +19679,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -19771,7 +19693,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -19785,7 +19707,7 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -19799,7 +19721,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -19813,7 +19735,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -19827,7 +19749,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -19841,7 +19763,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -19855,7 +19777,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12" s="138" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -19901,19 +19823,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
     </row>
     <row r="2" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19923,19 +19845,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>1057</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>1058</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>1059</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>160</v>
@@ -19973,13 +19895,13 @@
         <v>361</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="F4" s="70" t="b">
         <v>0</v>
@@ -19991,13 +19913,13 @@
         <v>7003</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J4" s="70">
         <v>10000</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -20008,19 +19930,19 @@
         <v>361</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F5" s="70" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H5" s="70">
         <v>53</v>
@@ -20030,7 +19952,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -20038,10 +19960,10 @@
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F6" s="70" t="b">
         <v>0</v>
@@ -20057,7 +19979,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="70" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -20091,17 +20013,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="138" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -20265,35 +20187,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="51" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="116"/>
-      <c r="Z1" s="116"/>
-      <c r="AA1" s="117"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="119"/>
     </row>
     <row r="2" spans="1:27" s="62" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -26693,16 +26615,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>919</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
@@ -32806,25 +32728,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="51" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
       <c r="R1" s="94"/>
       <c r="S1" s="94"/>
       <c r="T1" s="94"/>
@@ -39804,13 +39726,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -42055,7 +41977,7 @@
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="80" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
@@ -42189,7 +42111,7 @@
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="80" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
@@ -44838,16 +44760,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -47453,7 +47375,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47470,19 +47392,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>889</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="118" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="120" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -47510,7 +47432,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>1031</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47743,7 +47665,7 @@
         <v>412</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>938</v>
@@ -47770,7 +47692,7 @@
         <v>412</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>938</v>
@@ -47851,22 +47773,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="36" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>1008</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="115" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="117" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="117"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -48150,18 +48072,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="117" t="s">
         <v>794</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="120" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="122" t="s">
         <v>795</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
@@ -48556,10 +48478,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>1015</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="124"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -48624,16 +48546,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="116" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BFE256-C7CF-454C-B640-FA9A09740D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6FC2FA-D86B-D943-A626-A1C72E092CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="1118">
   <si>
     <t>Region</t>
   </si>
@@ -4607,78 +4607,6 @@
     <t>Policy allowing AppDevAdmins group to manage app development related services in compartment AppDev.</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to read all-resources in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage functions-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage api-gateway-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage ons-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage streams in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage cluster-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage alarms in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage metrics in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage logs in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage instance-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage volume-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage object-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use load-balancers in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read app-catalog-listing in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read instance-images in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage orm-stacks in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage orm-jobs in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage orm-config-source-providers in compartment AppDev</t>
-  </si>
-  <si>
     <t>AuditorAccess-Policy</t>
   </si>
   <si>
@@ -4718,273 +4646,39 @@
     <t>Allow Group Auditors to read audit-events in tenancy</t>
   </si>
   <si>
-    <t>CloudGuardAccess-Policy</t>
-  </si>
-  <si>
-    <t>Policy for Cloud Guard to be able to review a tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read keys in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read compartments in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read tenancies in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read compute-management-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read instance-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read virtual-network-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read volume-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read database-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read object-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read load-balancers in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read users in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read dynamic-groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read authentication-policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to use network-security-groups in tenancy</t>
-  </si>
-  <si>
     <t>DatabaseAdmins-Policy</t>
   </si>
   <si>
-    <t>Policy allowing DatabaseAdmins group to manage database-family in compartment Database.</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read all-resources in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage autonomous-database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage alarms in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage metrics in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use vnics in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use subnets in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use network-security-groups in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage orm-stacks in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage orm-jobs in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage orm-config-source-providers in compartment Database</t>
-  </si>
-  <si>
     <t>IAMAdmins-Policy</t>
   </si>
   <si>
     <t>Policy allowing IAMAdmins group to manage IAM resources in tenancy, except changing Administrators group assignments.</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to inspect groups in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage dynamic-groups in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage compartments in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage authentication-policies in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage network-sources in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage tag-defaults in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage tag-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage orm-stacks in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage orm-jobs in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage orm-config-source-providers in tenancy</t>
-  </si>
-  <si>
     <t>NetworkAdmins-Policy</t>
   </si>
   <si>
     <t>Policy allowing NetworkAdmins group to manage virtual-network-family in compartment Network.</t>
   </si>
   <si>
-    <t>Allow group NetworkAdmins to read all-resources in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage dns in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage load-balancers in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage alarms in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage metrics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage orm-stacks in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage orm-jobs in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage orm-config-source-providers in compartment Network</t>
-  </si>
-  <si>
     <t>SecurityAdmins-Policy</t>
   </si>
   <si>
     <t>Policy allowing SecurityAdmins group to manage security related services in compartment Security.</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read all-resources in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage instance-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage secret-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage serviceconnectors in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage streams in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage ons-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage functions-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage waas-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage security-zone in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage tag-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage tag-defaults in tenancy</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage cloud-guard-family in tenancy</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read audit-events in tenancy</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to read tenancies in tenancy</t>
   </si>
   <si>
     <t>Allow group SecurityAdmins to read objectstorage-namespaces in tenancy</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read app-catalog-listing in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read instance-images in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to inspect buckets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage orm-stacks in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage orm-jobs in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
-  </si>
-  <si>
     <t>hub-vcn</t>
   </si>
   <si>
@@ -5081,25 +4775,7 @@
     <t>Allow group AnnouncementReaders to read announcements in tenancy</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to read autonomous-database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group AppDevAdmins to read audit-events in compartment AppDev</t>
-  </si>
-  <si>
     <t>Allow Group Auditors to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage object-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read audit-events in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read audit-events in compartment Network</t>
   </si>
   <si>
     <t>OS-ManagementAcess-Policy</t>
@@ -5398,18 +5074,6 @@
     <t>Allow group AnnouncementReaders to use cloud-shell in tenancy</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to manage instance-images in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage repos in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read repos in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read vss-family in compartment Security</t>
-  </si>
-  <si>
     <t>Allow Group AppDevAdmins to use cloud-shell in tenancy</t>
   </si>
   <si>
@@ -5437,46 +5101,10 @@
     <t>Allow group CredAdmins to use cloud-shell in tenancy</t>
   </si>
   <si>
-    <t>Allow group DatabaseAdmins to read vss-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage policies in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to inspect users in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'CredAdmins'}</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to inspect identity-providers in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage quota in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read vss-family in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group NetworkAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage repos in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage vss-family in compartment Security</t>
   </si>
   <si>
     <t>Allow group SecurityAdmins to manage cloudevents-rules in tenancy</t>
@@ -5885,12 +5513,6 @@
     <t>Allow Group Auditors to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>Allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
     <t>Allow Group NetworkAdmins to read usage-budgets in tenancy</t>
   </si>
   <si>
@@ -5966,30 +5588,6 @@
     <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to read work-requests in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read work-requests in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage bastion-family in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
   </si>
   <si>
@@ -5999,66 +5597,15 @@
     <t>Allow group SecurityAdmins to manage metrics in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
-  </si>
-  <si>
     <t>Allow Group SecurityAdmins to read usage-budgets in tenancy</t>
   </si>
   <si>
     <t>Allow Group SecurityAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>Allow group DatabaseAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read work-requests in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage instance-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
-  </si>
-  <si>
     <t>Allow Group NetworkAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>Allow group NetworkAdmins to read work-requests in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage instance-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
-  </si>
-  <si>
     <t>vcn01</t>
   </si>
   <si>
@@ -6108,15 +5655,6 @@
   </si>
   <si>
     <t>vcn01-dmz</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read data-safe-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read vaults in tenancy</t>
   </si>
   <si>
     <t>CIDR Blocks</t>
@@ -7426,6 +6964,621 @@
   <si>
     <t>Default Tag Compartment=Default Tag Value</t>
   </si>
+  <si>
+    <t>StorageAdmins</t>
+  </si>
+  <si>
+    <t>Group responsible for Storage Management.</t>
+  </si>
+  <si>
+    <t>AppDev-computeagent-dynamic-group</t>
+  </si>
+  <si>
+    <t>Dynamic Group for compute agents in AppDev compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.type = 'managementagent',resource.compartment.id = '&lt;AppDev compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>AppDev-fun-dynamic-group</t>
+  </si>
+  <si>
+    <t>Dynamic Group for functions in AppDev compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.type = 'fnfunc',resource.compartment.id = '&lt;AppDev compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>Database-kms-dynamic-group</t>
+  </si>
+  <si>
+    <t>Dynamic Group for databases in Database compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.compartment.id = '&lt;Database compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>Sec-fun-dynamic-group</t>
+  </si>
+  <si>
+    <t>Landing Zone dynamic group for functions in Security compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.type = 'fnfunc',resource.compartment.id = '&lt;Security compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read all-resources in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage functions-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage api-gateway-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage ons-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage streams in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage cluster-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage alarms in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage metrics in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage logging-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage instance-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage volume-family in compartment AppDev where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage object-family in compartment AppDev where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage file-family in compartment AppDev where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage repos in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage orm-stacks in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage orm-jobs in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage orm-config-source-providers in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read audit-events in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read work-requests in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use vnics in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use load-balancers in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to inspect keys in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage instance-images in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read autonomous-database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read app-catalog-listing in compartment root</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read instance-images in compartment root</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read repos in compartment root</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>Managed Services Policy</t>
+  </si>
+  <si>
+    <t>Policy for for OCI services: Cloud Guard, Vulnerability Scanning and OS Management.</t>
+  </si>
+  <si>
+    <t>Allow service cloudguard to read all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service cloudguard to use network-security-groups in tenancy</t>
+  </si>
+  <si>
+    <t>Policy allowing DatabaseAdmins group to manage databases in compartment Database.</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read all-resources in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage autonomous-database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage alarms in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage metrics in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage object-family in compartment Database where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage instance-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage volume-family in compartment Database where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage file-family in compartment Database where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage orm-stacks in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage orm-jobs in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage orm-config-source-providers in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage ons-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage logging-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read audit-events in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read work-requests in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage data-safe-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vnics in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to inspect keys in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>allow Group DatabaseAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to inspect groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to read policies in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'CredAdmins'}</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to inspect identity-providers in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage dynamic-groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage authentication-policies in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage network-sources in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage quota in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to read audit-events in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage tag-defaults in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage tag-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage orm-stacks in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage orm-jobs in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage orm-config-source-providers in tenancy</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read all-resources in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage dns in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage load-balancers in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage alarms in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage metrics in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage ons-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage orm-stacks in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage orm-jobs in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage orm-config-source-providers in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read audit-events in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read work-requests in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage instance-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage volume-family in compartment Network where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage object-family in compartment Network where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage file-family in compartment Network where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage bastion-session in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>endorse group CostAdmins to read objects in tenancy usage-report</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage tag-namespaces in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage tag-defaults in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage repos in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read audit-events in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read app-catalog-listing in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read instance-images in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to inspect buckets in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read all-resources in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage instance-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage volume-family in compartment Security where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage object-family in compartment Security where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage file-family in compartment Security where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage keys in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage secret-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage serviceconnectors in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage streams in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage ons-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage functions-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage waas-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage security-zone in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage orm-stacks in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage orm-jobs in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read work-requests in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage bastion-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage alarms in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage metrics in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use vnics in compartment Network</t>
+  </si>
+  <si>
+    <t>StorageAdmins-Policy</t>
+  </si>
+  <si>
+    <t>Policy allowing StorageAdmins group to manage storage resources.</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment AppDev where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment AppDev where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment AppDev where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment Database where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment Database where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment Database where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment Security where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment Security where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment Security where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment Network where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment Network where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment Network where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'VNIC_DELETE', request.permission = 'SUBNET_DETACH', request.permission = 'VNIC_DETACH', request.permission = 'PRIVATE_IP_DELETE', request.permission = 'PRIVATE_IP_UNASSIGN', request.permission = 'VNIC_UNASSIGN', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>compute-agent-policy</t>
+  </si>
+  <si>
+    <t>Policy for AppDev-computeagent-dynamic-group group to manage compute agent related services.</t>
+  </si>
+  <si>
+    <t>allow dynamic-group AppDev-computeagent-dynamic-group to manage management-agents in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow dynamic-group AppDev-computeagent-dynamic-group to use metrics in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow dynamic-group AppDev-computeagent-dynamic-group to use tag-namespaces in compartment AppDev</t>
+  </si>
+  <si>
+    <t>database-dynamic_group-policy</t>
+  </si>
+  <si>
+    <t>Database-kms-dynamic-group group to use keys in compartment managed-security-cmp.</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Security</t>
+  </si>
 </sst>
 </file>
 
@@ -7434,7 +7587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7653,13 +7806,6 @@
       <color rgb="FF1D1E23"/>
       <name val="Abadi Extra Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -7971,7 +8117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8193,9 +8339,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -11351,6 +11494,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Database_Dropdown"/>
+      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
@@ -11383,14 +11528,703 @@
       <sheetName val="DBSystems-VM-BM"/>
       <sheetName val="EXA-Infra"/>
       <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard1.1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard1.2</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPRISE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.12.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard1.4</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.13.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.14.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.10.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.11.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.12.0.0</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>21.0.0.0</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>21.3.0.0</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="H26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="H27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="H28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="H29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="H31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="H32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="H33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="H34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="H35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="H37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="H38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="H39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="H40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="H41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="H42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="H43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="H44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="H45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="H48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="H49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="H50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="H51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="H52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="H53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="H54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="H55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="H56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="H57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="H58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="H59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="H60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="H61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="H62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="H63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="H64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="H65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="H66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="H67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="H68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="H69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="H70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="H71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="H72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="H73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="H74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="H75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="H76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="H77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="H78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="H79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="H80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="H81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="H82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="H83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="H84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="H85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="H86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="H87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="H88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="H89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="H90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="H91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="H92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="H93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="H94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="H95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="H96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="H97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="H98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="H99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="H100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="H101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="H102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="H103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="H104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="H105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="H106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="H107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="H108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -11421,700 +12255,9 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard1.1</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard1.2</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPRISE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.12.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard1.4</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.13.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.14.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.10.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.11.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.12.0.0</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>21.0.0.0</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>21.3.0.0</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="H91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="H93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="H94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="H95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="H96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="H97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="H98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="H99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="H100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="H101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="H102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="H103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="H104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="H105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="H106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="H107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="H108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
     </sheetDataSet>
   </externalBook>
@@ -12585,8 +12728,8 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
-        <v>1033</v>
+      <c r="A2" s="113" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>
@@ -12626,28 +12769,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="125" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="124" t="s">
         <v>452</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="125"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -12706,17 +12849,17 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="101" t="s">
         <v>320</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>987</v>
+        <v>836</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1003</v>
+        <v>852</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>50</v>
@@ -12725,7 +12868,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>35</v>
@@ -12735,22 +12878,22 @@
       <c r="K3" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="106" t="s">
+      <c r="L3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="106" t="s">
+      <c r="M3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="106" t="s">
+      <c r="N3" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="106" t="s">
+      <c r="O3" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="106" t="s">
+      <c r="P3" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="105"/>
+      <c r="Q3" s="104"/>
       <c r="R3" s="31"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -12761,13 +12904,13 @@
         <v>361</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>987</v>
+        <v>836</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>1002</v>
+        <v>851</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>51</v>
@@ -12783,22 +12926,22 @@
       <c r="K4" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="106" t="s">
+      <c r="M4" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="106" t="s">
+      <c r="N4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="106" t="s">
+      <c r="P4" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="105"/>
+      <c r="Q4" s="104"/>
       <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -12809,13 +12952,13 @@
         <v>361</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>987</v>
+        <v>836</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1001</v>
+        <v>850</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>831</v>
+        <v>707</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>51</v>
@@ -12831,22 +12974,22 @@
       <c r="K5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="106" t="s">
+      <c r="L5" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="106" t="s">
+      <c r="N5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="106" t="s">
+      <c r="O5" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="106" t="s">
+      <c r="P5" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="105"/>
+      <c r="Q5" s="104"/>
       <c r="R5" s="37"/>
     </row>
     <row r="6" spans="1:18" s="33" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13203,18 +13346,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>793</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="A1" s="115" t="s">
+        <v>685</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -13224,25 +13367,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>786</v>
+        <v>678</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>788</v>
+        <v>680</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>789</v>
+        <v>681</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>791</v>
+        <v>683</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>792</v>
+        <v>684</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>438</v>
@@ -14811,17 +14954,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -14912,25 +15055,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -15064,34 +15207,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
@@ -15112,7 +15255,7 @@
       <c r="H2" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="110" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="61" t="s">
@@ -15157,13 +15300,13 @@
         <v>361</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>396</v>
@@ -15177,7 +15320,7 @@
         <v>397</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -15190,7 +15333,7 @@
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35" t="s">
-        <v>741</v>
+        <v>639</v>
       </c>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
@@ -15203,13 +15346,13 @@
         <v>361</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>396</v>
@@ -15218,7 +15361,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>29</v>
@@ -15236,7 +15379,7 @@
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35" t="s">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
@@ -15249,13 +15392,13 @@
         <v>361</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>396</v>
@@ -15264,10 +15407,10 @@
         <v>79</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>745</v>
+        <v>643</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -15282,7 +15425,7 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
@@ -15295,13 +15438,13 @@
         <v>361</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>396</v>
@@ -15315,7 +15458,7 @@
         <v>397</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -15328,7 +15471,7 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35" t="s">
-        <v>748</v>
+        <v>646</v>
       </c>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
@@ -15341,13 +15484,13 @@
         <v>361</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>396</v>
@@ -15356,10 +15499,10 @@
         <v>79</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>745</v>
+        <v>643</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -15374,7 +15517,7 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35" t="s">
-        <v>749</v>
+        <v>647</v>
       </c>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
@@ -15387,13 +15530,13 @@
         <v>361</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>396</v>
@@ -15402,10 +15545,10 @@
         <v>79</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>750</v>
+        <v>648</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -15420,7 +15563,7 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35" t="s">
-        <v>751</v>
+        <v>649</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
@@ -15433,13 +15576,13 @@
         <v>361</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>396</v>
@@ -15453,7 +15596,7 @@
         <v>397</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -15466,7 +15609,7 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35" t="s">
-        <v>753</v>
+        <v>651</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
@@ -15479,13 +15622,13 @@
         <v>361</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>396</v>
@@ -15496,10 +15639,10 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
-        <v>754</v>
+        <v>652</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>755</v>
+        <v>653</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
@@ -15512,7 +15655,7 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35" t="s">
-        <v>756</v>
+        <v>654</v>
       </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
@@ -15525,13 +15668,13 @@
         <v>361</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>396</v>
@@ -15540,10 +15683,10 @@
         <v>79</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
@@ -15558,7 +15701,7 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35" t="s">
-        <v>758</v>
+        <v>656</v>
       </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
@@ -15571,13 +15714,13 @@
         <v>361</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>396</v>
@@ -15586,10 +15729,10 @@
         <v>79</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
@@ -15604,7 +15747,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35" t="s">
-        <v>759</v>
+        <v>657</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
@@ -15617,13 +15760,13 @@
         <v>361</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>396</v>
@@ -15637,7 +15780,7 @@
         <v>397</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -15650,7 +15793,7 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35" t="s">
-        <v>760</v>
+        <v>658</v>
       </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
@@ -15663,13 +15806,13 @@
         <v>361</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>396</v>
@@ -15680,10 +15823,10 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
-        <v>754</v>
+        <v>652</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>755</v>
+        <v>653</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -15696,7 +15839,7 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35" t="s">
-        <v>756</v>
+        <v>654</v>
       </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
@@ -15709,13 +15852,13 @@
         <v>361</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>396</v>
@@ -15724,10 +15867,10 @@
         <v>79</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -15742,7 +15885,7 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35" t="s">
-        <v>761</v>
+        <v>659</v>
       </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
@@ -15755,13 +15898,13 @@
         <v>361</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>396</v>
@@ -15770,10 +15913,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -15788,7 +15931,7 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35" t="s">
-        <v>759</v>
+        <v>657</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
@@ -16038,15 +16181,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16224,30 +16367,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
-        <v>785</v>
-      </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="117" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
+      <c r="A1" s="125" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="116" t="s">
+        <v>862</v>
+      </c>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="118"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16281,16 +16424,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1012</v>
+        <v>858</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>1013</v>
+        <v>859</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>1017</v>
+        <v>863</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>1018</v>
+        <v>864</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>95</v>
@@ -16322,24 +16465,24 @@
         <v>56</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1034</v>
+        <v>880</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1035</v>
+        <v>881</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>1036</v>
+        <v>882</v>
       </c>
       <c r="I3" s="37" t="s">
         <v>458</v>
       </c>
-      <c r="J3" s="112" t="s">
+      <c r="J3" s="111" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="37">
@@ -16465,13 +16608,13 @@
       <c r="I6" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="J6" s="112" t="s">
+      <c r="J6" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
       <c r="O6" s="37" t="s">
         <v>103</v>
       </c>
@@ -16511,13 +16654,13 @@
       <c r="I7" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="J7" s="112" t="s">
+      <c r="J7" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112"/>
-      <c r="N7" s="112"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
       <c r="O7" s="37" t="s">
         <v>103</v>
       </c>
@@ -16623,20 +16766,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16661,10 +16804,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1020</v>
+        <v>866</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>1019</v>
+        <v>865</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>96</v>
@@ -16715,7 +16858,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>1021</v>
+        <v>867</v>
       </c>
       <c r="I4" s="22" t="b">
         <v>1</v>
@@ -16747,13 +16890,13 @@
       <c r="F5" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="99"/>
+      <c r="H5" s="98"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
-      <c r="K5" s="113"/>
+      <c r="K5" s="112"/>
       <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -16944,27 +17087,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="128" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="132" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -17027,7 +17170,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="35" t="s">
-        <v>894</v>
+        <v>770</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -17066,7 +17209,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>781</v>
+        <v>673</v>
       </c>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
@@ -17091,7 +17234,7 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37" t="s">
-        <v>781</v>
+        <v>673</v>
       </c>
       <c r="J5" s="37" t="s">
         <v>126</v>
@@ -17115,7 +17258,7 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37" t="s">
-        <v>781</v>
+        <v>673</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>128</v>
@@ -17152,7 +17295,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>782</v>
+        <v>674</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -17185,7 +17328,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>783</v>
+        <v>675</v>
       </c>
       <c r="J8" s="37" t="s">
         <v>133</v>
@@ -17224,7 +17367,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>783</v>
+        <v>675</v>
       </c>
       <c r="J9" s="37" t="s">
         <v>135</v>
@@ -17261,7 +17404,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>784</v>
+        <v>676</v>
       </c>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
@@ -17342,27 +17485,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -17375,13 +17518,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1010</v>
+        <v>856</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>829</v>
+        <v>705</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>830</v>
+        <v>706</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>139</v>
@@ -17393,7 +17536,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>1022</v>
+        <v>868</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>141</v>
@@ -17624,13 +17767,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -17890,30 +18033,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="119"/>
+      <c r="A1" s="116" t="s">
+        <v>870</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="118"/>
     </row>
     <row r="2" spans="1:22" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -17926,16 +18069,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>1014</v>
+        <v>860</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>1025</v>
+        <v>871</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>1011</v>
+        <v>857</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>158</v>
@@ -18238,25 +18381,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="A1" s="115" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
     </row>
     <row r="2" spans="1:17" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -18281,10 +18424,10 @@
         <v>244</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>1014</v>
+        <v>860</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>1025</v>
+        <v>871</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>245</v>
@@ -18494,29 +18637,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="120" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="119" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="134"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="133"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -19193,14 +19336,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="136"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -19347,25 +19490,25 @@
     <col min="8" max="9" width="8.6640625" style="36" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="36" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="36" customWidth="1"/>
-    <col min="13" max="18" width="8.6640625" style="115"/>
+    <col min="13" max="18" width="8.6640625" style="114"/>
     <col min="19" max="16384" width="8.6640625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="A1" s="116" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19375,19 +19518,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1053</v>
+        <v>899</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1052</v>
+        <v>898</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1051</v>
+        <v>897</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>245</v>
@@ -19396,7 +19539,7 @@
         <v>157</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>1050</v>
+        <v>896</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>246</v>
@@ -19423,16 +19566,16 @@
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>361</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>1049</v>
+        <v>895</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>1035</v>
+        <v>881</v>
       </c>
       <c r="E4" s="70" t="b">
         <v>0</v>
@@ -19440,56 +19583,56 @@
       <c r="F4" s="70"/>
       <c r="G4" s="70"/>
       <c r="H4" s="70" t="s">
-        <v>1048</v>
+        <v>894</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>1047</v>
+        <v>893</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>1046</v>
+        <v>892</v>
       </c>
       <c r="K4" s="70">
         <v>7003</v>
       </c>
       <c r="L4" s="70"/>
     </row>
-    <row r="5" spans="1:12" s="115" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="114" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="70" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>361</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>1045</v>
+        <v>891</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>1044</v>
+        <v>890</v>
       </c>
       <c r="E5" s="70" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>1043</v>
+        <v>889</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>1042</v>
+        <v>888</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>1041</v>
+        <v>887</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>1040</v>
+        <v>886</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>1039</v>
+        <v>885</v>
       </c>
       <c r="K5" s="70">
         <v>53</v>
       </c>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:12" s="115" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="114" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
@@ -19498,20 +19641,20 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70" t="s">
-        <v>1038</v>
+        <v>884</v>
       </c>
       <c r="I6" s="70" t="s">
-        <v>1037</v>
+        <v>883</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>864</v>
+        <v>740</v>
       </c>
       <c r="K6" s="70">
         <v>22</v>
       </c>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -19525,7 +19668,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
     </row>
-    <row r="8" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -19539,7 +19682,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
     </row>
-    <row r="9" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -19553,7 +19696,7 @@
       <c r="K9" s="36"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -19567,7 +19710,7 @@
       <c r="K10" s="36"/>
       <c r="L10" s="36"/>
     </row>
-    <row r="11" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -19581,7 +19724,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -19595,7 +19738,7 @@
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
     </row>
-    <row r="13" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -19609,7 +19752,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -19623,7 +19766,7 @@
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
     </row>
-    <row r="15" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -19637,7 +19780,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
     </row>
-    <row r="16" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -19651,7 +19794,7 @@
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
     </row>
-    <row r="17" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -19665,7 +19808,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
     </row>
-    <row r="18" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -19679,7 +19822,7 @@
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
     </row>
-    <row r="19" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -19693,7 +19836,7 @@
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
     </row>
-    <row r="20" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -19707,7 +19850,7 @@
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
     </row>
-    <row r="21" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -19721,7 +19864,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
     </row>
-    <row r="22" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -19735,7 +19878,7 @@
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
     </row>
-    <row r="23" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -19749,7 +19892,7 @@
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
     </row>
-    <row r="24" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -19763,7 +19906,7 @@
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
     </row>
-    <row r="25" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -19777,7 +19920,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
     </row>
-    <row r="26" spans="1:12" s="115" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="114" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -19823,19 +19966,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="A1" s="116" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19845,19 +19988,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>1053</v>
+        <v>899</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>1055</v>
+        <v>901</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>1056</v>
+        <v>902</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>1057</v>
+        <v>903</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>160</v>
@@ -19869,7 +20012,7 @@
         <v>474</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>1011</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -19889,19 +20032,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="70" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>361</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>1049</v>
+        <v>895</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>1047</v>
+        <v>893</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>1058</v>
+        <v>904</v>
       </c>
       <c r="F4" s="70" t="b">
         <v>0</v>
@@ -19913,36 +20056,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="70" t="s">
-        <v>1059</v>
+        <v>905</v>
       </c>
       <c r="J4" s="70">
         <v>10000</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>1060</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="70" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="B5" s="70" t="s">
         <v>361</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>1045</v>
+        <v>891</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>1040</v>
+        <v>886</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>1061</v>
+        <v>907</v>
       </c>
       <c r="F5" s="70" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>1039</v>
+        <v>885</v>
       </c>
       <c r="H5" s="70">
         <v>53</v>
@@ -19952,7 +20095,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>1062</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19960,16 +20103,16 @@
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70" t="s">
-        <v>1037</v>
+        <v>883</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>1063</v>
+        <v>909</v>
       </c>
       <c r="F6" s="70" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>864</v>
+        <v>740</v>
       </c>
       <c r="H6" s="70">
         <v>22</v>
@@ -19979,7 +20122,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="70" t="s">
-        <v>1064</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -20013,17 +20156,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="137" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -20187,35 +20330,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="51" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="118"/>
     </row>
     <row r="2" spans="1:27" s="62" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="65" t="s">
@@ -20231,31 +20374,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>895</v>
+        <v>771</v>
       </c>
       <c r="F2" s="65" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="65" t="s">
-        <v>896</v>
+        <v>772</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>897</v>
+        <v>773</v>
       </c>
       <c r="I2" s="65" t="s">
-        <v>898</v>
+        <v>774</v>
       </c>
       <c r="J2" s="65" t="s">
-        <v>899</v>
+        <v>775</v>
       </c>
       <c r="K2" s="88" t="s">
-        <v>900</v>
+        <v>776</v>
       </c>
       <c r="L2" s="65" t="s">
-        <v>901</v>
+        <v>777</v>
       </c>
       <c r="M2" s="66" t="s">
-        <v>902</v>
+        <v>778</v>
       </c>
       <c r="N2" s="65" t="s">
         <v>419</v>
@@ -20273,10 +20416,10 @@
         <v>422</v>
       </c>
       <c r="S2" s="65" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="T2" s="65" t="s">
-        <v>904</v>
+        <v>780</v>
       </c>
       <c r="U2" s="65" t="s">
         <v>95</v>
@@ -20288,7 +20431,7 @@
         <v>327</v>
       </c>
       <c r="X2" s="65" t="s">
-        <v>905</v>
+        <v>781</v>
       </c>
       <c r="Y2" s="65" t="s">
         <v>584</v>
@@ -20332,20 +20475,20 @@
       <c r="AA3" s="37"/>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>939</v>
-      </c>
-      <c r="E4" s="100" t="s">
-        <v>940</v>
+        <v>813</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>814</v>
       </c>
       <c r="F4" s="52" t="s">
         <v>344</v>
@@ -20368,7 +20511,7 @@
         <v>333</v>
       </c>
       <c r="N4" s="52" t="s">
-        <v>941</v>
+        <v>815</v>
       </c>
       <c r="O4" s="52" t="s">
         <v>334</v>
@@ -20407,20 +20550,20 @@
       <c r="AA4" s="37"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>590</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>954</v>
-      </c>
-      <c r="E5" s="100" t="s">
-        <v>942</v>
+        <v>828</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>816</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>347</v>
@@ -20445,7 +20588,7 @@
         <v>333</v>
       </c>
       <c r="N5" s="52" t="s">
-        <v>943</v>
+        <v>817</v>
       </c>
       <c r="O5" s="52" t="s">
         <v>349</v>
@@ -20484,11 +20627,11 @@
       <c r="AA5" s="37"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="99"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="100"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
@@ -20513,11 +20656,11 @@
       <c r="AA6" s="37"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="99"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="100"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
@@ -26615,16 +26758,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>919</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="A1" s="116" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="88" t="s">
@@ -26634,7 +26777,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>915</v>
+        <v>791</v>
       </c>
       <c r="D2" s="88" t="s">
         <v>84</v>
@@ -26643,22 +26786,22 @@
         <v>85</v>
       </c>
       <c r="F2" s="88" t="s">
-        <v>916</v>
+        <v>792</v>
       </c>
       <c r="G2" s="88" t="s">
-        <v>917</v>
+        <v>793</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="37"/>
-      <c r="D3" s="99"/>
+      <c r="D3" s="98"/>
       <c r="E3" s="52"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -26678,7 +26821,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>918</v>
+        <v>794</v>
       </c>
       <c r="F4" s="35">
         <v>2</v>
@@ -32728,25 +32871,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="51" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
       <c r="R1" s="94"/>
       <c r="S1" s="94"/>
       <c r="T1" s="94"/>
@@ -32763,34 +32906,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>915</v>
+        <v>791</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>920</v>
+        <v>796</v>
       </c>
       <c r="E2" s="88" t="s">
-        <v>921</v>
+        <v>797</v>
       </c>
       <c r="F2" s="88" t="s">
         <v>351</v>
       </c>
       <c r="G2" s="88" t="s">
-        <v>897</v>
+        <v>773</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>902</v>
+        <v>778</v>
       </c>
       <c r="I2" s="88" t="s">
         <v>419</v>
       </c>
       <c r="J2" s="88" t="s">
-        <v>922</v>
+        <v>798</v>
       </c>
       <c r="K2" s="88" t="s">
-        <v>923</v>
+        <v>799</v>
       </c>
       <c r="L2" s="88" t="s">
-        <v>924</v>
+        <v>800</v>
       </c>
       <c r="M2" s="88" t="s">
         <v>95</v>
@@ -32798,11 +32941,11 @@
       <c r="N2" s="88" t="s">
         <v>584</v>
       </c>
-      <c r="O2" s="107" t="s">
+      <c r="O2" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="107" t="s">
-        <v>1009</v>
+      <c r="P2" s="106" t="s">
+        <v>855</v>
       </c>
       <c r="Q2" s="95" t="s">
         <v>438</v>
@@ -32816,7 +32959,7 @@
       <c r="X2" s="47"/>
     </row>
     <row r="3" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="100" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="37"/>
@@ -32831,12 +32974,12 @@
       <c r="L3" s="68"/>
       <c r="M3" s="52"/>
       <c r="N3" s="60"/>
-      <c r="O3" s="108"/>
+      <c r="O3" s="107"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="98" t="s">
         <v>320</v>
       </c>
       <c r="B4" s="37" t="s">
@@ -32846,33 +32989,33 @@
         <v>426</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>952</v>
+        <v>826</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>939</v>
+        <v>813</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>939</v>
-      </c>
-      <c r="G4" s="103">
+        <v>813</v>
+      </c>
+      <c r="G4" s="102">
         <v>4</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="96" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="97" t="s">
-        <v>953</v>
-      </c>
-      <c r="J4" s="97" t="s">
+      <c r="I4" s="96" t="s">
+        <v>827</v>
+      </c>
+      <c r="J4" s="96" t="s">
         <v>431</v>
       </c>
-      <c r="K4" s="97" t="b">
+      <c r="K4" s="96" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="98" t="b">
+      <c r="L4" s="97" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="96" t="s">
         <v>103</v>
       </c>
       <c r="N4" s="60" t="s">
@@ -32884,11 +33027,11 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="37" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
+      <c r="A5" s="98"/>
       <c r="C5" s="52"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="102"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
@@ -32896,8 +33039,8 @@
       <c r="L5" s="60"/>
       <c r="M5" s="52"/>
       <c r="N5" s="60"/>
-      <c r="O5" s="108"/>
-      <c r="R5" s="102"/>
+      <c r="O5" s="107"/>
+      <c r="R5" s="101"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="47"/>
@@ -39710,10 +39853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -39726,13 +39869,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -39762,71 +39905,71 @@
         <v>596</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>597</v>
+        <v>913</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>598</v>
+        <v>914</v>
       </c>
       <c r="D4" s="35"/>
-      <c r="E4" s="37"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="37"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:5" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>600</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C7" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="37"/>
-    </row>
-    <row r="7" spans="1:5" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>603</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" s="47" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>605</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D8" s="35"/>
+      <c r="B8" s="71" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>604</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" s="47" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -39834,10 +39977,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>762</v>
+        <v>605</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>763</v>
+        <v>606</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -39847,10 +39990,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>796</v>
+        <v>660</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>797</v>
+        <v>661</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -39860,28 +40003,107 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>937</v>
+        <v>689</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>810</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>811</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>915</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>916</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>917</v>
+      </c>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>918</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>919</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>920</v>
+      </c>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>921</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>922</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>923</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>924</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>925</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>926</v>
+      </c>
+      <c r="E17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the matching rule for creating Dynamic Groups; else leave it empty" sqref="D3:D501" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E501" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group  Name is a mandatory field" sqref="B4:B501" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group Name is a mandatory field" sqref="B3" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the matching rule for creating Dynamic Groups; else leave it empty" sqref="D3:D13 D18:D285" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group  Name is a mandatory field" sqref="B5:B13 B18:B285" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group Name is a mandatory field" sqref="B3:B4" xr:uid="{F6F3514D-C365-3B4D-8A6D-FCF44177DEFB}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Specify the matching rule for creating Dynamic Groups; else leave it empty" sqref="D14:D17" xr:uid="{FF5DAE51-DB21-9249-9229-647DE7562DA6}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Group  Name is a mandatory field" sqref="B14:B17" xr:uid="{447C189A-53B5-1D4B-8F50-355E508AF247}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E5:E17" xr:uid="{57E45F56-E0E4-5749-A49A-99B8FCB3E5F2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E4" xr:uid="{F4DA9443-F6ED-F945-BB7C-A18544480512}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E18:E285" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39892,7 +40114,7 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A501</xm:sqref>
+          <xm:sqref>A3:A285</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -39925,22 +40147,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>911</v>
+        <v>787</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>898</v>
+        <v>774</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>427</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>914</v>
+        <v>790</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>353</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>902</v>
+        <v>778</v>
       </c>
       <c r="G1" s="58" t="s">
         <v>327</v>
@@ -39949,13 +40171,13 @@
         <v>326</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>900</v>
+        <v>776</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>901</v>
+        <v>777</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>896</v>
+        <v>772</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -39987,7 +40209,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>912</v>
+        <v>788</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
@@ -39995,7 +40217,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="89" t="s">
-        <v>906</v>
+        <v>782</v>
       </c>
       <c r="B3" s="55" t="s">
         <v>429</v>
@@ -40022,7 +40244,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="64" t="s">
-        <v>913</v>
+        <v>789</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
@@ -40030,7 +40252,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
-        <v>907</v>
+        <v>783</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>348</v>
@@ -40052,7 +40274,7 @@
         <v>344</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>955</v>
+        <v>829</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>430</v>
@@ -40072,7 +40294,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>944</v>
+        <v>818</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
@@ -40085,11 +40307,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="89" t="s">
-        <v>908</v>
+        <v>784</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>945</v>
+        <v>819</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
@@ -40102,11 +40324,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="89" t="s">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>946</v>
+        <v>820</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
@@ -40140,7 +40362,7 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>947</v>
+        <v>821</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
@@ -40153,11 +40375,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="89" t="s">
-        <v>910</v>
+        <v>786</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>948</v>
+        <v>822</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
@@ -40174,11 +40396,11 @@
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>949</v>
+        <v>823</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>918</v>
+        <v>794</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
@@ -40191,7 +40413,7 @@
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>950</v>
+        <v>824</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -40206,7 +40428,7 @@
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>951</v>
+        <v>825</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -40740,91 +40962,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="78" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="86" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>833</v>
+        <v>709</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>834</v>
+        <v>710</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>835</v>
+        <v>711</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>836</v>
+        <v>712</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>837</v>
+        <v>713</v>
       </c>
       <c r="G1" s="86" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>838</v>
+        <v>714</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>839</v>
+        <v>715</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>840</v>
+        <v>716</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>841</v>
+        <v>717</v>
       </c>
       <c r="L1" s="86" t="s">
-        <v>842</v>
+        <v>718</v>
       </c>
       <c r="M1" s="86" t="s">
-        <v>890</v>
+        <v>766</v>
       </c>
       <c r="N1" s="86" t="s">
-        <v>843</v>
+        <v>719</v>
       </c>
       <c r="O1" s="86" t="s">
-        <v>844</v>
+        <v>720</v>
       </c>
       <c r="P1" s="86" t="s">
-        <v>845</v>
+        <v>721</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>846</v>
+        <v>722</v>
       </c>
       <c r="R1" s="86" t="s">
-        <v>847</v>
+        <v>723</v>
       </c>
       <c r="S1" s="86" t="s">
-        <v>848</v>
+        <v>724</v>
       </c>
       <c r="T1" s="86" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="U1" s="86" t="s">
-        <v>849</v>
+        <v>725</v>
       </c>
       <c r="V1" s="77" t="s">
-        <v>850</v>
+        <v>726</v>
       </c>
       <c r="W1" s="77" t="s">
-        <v>851</v>
+        <v>727</v>
       </c>
       <c r="X1" s="77" t="s">
-        <v>852</v>
+        <v>728</v>
       </c>
       <c r="Y1" s="86" t="s">
-        <v>891</v>
+        <v>767</v>
       </c>
       <c r="Z1" s="77" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="77" t="s">
-        <v>853</v>
+        <v>729</v>
       </c>
       <c r="AB1" s="77" t="s">
-        <v>854</v>
+        <v>730</v>
       </c>
       <c r="AC1" s="77" t="s">
-        <v>855</v>
+        <v>731</v>
       </c>
       <c r="AD1" s="77" t="s">
         <v>252</v>
@@ -40845,7 +41067,7 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="77" t="s">
-        <v>856</v>
+        <v>732</v>
       </c>
       <c r="AK1" s="77" t="s">
         <v>319</v>
@@ -40877,7 +41099,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>857</v>
+        <v>733</v>
       </c>
       <c r="H2" s="80" t="s">
         <v>38</v>
@@ -40900,13 +41122,13 @@
         <v>ash-drg</v>
       </c>
       <c r="N2" s="80" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="O2" s="80" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="81" t="s">
-        <v>858</v>
+        <v>734</v>
       </c>
       <c r="Q2" s="80" t="s">
         <v>360</v>
@@ -40926,13 +41148,13 @@
         <v>Bastion</v>
       </c>
       <c r="V2" s="80" t="s">
-        <v>859</v>
+        <v>735</v>
       </c>
       <c r="W2" s="80" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="80" t="s">
-        <v>860</v>
+        <v>736</v>
       </c>
       <c r="Y2" s="80" t="b">
         <v>1</v>
@@ -40941,7 +41163,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="80" t="s">
-        <v>861</v>
+        <v>737</v>
       </c>
       <c r="AB2" s="80" t="s">
         <v>170</v>
@@ -41007,7 +41229,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="K3" s="80" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -41021,7 +41243,7 @@
         <v/>
       </c>
       <c r="N3" s="80" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="O3" s="80" t="s">
         <v>396</v>
@@ -41036,7 +41258,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="80" t="s">
-        <v>862</v>
+        <v>738</v>
       </c>
       <c r="T3" s="80" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -41053,7 +41275,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="80" t="s">
-        <v>863</v>
+        <v>739</v>
       </c>
       <c r="Y3" s="80" t="b">
         <v>0</v>
@@ -41065,7 +41287,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="80" t="s">
-        <v>864</v>
+        <v>740</v>
       </c>
       <c r="AC3" s="80" t="s">
         <v>172</v>
@@ -41089,7 +41311,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="80" t="s">
-        <v>864</v>
+        <v>740</v>
       </c>
       <c r="AK3" s="79" t="s">
         <v>325</v>
@@ -41117,7 +41339,7 @@
       </c>
       <c r="F4" s="80"/>
       <c r="G4" s="80" t="s">
-        <v>865</v>
+        <v>741</v>
       </c>
       <c r="H4" s="80"/>
       <c r="I4" s="80" t="s">
@@ -41147,7 +41369,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="80" t="s">
-        <v>866</v>
+        <v>742</v>
       </c>
       <c r="T4" s="80" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -41160,14 +41382,14 @@
       <c r="V4" s="80"/>
       <c r="W4" s="80"/>
       <c r="X4" s="80" t="s">
-        <v>867</v>
+        <v>743</v>
       </c>
       <c r="Y4" s="80"/>
       <c r="Z4" s="80" t="s">
-        <v>868</v>
+        <v>744</v>
       </c>
       <c r="AA4" s="80" t="s">
-        <v>869</v>
+        <v>745</v>
       </c>
       <c r="AB4" s="80"/>
       <c r="AC4" s="80" t="s">
@@ -41214,7 +41436,7 @@
       </c>
       <c r="F5" s="80"/>
       <c r="G5" s="80" t="s">
-        <v>870</v>
+        <v>746</v>
       </c>
       <c r="H5" s="80"/>
       <c r="I5" s="80" t="s">
@@ -41232,7 +41454,7 @@
       </c>
       <c r="N5" s="80"/>
       <c r="O5" s="80" t="s">
-        <v>871</v>
+        <v>747</v>
       </c>
       <c r="P5" s="81"/>
       <c r="Q5" s="80"/>
@@ -41249,7 +41471,7 @@
       <c r="X5" s="80"/>
       <c r="Y5" s="80"/>
       <c r="Z5" s="80" t="s">
-        <v>893</v>
+        <v>769</v>
       </c>
       <c r="AA5" s="80"/>
       <c r="AB5" s="80"/>
@@ -41293,7 +41515,7 @@
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="80" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="H6" s="80"/>
       <c r="I6" s="80"/>
@@ -41364,7 +41586,7 @@
       </c>
       <c r="F7" s="80"/>
       <c r="G7" s="80" t="s">
-        <v>873</v>
+        <v>749</v>
       </c>
       <c r="H7" s="80"/>
       <c r="I7" s="80"/>
@@ -41433,7 +41655,7 @@
       </c>
       <c r="F8" s="80"/>
       <c r="G8" s="80" t="s">
-        <v>874</v>
+        <v>750</v>
       </c>
       <c r="H8" s="80"/>
       <c r="I8" s="80"/>
@@ -41502,7 +41724,7 @@
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="80" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="H9" s="80"/>
       <c r="I9" s="80"/>
@@ -41571,7 +41793,7 @@
       </c>
       <c r="F10" s="80"/>
       <c r="G10" s="80" t="s">
-        <v>876</v>
+        <v>752</v>
       </c>
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
@@ -41640,7 +41862,7 @@
       </c>
       <c r="F11" s="80"/>
       <c r="G11" s="80" t="s">
-        <v>877</v>
+        <v>753</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80"/>
@@ -41709,7 +41931,7 @@
       </c>
       <c r="F12" s="80"/>
       <c r="G12" s="80" t="s">
-        <v>878</v>
+        <v>754</v>
       </c>
       <c r="H12" s="80"/>
       <c r="I12" s="80"/>
@@ -41776,7 +41998,7 @@
       </c>
       <c r="F13" s="80"/>
       <c r="G13" s="80" t="s">
-        <v>879</v>
+        <v>755</v>
       </c>
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
@@ -41843,7 +42065,7 @@
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="80" t="s">
-        <v>880</v>
+        <v>756</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="80"/>
@@ -41977,7 +42199,7 @@
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="80" t="s">
-        <v>1031</v>
+        <v>877</v>
       </c>
       <c r="H16" s="80"/>
       <c r="I16" s="80"/>
@@ -42044,7 +42266,7 @@
       </c>
       <c r="F17" s="80"/>
       <c r="G17" s="80" t="s">
-        <v>881</v>
+        <v>757</v>
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
@@ -42111,7 +42333,7 @@
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="80" t="s">
-        <v>1032</v>
+        <v>878</v>
       </c>
       <c r="H18" s="80"/>
       <c r="I18" s="80"/>
@@ -42178,7 +42400,7 @@
       </c>
       <c r="F19" s="80"/>
       <c r="G19" s="80" t="s">
-        <v>882</v>
+        <v>758</v>
       </c>
       <c r="H19" s="80"/>
       <c r="I19" s="80"/>
@@ -42245,7 +42467,7 @@
       </c>
       <c r="F20" s="80"/>
       <c r="G20" s="80" t="s">
-        <v>883</v>
+        <v>759</v>
       </c>
       <c r="H20" s="80"/>
       <c r="I20" s="80"/>
@@ -42312,7 +42534,7 @@
       </c>
       <c r="F21" s="80"/>
       <c r="G21" s="80" t="s">
-        <v>884</v>
+        <v>760</v>
       </c>
       <c r="H21" s="80"/>
       <c r="I21" s="80"/>
@@ -42379,7 +42601,7 @@
       </c>
       <c r="F22" s="80"/>
       <c r="G22" s="80" t="s">
-        <v>885</v>
+        <v>761</v>
       </c>
       <c r="H22" s="80"/>
       <c r="I22" s="80"/>
@@ -42446,7 +42668,7 @@
       </c>
       <c r="F23" s="80"/>
       <c r="G23" s="80" t="s">
-        <v>886</v>
+        <v>762</v>
       </c>
       <c r="H23" s="80"/>
       <c r="I23" s="80"/>
@@ -42513,7 +42735,7 @@
       </c>
       <c r="F24" s="80"/>
       <c r="G24" s="80" t="s">
-        <v>887</v>
+        <v>763</v>
       </c>
       <c r="H24" s="80"/>
       <c r="I24" s="80"/>
@@ -44286,10 +44508,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="77" t="s">
-        <v>832</v>
+        <v>708</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>888</v>
+        <v>764</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -44741,10 +44963,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44760,16 +44982,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -44802,16 +45024,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>764</v>
+        <v>662</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>412</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -44823,7 +45045,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>798</v>
+        <v>690</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
@@ -44833,7 +45055,7 @@
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="103" t="s">
         <v>607</v>
       </c>
       <c r="C5" s="35" t="s">
@@ -44843,7 +45065,7 @@
         <v>608</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>609</v>
+        <v>927</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -44855,7 +45077,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>610</v>
+        <v>928</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -44867,7 +45089,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35" t="s">
-        <v>611</v>
+        <v>929</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -44879,7 +45101,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35" t="s">
-        <v>612</v>
+        <v>930</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -44891,7 +45113,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35" t="s">
-        <v>613</v>
+        <v>931</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -44903,7 +45125,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>614</v>
+        <v>932</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
@@ -44915,7 +45137,7 @@
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35" t="s">
-        <v>615</v>
+        <v>933</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -44927,7 +45149,7 @@
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>616</v>
+        <v>934</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -44939,7 +45161,7 @@
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>617</v>
+        <v>935</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -44951,7 +45173,7 @@
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>618</v>
+        <v>936</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -44963,7 +45185,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
-        <v>619</v>
+        <v>937</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
@@ -44975,7 +45197,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>620</v>
+        <v>938</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
@@ -44987,7 +45209,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>621</v>
+        <v>939</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -44999,7 +45221,7 @@
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>622</v>
+        <v>940</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -45011,7 +45233,7 @@
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>623</v>
+        <v>941</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -45023,7 +45245,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>624</v>
+        <v>942</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -45035,7 +45257,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>625</v>
+        <v>943</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -45047,7 +45269,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>767</v>
+        <v>944</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -45059,7 +45281,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>768</v>
+        <v>945</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
@@ -45071,7 +45293,7 @@
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35" t="s">
-        <v>626</v>
+        <v>946</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -45083,7 +45305,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35" t="s">
-        <v>627</v>
+        <v>947</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -45095,7 +45317,7 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35" t="s">
-        <v>628</v>
+        <v>948</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
@@ -45107,7 +45329,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>799</v>
+        <v>949</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -45119,7 +45341,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>629</v>
+        <v>950</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -45131,19 +45353,19 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>800</v>
+        <v>951</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="35"/>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35" t="s">
-        <v>801</v>
+        <v>952</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -45155,7 +45377,7 @@
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35" t="s">
-        <v>630</v>
+        <v>953</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -45167,7 +45389,7 @@
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35" t="s">
-        <v>631</v>
+        <v>954</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -45179,7 +45401,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35" t="s">
-        <v>632</v>
+        <v>955</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -45191,7 +45413,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>769</v>
+        <v>956</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -45203,7 +45425,7 @@
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>802</v>
+        <v>957</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -45214,8 +45436,8 @@
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
-      <c r="E36" s="1" t="s">
-        <v>956</v>
+      <c r="E36" s="35" t="s">
+        <v>958</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -45226,8 +45448,8 @@
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
-      <c r="E37" s="1" t="s">
-        <v>957</v>
+      <c r="E37" s="35" t="s">
+        <v>959</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -45238,8 +45460,8 @@
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
-      <c r="E38" s="1" t="s">
-        <v>958</v>
+      <c r="E38" s="35" t="s">
+        <v>960</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -45250,7 +45472,7 @@
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="35" t="s">
         <v>961</v>
       </c>
       <c r="F39" s="35"/>
@@ -45262,8 +45484,8 @@
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
-      <c r="E40" s="1" t="s">
-        <v>959</v>
+      <c r="E40" s="35" t="s">
+        <v>962</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -45274,8 +45496,8 @@
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
-      <c r="E41" s="1" t="s">
-        <v>615</v>
+      <c r="E41" s="35" t="s">
+        <v>963</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -45286,20 +45508,20 @@
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
-      <c r="E42" s="1" t="s">
-        <v>616</v>
+      <c r="E42" s="35" t="s">
+        <v>964</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
     </row>
-    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
-      <c r="E43" s="1" t="s">
-        <v>960</v>
+      <c r="E43" s="35" t="s">
+        <v>691</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -45311,7 +45533,7 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -45323,39 +45545,39 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35" t="s">
-        <v>925</v>
+        <v>802</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
     </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="103" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>610</v>
+      </c>
       <c r="E46" s="35" t="s">
-        <v>926</v>
+        <v>611</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>633</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>634</v>
-      </c>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -45367,7 +45589,7 @@
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -45379,7 +45601,7 @@
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -45391,7 +45613,7 @@
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -45403,7 +45625,7 @@
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -45415,19 +45637,19 @@
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -45439,7 +45661,7 @@
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -45451,7 +45673,7 @@
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -45463,7 +45685,7 @@
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -45475,7 +45697,7 @@
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -45487,7 +45709,7 @@
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35" t="s">
-        <v>770</v>
+        <v>692</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -45499,7 +45721,7 @@
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35" t="s">
-        <v>804</v>
+        <v>693</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -45511,7 +45733,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -45523,7 +45745,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>927</v>
+        <v>804</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -45535,7 +45757,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>928</v>
+        <v>965</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -45546,16 +45768,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>806</v>
+        <v>694</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>412</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>807</v>
+        <v>695</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>808</v>
+        <v>696</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -45567,7 +45789,7 @@
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>809</v>
+        <v>697</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -45579,7 +45801,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>810</v>
+        <v>698</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -45591,7 +45813,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>811</v>
+        <v>699</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -45602,16 +45824,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>646</v>
+        <v>966</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>412</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>647</v>
+        <v>967</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>648</v>
+        <v>968</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -45623,7 +45845,7 @@
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>649</v>
+        <v>969</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -45635,19 +45857,27 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
+    <row r="70" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="103" t="s">
+        <v>622</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>970</v>
+      </c>
       <c r="E70" s="35" t="s">
-        <v>651</v>
+        <v>971</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -45659,19 +45889,19 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>652</v>
+        <v>972</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
     </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35" t="s">
-        <v>653</v>
+        <v>973</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -45683,103 +45913,103 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>654</v>
+        <v>974</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
     </row>
-    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>655</v>
+        <v>975</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
     </row>
-    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>656</v>
+        <v>976</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
       <c r="H75" s="35"/>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="35"/>
       <c r="B76" s="35"/>
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>657</v>
+        <v>977</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
       <c r="H76" s="35"/>
     </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="35"/>
       <c r="B77" s="35"/>
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>658</v>
+        <v>978</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="35"/>
       <c r="B78" s="35"/>
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>659</v>
+        <v>979</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>660</v>
+        <v>980</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
     </row>
-    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>661</v>
+        <v>981</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
     </row>
-    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="35"/>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35" t="s">
-        <v>662</v>
+        <v>982</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -45791,7 +46021,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>663</v>
+        <v>983</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -45803,7 +46033,7 @@
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35" t="s">
-        <v>664</v>
+        <v>984</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
@@ -45815,7 +46045,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -45827,7 +46057,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -45839,27 +46069,19 @@
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
     </row>
     <row r="87" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="104" t="s">
-        <v>665</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>666</v>
-      </c>
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
       <c r="E87" s="35" t="s">
-        <v>667</v>
+        <v>988</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
@@ -45871,7 +46093,7 @@
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35" t="s">
-        <v>668</v>
+        <v>989</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
@@ -45883,7 +46105,7 @@
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35" t="s">
-        <v>669</v>
+        <v>990</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -45895,7 +46117,7 @@
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35" t="s">
-        <v>670</v>
+        <v>991</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -45907,7 +46129,7 @@
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35" t="s">
-        <v>671</v>
+        <v>992</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -45919,7 +46141,7 @@
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35" t="s">
-        <v>771</v>
+        <v>993</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -45931,7 +46153,7 @@
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35" t="s">
-        <v>672</v>
+        <v>994</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -45943,7 +46165,7 @@
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35" t="s">
-        <v>673</v>
+        <v>995</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -45955,7 +46177,7 @@
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35" t="s">
-        <v>674</v>
+        <v>996</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -45967,7 +46189,7 @@
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35" t="s">
-        <v>675</v>
+        <v>997</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
@@ -45979,7 +46201,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35" t="s">
-        <v>676</v>
+        <v>998</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -45991,7 +46213,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35" t="s">
-        <v>677</v>
+        <v>999</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -46003,7 +46225,7 @@
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35" t="s">
-        <v>678</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -46015,7 +46237,7 @@
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35" t="s">
-        <v>679</v>
+        <v>1001</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -46027,79 +46249,87 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35" t="s">
-        <v>680</v>
+        <v>1002</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
     </row>
     <row r="102" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="35"/>
-      <c r="B102" s="35"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35" t="s">
-        <v>681</v>
+      <c r="A102" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="103" t="s">
+        <v>623</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="E102" s="103" t="s">
+        <v>700</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
       <c r="H102" s="35"/>
     </row>
-    <row r="103" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="35"/>
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
-      <c r="E103" s="35" t="s">
-        <v>772</v>
+      <c r="E103" s="103" t="s">
+        <v>625</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
     </row>
-    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="35"/>
       <c r="B104" s="35"/>
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35" t="s">
-        <v>812</v>
+        <v>1003</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
       <c r="H104" s="35"/>
     </row>
-    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="35"/>
       <c r="B105" s="35"/>
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
-      <c r="E105" s="1" t="s">
-        <v>976</v>
+      <c r="E105" s="35" t="s">
+        <v>1004</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
     </row>
-    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="35"/>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
-      <c r="E106" s="1" t="s">
-        <v>977</v>
+      <c r="E106" s="35" t="s">
+        <v>1005</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
       <c r="H106" s="35"/>
     </row>
-    <row r="107" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="35"/>
       <c r="B107" s="35"/>
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
-      <c r="E107" s="1" t="s">
-        <v>972</v>
+      <c r="E107" s="35" t="s">
+        <v>1006</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -46110,32 +46340,32 @@
       <c r="B108" s="35"/>
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
-      <c r="E108" s="1" t="s">
-        <v>970</v>
+      <c r="E108" s="35" t="s">
+        <v>1007</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
       <c r="H108" s="35"/>
     </row>
-    <row r="109" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="35"/>
       <c r="B109" s="35"/>
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
-      <c r="E109" s="1" t="s">
-        <v>973</v>
+      <c r="E109" s="35" t="s">
+        <v>1008</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
     </row>
-    <row r="110" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="35"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
-      <c r="E110" s="1" t="s">
-        <v>971</v>
+      <c r="E110" s="35" t="s">
+        <v>1009</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -46146,8 +46376,8 @@
       <c r="B111" s="35"/>
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
-      <c r="E111" s="1" t="s">
-        <v>974</v>
+      <c r="E111" s="35" t="s">
+        <v>1010</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -46158,20 +46388,20 @@
       <c r="B112" s="35"/>
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
-      <c r="E112" s="1" t="s">
-        <v>975</v>
+      <c r="E112" s="35" t="s">
+        <v>1011</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
       <c r="H112" s="35"/>
     </row>
-    <row r="113" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="35"/>
       <c r="B113" s="35"/>
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
-      <c r="E113" s="1" t="s">
-        <v>978</v>
+      <c r="E113" s="35" t="s">
+        <v>1012</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -46183,19 +46413,19 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35" t="s">
-        <v>813</v>
+        <v>1013</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
     </row>
-    <row r="115" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="35"/>
       <c r="B115" s="35"/>
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>929</v>
+        <v>1014</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -46207,27 +46437,19 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35" t="s">
-        <v>930</v>
+        <v>1015</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
       <c r="H116" s="35"/>
     </row>
     <row r="117" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="104" t="s">
-        <v>682</v>
-      </c>
-      <c r="C117" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D117" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="E117" s="104" t="s">
-        <v>814</v>
+      <c r="A117" s="35"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="D117" s="35"/>
+      <c r="E117" s="35" t="s">
+        <v>1016</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -46238,8 +46460,8 @@
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
-      <c r="E118" s="104" t="s">
-        <v>686</v>
+      <c r="E118" s="35" t="s">
+        <v>1017</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -46250,32 +46472,40 @@
       <c r="B119" s="35"/>
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
-      <c r="E119" s="104" t="s">
-        <v>689</v>
+      <c r="E119" s="35" t="s">
+        <v>1018</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="35"/>
       <c r="B120" s="35"/>
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
-      <c r="E120" s="104" t="s">
-        <v>690</v>
+      <c r="E120" s="35" t="s">
+        <v>1019</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
     </row>
     <row r="121" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="35"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="35"/>
-      <c r="E121" s="104" t="s">
-        <v>691</v>
+      <c r="A121" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D121" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="E121" s="35" t="s">
+        <v>1020</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
@@ -46286,8 +46516,8 @@
       <c r="B122" s="35"/>
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
-      <c r="E122" s="104" t="s">
-        <v>692</v>
+      <c r="E122" s="35" t="s">
+        <v>1021</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
@@ -46298,8 +46528,8 @@
       <c r="B123" s="35"/>
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
-      <c r="E123" s="104" t="s">
-        <v>693</v>
+      <c r="E123" s="35" t="s">
+        <v>1022</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
@@ -46310,8 +46540,8 @@
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
-      <c r="E124" s="104" t="s">
-        <v>815</v>
+      <c r="E124" s="35" t="s">
+        <v>1023</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
@@ -46322,8 +46552,8 @@
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
-      <c r="E125" s="104" t="s">
-        <v>684</v>
+      <c r="E125" s="35" t="s">
+        <v>1024</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -46334,8 +46564,8 @@
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
-      <c r="E126" s="104" t="s">
-        <v>816</v>
+      <c r="E126" s="35" t="s">
+        <v>1025</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
@@ -46346,8 +46576,8 @@
       <c r="B127" s="35"/>
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
-      <c r="E127" s="104" t="s">
-        <v>817</v>
+      <c r="E127" s="35" t="s">
+        <v>1026</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="35"/>
@@ -46358,20 +46588,20 @@
       <c r="B128" s="35"/>
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
-      <c r="E128" s="104" t="s">
-        <v>818</v>
+      <c r="E128" s="35" t="s">
+        <v>1027</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
     </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="35"/>
       <c r="B129" s="35"/>
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
-      <c r="E129" s="104" t="s">
-        <v>685</v>
+      <c r="E129" s="35" t="s">
+        <v>1028</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
@@ -46383,7 +46613,7 @@
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35" t="s">
-        <v>687</v>
+        <v>1029</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -46395,63 +46625,55 @@
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
       <c r="E131" s="35" t="s">
-        <v>688</v>
+        <v>1030</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
       <c r="H131" s="35"/>
     </row>
-    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="35"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35" t="s">
-        <v>819</v>
+        <v>1031</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="35"/>
       <c r="H132" s="35"/>
     </row>
-    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="35"/>
       <c r="B133" s="35"/>
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
       <c r="E133" s="35" t="s">
-        <v>820</v>
+        <v>1032</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
     </row>
-    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" s="35"/>
       <c r="B134" s="35"/>
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
       <c r="E134" s="35" t="s">
-        <v>821</v>
+        <v>1033</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
     </row>
     <row r="135" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="104" t="s">
-        <v>694</v>
-      </c>
-      <c r="C135" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>695</v>
-      </c>
+      <c r="A135" s="35"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="D135" s="35"/>
       <c r="E135" s="35" t="s">
-        <v>696</v>
+        <v>1034</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="35"/>
@@ -46463,7 +46685,7 @@
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35" t="s">
-        <v>697</v>
+        <v>1035</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
@@ -46475,7 +46697,7 @@
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35" t="s">
-        <v>698</v>
+        <v>1036</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
@@ -46487,7 +46709,7 @@
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35" t="s">
-        <v>699</v>
+        <v>1037</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="35"/>
@@ -46499,7 +46721,7 @@
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35" t="s">
-        <v>700</v>
+        <v>1024</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
@@ -46511,7 +46733,7 @@
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
       <c r="E140" s="35" t="s">
-        <v>701</v>
+        <v>1025</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
@@ -46523,7 +46745,7 @@
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
       <c r="E141" s="35" t="s">
-        <v>702</v>
+        <v>1038</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="35"/>
@@ -46535,7 +46757,7 @@
       <c r="C142" s="35"/>
       <c r="D142" s="35"/>
       <c r="E142" s="35" t="s">
-        <v>703</v>
+        <v>1039</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
@@ -46547,7 +46769,7 @@
       <c r="C143" s="35"/>
       <c r="D143" s="35"/>
       <c r="E143" s="35" t="s">
-        <v>704</v>
+        <v>1040</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="35"/>
@@ -46559,79 +46781,95 @@
       <c r="C144" s="35"/>
       <c r="D144" s="35"/>
       <c r="E144" s="35" t="s">
-        <v>773</v>
+        <v>1041</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="35"/>
       <c r="H144" s="35"/>
     </row>
-    <row r="145" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="35"/>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
       <c r="D145" s="35"/>
       <c r="E145" s="35" t="s">
-        <v>822</v>
+        <v>701</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
       <c r="H145" s="35"/>
     </row>
-    <row r="146" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="35"/>
       <c r="B146" s="35"/>
       <c r="C146" s="35"/>
       <c r="D146" s="35"/>
-      <c r="E146" s="1" t="s">
-        <v>980</v>
+      <c r="E146" s="35" t="s">
+        <v>805</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
       <c r="H146" s="35"/>
     </row>
-    <row r="147" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="35"/>
       <c r="B147" s="35"/>
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
-      <c r="E147" s="1" t="s">
-        <v>981</v>
+      <c r="E147" s="35" t="s">
+        <v>835</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
       <c r="H147" s="35"/>
     </row>
-    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A148" s="35"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="1" t="s">
-        <v>982</v>
+    <row r="148" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A148" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D148" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="E148" s="35" t="s">
+        <v>668</v>
       </c>
       <c r="F148" s="35"/>
       <c r="G148" s="35"/>
       <c r="H148" s="35"/>
     </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A149" s="35"/>
-      <c r="B149" s="35"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="1" t="s">
-        <v>984</v>
+    <row r="149" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A149" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>806</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>807</v>
+      </c>
+      <c r="E149" s="35" t="s">
+        <v>808</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
     </row>
-    <row r="150" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="35"/>
       <c r="B150" s="35"/>
       <c r="C150" s="35"/>
       <c r="D150" s="35"/>
-      <c r="E150" s="1" t="s">
-        <v>983</v>
+      <c r="E150" s="35" t="s">
+        <v>809</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -46642,20 +46880,28 @@
       <c r="B151" s="35"/>
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
-      <c r="E151" s="1" t="s">
-        <v>985</v>
+      <c r="E151" s="35" t="s">
+        <v>1042</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
       <c r="H151" s="35"/>
     </row>
-    <row r="152" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A152" s="35"/>
-      <c r="B152" s="35"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="1" t="s">
-        <v>986</v>
+    <row r="152" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A152" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="103" t="s">
+        <v>628</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="E152" s="35" t="s">
+        <v>1043</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -46667,103 +46913,79 @@
       <c r="C153" s="35"/>
       <c r="D153" s="35"/>
       <c r="E153" s="35" t="s">
-        <v>823</v>
+        <v>1044</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="35"/>
       <c r="H153" s="35"/>
     </row>
-    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="35"/>
       <c r="B154" s="35"/>
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
       <c r="E154" s="35" t="s">
-        <v>931</v>
+        <v>1045</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="35"/>
       <c r="H154" s="35"/>
     </row>
-    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="35"/>
       <c r="B155" s="35"/>
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="E155" s="35" t="s">
-        <v>979</v>
+        <v>1046</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
       <c r="H155" s="35"/>
     </row>
-    <row r="156" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A156" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="35" t="s">
-        <v>774</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>775</v>
-      </c>
+    <row r="156" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="D156" s="35"/>
       <c r="E156" s="35" t="s">
-        <v>776</v>
+        <v>1047</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
       <c r="H156" s="35"/>
     </row>
-    <row r="157" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A157" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="96" t="s">
-        <v>932</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>933</v>
-      </c>
+    <row r="157" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="D157" s="35"/>
       <c r="E157" s="35" t="s">
-        <v>934</v>
+        <v>1048</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
     </row>
-    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="35"/>
       <c r="B158" s="35"/>
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
       <c r="E158" s="35" t="s">
-        <v>935</v>
+        <v>1049</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
       <c r="H158" s="35"/>
     </row>
     <row r="159" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="104" t="s">
-        <v>705</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>706</v>
-      </c>
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="35" t="s">
-        <v>723</v>
+        <v>1050</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="35"/>
@@ -46775,19 +46997,19 @@
       <c r="C160" s="35"/>
       <c r="D160" s="35"/>
       <c r="E160" s="35" t="s">
-        <v>724</v>
+        <v>1051</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="35"/>
       <c r="H160" s="35"/>
     </row>
-    <row r="161" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A161" s="35"/>
       <c r="B161" s="35"/>
       <c r="C161" s="35"/>
       <c r="D161" s="35"/>
       <c r="E161" s="35" t="s">
-        <v>824</v>
+        <v>1052</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="35"/>
@@ -46799,7 +47021,7 @@
       <c r="C162" s="35"/>
       <c r="D162" s="35"/>
       <c r="E162" s="35" t="s">
-        <v>726</v>
+        <v>1053</v>
       </c>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
@@ -46811,7 +47033,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>729</v>
+        <v>1054</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -46823,7 +47045,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>730</v>
+        <v>1055</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -46835,7 +47057,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>731</v>
+        <v>1056</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -46847,7 +47069,7 @@
       <c r="C166" s="35"/>
       <c r="D166" s="35"/>
       <c r="E166" s="35" t="s">
-        <v>707</v>
+        <v>1057</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
@@ -46859,7 +47081,7 @@
       <c r="C167" s="35"/>
       <c r="D167" s="35"/>
       <c r="E167" s="35" t="s">
-        <v>708</v>
+        <v>1058</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="35"/>
@@ -46871,7 +47093,7 @@
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
       <c r="E168" s="35" t="s">
-        <v>709</v>
+        <v>1059</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="35"/>
@@ -46883,7 +47105,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>710</v>
+        <v>1060</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -46895,7 +47117,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>711</v>
+        <v>1061</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -46907,23 +47129,23 @@
       <c r="C171" s="35"/>
       <c r="D171" s="35"/>
       <c r="E171" s="35" t="s">
-        <v>712</v>
+        <v>1062</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
       <c r="H171" s="35"/>
     </row>
     <row r="172" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="35"/>
-      <c r="B172" s="35"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="35"/>
-      <c r="E172" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="F172" s="35"/>
-      <c r="G172" s="35"/>
-      <c r="H172" s="35"/>
+      <c r="A172" s="71"/>
+      <c r="B172" s="71"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="71"/>
+      <c r="E172" s="71" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F172" s="71"/>
+      <c r="G172" s="71"/>
+      <c r="H172" s="71"/>
     </row>
     <row r="173" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="35"/>
@@ -46931,7 +47153,7 @@
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
       <c r="E173" s="35" t="s">
-        <v>714</v>
+        <v>1064</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
@@ -46943,7 +47165,7 @@
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
-        <v>715</v>
+        <v>1065</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="35"/>
@@ -46955,7 +47177,7 @@
       <c r="C175" s="35"/>
       <c r="D175" s="35"/>
       <c r="E175" s="35" t="s">
-        <v>716</v>
+        <v>1066</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
@@ -46967,7 +47189,7 @@
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
-        <v>717</v>
+        <v>1067</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
@@ -46979,7 +47201,7 @@
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>718</v>
+        <v>1068</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -46991,7 +47213,7 @@
       <c r="C178" s="35"/>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>719</v>
+        <v>1069</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -47003,7 +47225,7 @@
       <c r="C179" s="35"/>
       <c r="D179" s="35"/>
       <c r="E179" s="35" t="s">
-        <v>720</v>
+        <v>1070</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -47015,7 +47237,7 @@
       <c r="C180" s="35"/>
       <c r="D180" s="35"/>
       <c r="E180" s="35" t="s">
-        <v>721</v>
+        <v>1071</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -47027,7 +47249,7 @@
       <c r="C181" s="35"/>
       <c r="D181" s="35"/>
       <c r="E181" s="35" t="s">
-        <v>722</v>
+        <v>1072</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -47039,7 +47261,7 @@
       <c r="C182" s="35"/>
       <c r="D182" s="35"/>
       <c r="E182" s="35" t="s">
-        <v>732</v>
+        <v>1073</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -47051,7 +47273,7 @@
       <c r="C183" s="35"/>
       <c r="D183" s="35"/>
       <c r="E183" s="35" t="s">
-        <v>733</v>
+        <v>1074</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -47063,7 +47285,7 @@
       <c r="C184" s="35"/>
       <c r="D184" s="35"/>
       <c r="E184" s="35" t="s">
-        <v>734</v>
+        <v>1075</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -47075,7 +47297,7 @@
       <c r="C185" s="35"/>
       <c r="D185" s="35"/>
       <c r="E185" s="35" t="s">
-        <v>825</v>
+        <v>1076</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -47087,7 +47309,7 @@
       <c r="C186" s="35"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35" t="s">
-        <v>962</v>
+        <v>1077</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -47099,7 +47321,7 @@
       <c r="C187" s="35"/>
       <c r="D187" s="35"/>
       <c r="E187" s="35" t="s">
-        <v>963</v>
+        <v>1078</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -47111,7 +47333,7 @@
       <c r="C188" s="35"/>
       <c r="D188" s="35"/>
       <c r="E188" s="35" t="s">
-        <v>964</v>
+        <v>830</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
@@ -47123,7 +47345,7 @@
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
       <c r="E189" s="35" t="s">
-        <v>965</v>
+        <v>831</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -47135,7 +47357,7 @@
       <c r="C190" s="35"/>
       <c r="D190" s="35"/>
       <c r="E190" s="35" t="s">
-        <v>966</v>
+        <v>832</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -47147,7 +47369,7 @@
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35" t="s">
-        <v>967</v>
+        <v>702</v>
       </c>
       <c r="F191" s="35"/>
       <c r="G191" s="35"/>
@@ -47159,91 +47381,518 @@
       <c r="C192" s="35"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35" t="s">
-        <v>826</v>
+        <v>630</v>
       </c>
       <c r="F192" s="35"/>
       <c r="G192" s="35"/>
       <c r="H192" s="35"/>
     </row>
-    <row r="193" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="35"/>
       <c r="B193" s="35"/>
       <c r="C193" s="35"/>
       <c r="D193" s="35"/>
       <c r="E193" s="35" t="s">
-        <v>725</v>
+        <v>631</v>
       </c>
       <c r="F193" s="35"/>
       <c r="G193" s="35"/>
       <c r="H193" s="35"/>
     </row>
-    <row r="194" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="35"/>
       <c r="B194" s="35"/>
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
       <c r="E194" s="35" t="s">
-        <v>727</v>
+        <v>632</v>
       </c>
       <c r="F194" s="35"/>
       <c r="G194" s="35"/>
       <c r="H194" s="35"/>
     </row>
-    <row r="195" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="35"/>
       <c r="B195" s="35"/>
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="35" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="35"/>
       <c r="H195" s="35"/>
     </row>
-    <row r="196" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="35"/>
       <c r="B196" s="35"/>
       <c r="C196" s="35"/>
       <c r="D196" s="35"/>
       <c r="E196" s="35" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F196" s="35"/>
       <c r="G196" s="35"/>
       <c r="H196" s="35"/>
     </row>
-    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" s="71"/>
-      <c r="B197" s="71"/>
-      <c r="C197" s="71"/>
-      <c r="D197" s="71"/>
-      <c r="E197" s="71" t="s">
-        <v>968</v>
-      </c>
-      <c r="F197" s="71"/>
-      <c r="G197" s="71"/>
-      <c r="H197" s="71"/>
-    </row>
-    <row r="198" spans="1:8" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="35"/>
+      <c r="B197" s="37"/>
+      <c r="C197" s="37"/>
+      <c r="D197" s="37"/>
+      <c r="E197" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="F197" s="35"/>
+      <c r="G197" s="35"/>
+      <c r="H197" s="35"/>
+    </row>
+    <row r="198" spans="1:9" s="37" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A198" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="103" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D198" s="35" t="s">
+        <v>1080</v>
+      </c>
       <c r="E198" s="35" t="s">
-        <v>969</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="I198" s="101"/>
+    </row>
+    <row r="199" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="37"/>
+      <c r="B199" s="37"/>
+      <c r="C199" s="37"/>
+      <c r="D199" s="37"/>
+      <c r="E199" s="35" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F199" s="37"/>
+      <c r="G199" s="37"/>
+      <c r="H199" s="37"/>
+    </row>
+    <row r="200" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A200" s="37"/>
+      <c r="B200" s="37"/>
+      <c r="C200" s="37"/>
+      <c r="D200" s="37"/>
+      <c r="E200" s="35" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F200" s="37"/>
+      <c r="G200" s="37"/>
+      <c r="H200" s="37"/>
+    </row>
+    <row r="201" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="37"/>
+      <c r="B201" s="37"/>
+      <c r="C201" s="37"/>
+      <c r="D201" s="37"/>
+      <c r="E201" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F201" s="37"/>
+      <c r="G201" s="37"/>
+      <c r="H201" s="37"/>
+    </row>
+    <row r="202" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A202" s="37"/>
+      <c r="B202" s="37"/>
+      <c r="C202" s="37"/>
+      <c r="D202" s="37"/>
+      <c r="E202" s="35" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F202" s="37"/>
+      <c r="G202" s="37"/>
+      <c r="H202" s="37"/>
+    </row>
+    <row r="203" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A203" s="37"/>
+      <c r="B203" s="37"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="35" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F203" s="37"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="37"/>
+    </row>
+    <row r="204" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A204" s="37"/>
+      <c r="B204" s="37"/>
+      <c r="C204" s="37"/>
+      <c r="D204" s="37"/>
+      <c r="E204" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F204" s="37"/>
+      <c r="G204" s="37"/>
+      <c r="H204" s="37"/>
+    </row>
+    <row r="205" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A205" s="37"/>
+      <c r="B205" s="37"/>
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="35" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F205" s="37"/>
+      <c r="G205" s="37"/>
+      <c r="H205" s="37"/>
+    </row>
+    <row r="206" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="37"/>
+      <c r="B206" s="37"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="37"/>
+      <c r="E206" s="35" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F206" s="37"/>
+      <c r="G206" s="37"/>
+      <c r="H206" s="37"/>
+    </row>
+    <row r="207" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A207" s="37"/>
+      <c r="B207" s="37"/>
+      <c r="C207" s="37"/>
+      <c r="D207" s="37"/>
+      <c r="E207" s="35" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F207" s="37"/>
+      <c r="G207" s="37"/>
+      <c r="H207" s="37"/>
+    </row>
+    <row r="208" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A208" s="37"/>
+      <c r="B208" s="37"/>
+      <c r="C208" s="37"/>
+      <c r="D208" s="37"/>
+      <c r="E208" s="35" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F208" s="37"/>
+      <c r="G208" s="37"/>
+      <c r="H208" s="37"/>
+    </row>
+    <row r="209" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A209" s="37"/>
+      <c r="B209" s="37"/>
+      <c r="C209" s="37"/>
+      <c r="D209" s="37"/>
+      <c r="E209" s="35" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F209" s="37"/>
+      <c r="G209" s="37"/>
+      <c r="H209" s="37"/>
+    </row>
+    <row r="210" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="37"/>
+      <c r="B210" s="37"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="37"/>
+      <c r="E210" s="35" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F210" s="37"/>
+      <c r="G210" s="37"/>
+      <c r="H210" s="37"/>
+    </row>
+    <row r="211" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A211" s="37"/>
+      <c r="B211" s="37"/>
+      <c r="C211" s="37"/>
+      <c r="D211" s="37"/>
+      <c r="E211" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F211" s="37"/>
+      <c r="G211" s="37"/>
+      <c r="H211" s="37"/>
+    </row>
+    <row r="212" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A212" s="37"/>
+      <c r="B212" s="37"/>
+      <c r="C212" s="37"/>
+      <c r="D212" s="37"/>
+      <c r="E212" s="35" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F212" s="37"/>
+      <c r="G212" s="37"/>
+      <c r="H212" s="37"/>
+    </row>
+    <row r="213" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="37"/>
+      <c r="B213" s="37"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="37"/>
+      <c r="E213" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F213" s="37"/>
+      <c r="G213" s="37"/>
+      <c r="H213" s="37"/>
+    </row>
+    <row r="214" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A214" s="37"/>
+      <c r="B214" s="37"/>
+      <c r="C214" s="37"/>
+      <c r="D214" s="37"/>
+      <c r="E214" s="35" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F214" s="37"/>
+      <c r="G214" s="37"/>
+      <c r="H214" s="37"/>
+    </row>
+    <row r="215" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="37"/>
+      <c r="B215" s="37"/>
+      <c r="C215" s="37"/>
+      <c r="D215" s="37"/>
+      <c r="E215" s="35" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F215" s="37"/>
+      <c r="G215" s="37"/>
+      <c r="H215" s="37"/>
+    </row>
+    <row r="216" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A216" s="37"/>
+      <c r="B216" s="37"/>
+      <c r="C216" s="37"/>
+      <c r="D216" s="37"/>
+      <c r="E216" s="35" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F216" s="37"/>
+      <c r="G216" s="37"/>
+      <c r="H216" s="37"/>
+    </row>
+    <row r="217" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A217" s="37"/>
+      <c r="B217" s="37"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="35" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F217" s="37"/>
+      <c r="G217" s="37"/>
+      <c r="H217" s="37"/>
+    </row>
+    <row r="218" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A218" s="37"/>
+      <c r="B218" s="37"/>
+      <c r="C218" s="37"/>
+      <c r="D218" s="37"/>
+      <c r="E218" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F218" s="37"/>
+      <c r="G218" s="37"/>
+      <c r="H218" s="37"/>
+    </row>
+    <row r="219" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A219" s="37"/>
+      <c r="B219" s="37"/>
+      <c r="C219" s="37"/>
+      <c r="D219" s="37"/>
+      <c r="E219" s="35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F219" s="37"/>
+      <c r="G219" s="37"/>
+      <c r="H219" s="37"/>
+    </row>
+    <row r="220" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="37"/>
+      <c r="B220" s="37"/>
+      <c r="C220" s="37"/>
+      <c r="D220" s="37"/>
+      <c r="E220" s="35" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F220" s="37"/>
+      <c r="G220" s="37"/>
+      <c r="H220" s="37"/>
+    </row>
+    <row r="221" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A221" s="37"/>
+      <c r="B221" s="37"/>
+      <c r="C221" s="37"/>
+      <c r="D221" s="37"/>
+      <c r="E221" s="35" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F221" s="37"/>
+      <c r="G221" s="37"/>
+      <c r="H221" s="37"/>
+    </row>
+    <row r="222" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A222" s="37"/>
+      <c r="B222" s="37"/>
+      <c r="C222" s="37"/>
+      <c r="D222" s="37"/>
+      <c r="E222" s="35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F222" s="37"/>
+      <c r="G222" s="37"/>
+      <c r="H222" s="37"/>
+    </row>
+    <row r="223" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A223" s="37"/>
+      <c r="B223" s="37"/>
+      <c r="C223" s="37"/>
+      <c r="D223" s="37"/>
+      <c r="E223" s="35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F223" s="37"/>
+      <c r="G223" s="37"/>
+      <c r="H223" s="37"/>
+    </row>
+    <row r="224" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A224" s="37"/>
+      <c r="B224" s="37"/>
+      <c r="C224" s="37"/>
+      <c r="D224" s="37"/>
+      <c r="E224" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F224" s="37"/>
+      <c r="G224" s="37"/>
+      <c r="H224" s="37"/>
+    </row>
+    <row r="225" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+      <c r="A225" s="37"/>
+      <c r="B225" s="37"/>
+      <c r="C225" s="37"/>
+      <c r="D225" s="37"/>
+      <c r="E225" s="35" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F225" s="37"/>
+      <c r="G225" s="37"/>
+      <c r="H225" s="37"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="37"/>
+      <c r="C226" s="37"/>
+      <c r="D226" s="37"/>
+      <c r="E226" s="37"/>
+      <c r="F226" s="37"/>
+      <c r="G226" s="37"/>
+      <c r="H226" s="37"/>
+    </row>
+    <row r="227" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A227" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="35" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D227" s="35" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E227" s="35" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F227" s="37"/>
+      <c r="G227" s="37"/>
+      <c r="H227" s="37"/>
+    </row>
+    <row r="228" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A228" s="37"/>
+      <c r="B228" s="35"/>
+      <c r="C228" s="35"/>
+      <c r="D228" s="35"/>
+      <c r="E228" s="35" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F228" s="37"/>
+      <c r="G228" s="37"/>
+      <c r="H228" s="37"/>
+    </row>
+    <row r="229" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A229" s="37"/>
+      <c r="B229" s="35"/>
+      <c r="C229" s="35"/>
+      <c r="D229" s="35"/>
+      <c r="E229" s="35" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F229" s="37"/>
+      <c r="G229" s="37"/>
+      <c r="H229" s="37"/>
+    </row>
+    <row r="230" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A230" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="35" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C230" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="D230" s="35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E230" s="35" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F230" s="37"/>
+      <c r="G230" s="37"/>
+      <c r="H230" s="37"/>
+    </row>
+    <row r="231" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A231" s="37"/>
+      <c r="B231" s="35"/>
+      <c r="C231" s="35"/>
+      <c r="D231" s="35"/>
+      <c r="E231" s="35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F231" s="37"/>
+      <c r="G231" s="37"/>
+      <c r="H231" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E192:E533 E153:E185 E114:E145 E44:E83 E87:E104" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B533" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E232:E533 E99:E103 E145:E151 E3:E4 E43:E66 E191:E197 E226" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B232:B533 B3:B66 B68:B226" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H533" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B67 B227:B231" xr:uid="{797C1F09-B377-1744-B15C-3B4ED566E103}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E104:E132 E5:E42 E67:E98 E227:E231" xr:uid="{545B5EFC-32D7-4F42-BFDD-1C427C84E37C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies." xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -47256,113 +47905,11 @@
           </x14:formula1>
           <xm:sqref>A84:A86</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84:C86</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000006000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C696,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C192:C533</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000007000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C189:C191</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C188</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000009000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C186</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000A000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000C000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C623,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C153:C185</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000D000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000012000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C113 C111 C152 C150</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C107 C41:C43 C146</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001B000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C532,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C38:C39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001C000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001D000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001E000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C573,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C87:C106</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001F000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C501,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name. Specify 'root' to create in root compartment." xr:uid="{00000000-0002-0000-0300-000020000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C500,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C232:C533</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -47392,19 +47939,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>889</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="A1" s="116" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119" t="s">
+        <v>911</v>
+      </c>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -47432,7 +47979,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>1066</v>
+        <v>912</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47472,7 +48019,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>1028</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -47589,7 +48136,7 @@
       </c>
       <c r="H9" s="69"/>
       <c r="I9" s="69" t="s">
-        <v>1029</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47665,23 +48212,23 @@
         <v>412</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>1030</v>
+        <v>876</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>777</v>
+        <v>669</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>778</v>
+        <v>670</v>
       </c>
       <c r="G13" s="69" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="69" t="s">
-        <v>1026</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47692,23 +48239,23 @@
         <v>412</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>1030</v>
+        <v>876</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>938</v>
+        <v>812</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>779</v>
+        <v>671</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>780</v>
+        <v>672</v>
       </c>
       <c r="G14" s="69" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="69" t="s">
-        <v>1027</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -47741,7 +48288,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B502,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B15:B498 I15:I498 I3:I12 B3:B12</xm:sqref>
+          <xm:sqref>B15:B498 B3:B12 I3:I12 I15:I498</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -47773,22 +48320,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="36" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="117" t="s">
+      <c r="A1" s="116" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="116" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -47801,7 +48348,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1007</v>
+        <v>853</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -47836,13 +48383,13 @@
         <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>987</v>
+        <v>836</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>988</v>
+        <v>837</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>21</v>
@@ -47857,7 +48404,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>989</v>
+        <v>838</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="31"/>
@@ -47892,7 +48439,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>990</v>
+        <v>839</v>
       </c>
       <c r="F5" s="69" t="s">
         <v>23</v>
@@ -47904,13 +48451,13 @@
         <v>21</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>991</v>
+        <v>840</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>992</v>
+        <v>841</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>993</v>
+        <v>842</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>456</v>
@@ -47942,10 +48489,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>994</v>
+        <v>843</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>995</v>
+        <v>844</v>
       </c>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
@@ -47976,10 +48523,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>996</v>
+        <v>845</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>995</v>
+        <v>844</v>
       </c>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
@@ -48072,18 +48619,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>794</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="122" t="s">
-        <v>795</v>
-      </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="A1" s="116" t="s">
+        <v>686</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="121" t="s">
+        <v>687</v>
+      </c>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
@@ -48093,21 +48640,21 @@
         <v>6</v>
       </c>
       <c r="C2" s="73" t="s">
-        <v>786</v>
+        <v>678</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>787</v>
+        <v>679</v>
       </c>
       <c r="E2" s="73" t="s">
-        <v>788</v>
+        <v>680</v>
       </c>
       <c r="F2" s="74" t="s">
-        <v>789</v>
+        <v>681</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>790</v>
-      </c>
-      <c r="H2" s="109" t="s">
+        <v>682</v>
+      </c>
+      <c r="H2" s="108" t="s">
         <v>438</v>
       </c>
     </row>
@@ -48119,19 +48666,19 @@
         <v>361</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>988</v>
+        <v>837</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>997</v>
+        <v>846</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>998</v>
+        <v>847</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>999</v>
+        <v>848</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>828</v>
+        <v>704</v>
       </c>
       <c r="H3" s="37"/>
     </row>
@@ -48478,10 +49025,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B1" s="124"/>
+      <c r="A1" s="115" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1" s="123"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -48546,16 +49093,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="115" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -48591,7 +49138,7 @@
         <v>361</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>987</v>
+        <v>836</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>35</v>
@@ -48600,7 +49147,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1000</v>
+        <v>849</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-SingleVCN-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B3A5F-18F6-C848-B56C-07F5F0B35645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D30D96-6CAF-994E-81D2-4471F4B1CDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1120">
   <si>
     <t>Region</t>
   </si>
@@ -1170,9 +1170,6 @@
   </si>
   <si>
     <t>Admin Password</t>
-  </si>
-  <si>
-    <t>CPU Count</t>
   </si>
   <si>
     <t>ADW or ATP</t>
@@ -8683,6 +8680,9 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8745,9 +8745,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13770,7 +13767,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -13810,28 +13807,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="124" t="s">
-        <v>446</v>
-      </c>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="A1" s="118" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="125" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
     </row>
     <row r="2" spans="1:18" s="44" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -13886,21 +13883,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>50</v>
@@ -13909,7 +13906,7 @@
         <v>51</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>35</v>
@@ -13939,19 +13936,19 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>51</v>
@@ -13987,19 +13984,19 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>51</v>
@@ -14016,7 +14013,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M5" s="93" t="s">
         <v>21</v>
@@ -14059,13 +14056,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>50</v>
@@ -14087,7 +14084,7 @@
         <v>21</v>
       </c>
       <c r="L7" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M7" s="67" t="s">
         <v>21</v>
@@ -14103,7 +14100,7 @@
       </c>
       <c r="Q7" s="67"/>
       <c r="R7" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -14111,16 +14108,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>381</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>382</v>
       </c>
       <c r="F8" s="64" t="s">
         <v>51</v>
@@ -14159,13 +14156,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="64" t="s">
         <v>55</v>
@@ -14207,16 +14204,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D10" s="64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>51</v>
@@ -14225,7 +14222,7 @@
         <v>57</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I10" s="64"/>
       <c r="J10" s="64" t="s">
@@ -14257,16 +14254,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>51</v>
@@ -14275,11 +14272,11 @@
         <v>57</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K11" s="64" t="s">
         <v>23</v>
@@ -14307,16 +14304,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D12" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="64" t="s">
         <v>387</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>388</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>51</v>
@@ -14325,17 +14322,17 @@
         <v>57</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K12" s="64" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M12" s="67" t="s">
         <v>23</v>
@@ -14387,18 +14384,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -14408,28 +14405,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>672</v>
+      </c>
+      <c r="E2" s="30" t="s">
         <v>673</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>674</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K2" s="58"/>
     </row>
@@ -14487,17 +14484,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -14525,7 +14522,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -14588,25 +14585,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -14658,7 +14655,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -14740,28 +14737,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="139" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>455</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
@@ -14819,30 +14816,30 @@
         <v>61</v>
       </c>
       <c r="S2" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="T2" s="57" t="s">
         <v>431</v>
-      </c>
-      <c r="T2" s="57" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>630</v>
-      </c>
       <c r="F3" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G3" s="35" t="s">
         <v>79</v>
@@ -14850,10 +14847,10 @@
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K3" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L3" s="35"/>
       <c r="M3" s="35"/>
@@ -14866,35 +14863,35 @@
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G4" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>29</v>
@@ -14912,38 +14909,38 @@
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
     </row>
     <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G5" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
@@ -14958,29 +14955,29 @@
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
       <c r="R5" s="35" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
     </row>
     <row r="6" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G6" s="35" t="s">
         <v>79</v>
@@ -14988,10 +14985,10 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L6" s="35"/>
       <c r="M6" s="35"/>
@@ -15004,38 +15001,38 @@
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
       <c r="R6" s="35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
     </row>
     <row r="7" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I7" s="35" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -15050,38 +15047,38 @@
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
       <c r="R7" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
     </row>
     <row r="8" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I8" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
@@ -15096,29 +15093,29 @@
       <c r="P8" s="35"/>
       <c r="Q8" s="35"/>
       <c r="R8" s="35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="35" t="s">
         <v>79</v>
@@ -15126,10 +15123,10 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
       <c r="J9" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35"/>
@@ -15142,29 +15139,29 @@
       <c r="P9" s="35"/>
       <c r="Q9" s="35"/>
       <c r="R9" s="35" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
     </row>
     <row r="10" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" s="35" t="s">
         <v>79</v>
@@ -15172,10 +15169,10 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="K10" s="35" t="s">
         <v>645</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>646</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
@@ -15188,38 +15185,38 @@
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
       <c r="R10" s="35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
     </row>
     <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
@@ -15234,38 +15231,38 @@
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
     </row>
     <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
@@ -15280,29 +15277,29 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
       <c r="R12" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
     </row>
     <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>79</v>
@@ -15310,10 +15307,10 @@
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="35"/>
@@ -15326,29 +15323,29 @@
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
     </row>
     <row r="14" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" s="35" t="s">
         <v>79</v>
@@ -15356,10 +15353,10 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
       <c r="J14" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="K14" s="35" t="s">
         <v>645</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>646</v>
       </c>
       <c r="L14" s="35"/>
       <c r="M14" s="35"/>
@@ -15372,38 +15369,38 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
     </row>
     <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -15418,38 +15415,38 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
     </row>
     <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I16" s="35" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
@@ -15464,7 +15461,7 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
@@ -15498,13 +15495,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18" s="64" t="s">
         <v>77</v>
@@ -15538,28 +15535,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" s="64" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G19" s="64" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J19" s="64"/>
       <c r="K19" s="64"/>
@@ -15582,13 +15579,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D20" s="64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>77</v>
@@ -15622,13 +15619,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="64" t="s">
         <v>82</v>
@@ -15643,7 +15640,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J21" s="64"/>
       <c r="K21" s="64"/>
@@ -15719,15 +15716,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:7" s="44" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -15749,7 +15746,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
@@ -15757,7 +15754,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>87</v>
@@ -15772,7 +15769,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15780,7 +15777,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="37" t="s">
         <v>89</v>
@@ -15801,7 +15798,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>91</v>
@@ -15813,7 +15810,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G5" s="37"/>
     </row>
@@ -15905,30 +15902,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="117" t="s">
-        <v>851</v>
-      </c>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
+      <c r="A1" s="126" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="118" t="s">
+        <v>850</v>
+      </c>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="120"/>
     </row>
     <row r="2" spans="1:20" s="44" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -15956,22 +15953,22 @@
         <v>93</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="29" t="s">
+        <v>846</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="L2" s="29" t="s">
-        <v>848</v>
-      </c>
       <c r="M2" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>852</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>853</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>95</v>
@@ -15980,7 +15977,7 @@
         <v>96</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>97</v>
@@ -15989,7 +15986,7 @@
         <v>98</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -15997,28 +15994,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>867</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>868</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>869</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J3" s="98" t="s">
         <v>105</v>
@@ -16035,17 +16032,17 @@
         <v>103</v>
       </c>
       <c r="P3" s="46" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q3" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R3" s="37"/>
       <c r="S3" s="37" t="s">
         <v>91</v>
       </c>
       <c r="T3" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16077,29 +16074,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="64"/>
       <c r="I5" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
@@ -16111,7 +16108,7 @@
         <v>103</v>
       </c>
       <c r="P5" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="64"/>
@@ -16125,26 +16122,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G6" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="64"/>
       <c r="I6" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J6" s="102" t="s">
         <v>105</v>
@@ -16157,11 +16154,11 @@
         <v>103</v>
       </c>
       <c r="P6" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="64"/>
       <c r="R6" s="64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S6" s="64"/>
       <c r="T6" s="64"/>
@@ -16171,26 +16168,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G7" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J7" s="102" t="s">
         <v>105</v>
@@ -16203,11 +16200,11 @@
         <v>103</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="64"/>
       <c r="R7" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
@@ -16304,20 +16301,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="A1" s="118" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16342,19 +16339,19 @@
         <v>109</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16378,10 +16375,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="64">
         <v>150</v>
@@ -16390,23 +16387,23 @@
         <v>56</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G4" s="64" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I4" s="103" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="103"/>
       <c r="K4" s="64" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L4" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16414,10 +16411,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D5" s="64">
         <v>150</v>
@@ -16426,7 +16423,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G5" s="104" t="s">
         <v>110</v>
@@ -16625,27 +16622,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="128" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="131" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
+      <c r="A1" s="129" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -16697,7 +16694,7 @@
         <v>97</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
@@ -16708,7 +16705,7 @@
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="35" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -16728,7 +16725,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>90</v>
@@ -16737,7 +16734,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="64"/>
       <c r="G4" s="64" t="s">
@@ -16747,7 +16744,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J4" s="64"/>
       <c r="K4" s="64"/>
@@ -16756,10 +16753,10 @@
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
       <c r="P4" s="65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
@@ -16772,7 +16769,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
       <c r="I5" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>126</v>
@@ -16797,7 +16794,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
       <c r="I6" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>128</v>
@@ -16817,7 +16814,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>90</v>
@@ -16826,7 +16823,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64"/>
@@ -16834,7 +16831,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
@@ -16850,7 +16847,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="64" t="s">
         <v>99</v>
@@ -16859,7 +16856,7 @@
         <v>131</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64"/>
@@ -16867,7 +16864,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J8" s="64" t="s">
         <v>133</v>
@@ -16880,7 +16877,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
       <c r="P8" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="64"/>
     </row>
@@ -16889,7 +16886,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>99</v>
@@ -16898,7 +16895,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="64"/>
@@ -16906,7 +16903,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J9" s="64" t="s">
         <v>135</v>
@@ -16926,7 +16923,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>90</v>
@@ -16935,7 +16932,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
@@ -16943,7 +16940,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J10" s="64"/>
       <c r="K10" s="64"/>
@@ -17024,27 +17021,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -17057,13 +17054,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>695</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>696</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>139</v>
@@ -17075,7 +17072,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>141</v>
@@ -17096,13 +17093,13 @@
         <v>146</v>
       </c>
       <c r="Q2" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="R2" s="18" t="s">
-        <v>412</v>
-      </c>
       <c r="S2" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17133,10 +17130,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>147</v>
@@ -17144,7 +17141,7 @@
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
       <c r="G4" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H4" s="64" t="b">
         <v>1</v>
@@ -17166,13 +17163,13 @@
         <v>151</v>
       </c>
       <c r="Q4" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R4" s="106" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S4" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17207,10 +17204,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>153</v>
@@ -17218,13 +17215,13 @@
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
       <c r="G6" s="65" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H6" s="64" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J6" s="64"/>
       <c r="K6" s="65" t="s">
@@ -17306,13 +17303,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -17328,7 +17325,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17336,13 +17333,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>582</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="37"/>
     </row>
@@ -17351,13 +17348,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>584</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E4" s="37"/>
     </row>
@@ -17366,13 +17363,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E5" s="37"/>
     </row>
@@ -17381,13 +17378,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>587</v>
-      </c>
       <c r="D6" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="37"/>
     </row>
@@ -17405,10 +17402,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>357</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>358</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
@@ -17418,13 +17415,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>360</v>
-      </c>
       <c r="D9" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="64"/>
     </row>
@@ -17433,13 +17430,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>362</v>
-      </c>
       <c r="D10" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" s="64"/>
     </row>
@@ -17448,10 +17445,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>363</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>364</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -17461,13 +17458,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E12" s="64"/>
     </row>
@@ -17476,13 +17473,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="64" t="s">
         <v>366</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>367</v>
       </c>
       <c r="E13" s="64"/>
     </row>
@@ -17491,13 +17488,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E14" s="64"/>
     </row>
@@ -17506,16 +17503,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="D15" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>371</v>
-      </c>
       <c r="E15" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -17572,30 +17569,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>859</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="119"/>
+      <c r="A1" s="118" t="s">
+        <v>858</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="120"/>
     </row>
     <row r="2" spans="1:22" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -17608,16 +17605,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F2" s="38" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H2" s="38" t="s">
         <v>158</v>
@@ -17632,7 +17629,7 @@
         <v>161</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M2" s="38" t="s">
         <v>162</v>
@@ -17653,16 +17650,16 @@
         <v>167</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U2" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="V2" s="30" t="s">
         <v>465</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -17696,10 +17693,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
@@ -17707,7 +17704,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H4" s="64" t="s">
         <v>169</v>
@@ -17743,10 +17740,10 @@
         <v>100</v>
       </c>
       <c r="S4" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="T4" s="107" t="s">
         <v>426</v>
-      </c>
-      <c r="T4" s="107" t="s">
-        <v>427</v>
       </c>
       <c r="U4" s="64">
         <v>2</v>
@@ -17767,7 +17764,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>169</v>
@@ -17804,10 +17801,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
@@ -17815,7 +17812,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H6" s="64" t="s">
         <v>169</v>
@@ -17920,25 +17917,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>858</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
     </row>
     <row r="2" spans="1:17" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -17963,16 +17960,16 @@
         <v>244</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>246</v>
@@ -17981,16 +17978,16 @@
         <v>247</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P2" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>465</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -18019,7 +18016,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>168</v>
@@ -18039,16 +18036,16 @@
       <c r="H4" s="64"/>
       <c r="I4" s="64"/>
       <c r="J4" s="64" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K4" s="64"/>
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
       <c r="N4" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="107" t="s">
         <v>426</v>
-      </c>
-      <c r="O4" s="107" t="s">
-        <v>427</v>
       </c>
       <c r="P4" s="64">
         <v>2</v>
@@ -18076,7 +18073,7 @@
       <c r="H5" s="64"/>
       <c r="I5" s="64"/>
       <c r="J5" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
@@ -18091,7 +18088,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>177</v>
@@ -18176,29 +18173,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="120" t="s">
-        <v>464</v>
-      </c>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="133"/>
+      <c r="A1" s="118" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
@@ -18244,7 +18241,7 @@
         <v>189</v>
       </c>
       <c r="O2" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>190</v>
@@ -18287,7 +18284,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>193</v>
@@ -18296,7 +18293,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
@@ -18767,7 +18764,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C22" s="64" t="s">
         <v>230</v>
@@ -18875,14 +18872,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="44" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="136"/>
+      <c r="A1" s="135" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -18919,7 +18916,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>233</v>
@@ -18969,7 +18966,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>239</v>
@@ -19034,20 +19031,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>888</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="A1" s="118" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19057,19 +19054,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>245</v>
@@ -19078,13 +19075,13 @@
         <v>157</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K2" s="30" t="s">
         <v>246</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -19105,16 +19102,16 @@
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E4" s="65" t="b">
         <v>0</v>
@@ -19122,13 +19119,13 @@
       <c r="F4" s="65"/>
       <c r="G4" s="65"/>
       <c r="H4" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K4" s="65">
         <v>7003</v>
@@ -19137,34 +19134,34 @@
     </row>
     <row r="5" spans="1:12" s="100" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E5" s="65" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J5" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K5" s="65">
         <v>53</v>
@@ -19180,13 +19177,13 @@
       <c r="F6" s="65"/>
       <c r="G6" s="65"/>
       <c r="H6" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J6" s="65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K6" s="65">
         <v>22</v>
@@ -19505,19 +19502,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>888</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="A1" s="118" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
@@ -19527,19 +19524,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D2" s="30" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="30" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>889</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="30" t="s">
         <v>890</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>891</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>160</v>
@@ -19548,10 +19545,10 @@
         <v>161</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -19571,19 +19568,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F4" s="65" t="b">
         <v>0</v>
@@ -19595,36 +19592,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J4" s="65">
         <v>10000</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F5" s="65" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H5" s="65">
         <v>53</v>
@@ -19634,7 +19631,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="65" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19642,16 +19639,16 @@
       <c r="B6" s="65"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F6" s="65" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H6" s="65">
         <v>22</v>
@@ -19661,7 +19658,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="65" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
@@ -19699,24 +19696,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="A1" s="118" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
@@ -19726,46 +19723,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>315</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2" s="115" t="s">
         <v>316</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>317</v>
+        <v>762</v>
       </c>
       <c r="J2" s="18" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>1117</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>1118</v>
-      </c>
       <c r="L2" s="61" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M2" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="60" t="s">
         <v>322</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>323</v>
       </c>
       <c r="O2" s="60" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -19790,38 +19787,38 @@
     </row>
     <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="G4" s="64"/>
       <c r="H4" s="109" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I4" s="64"/>
       <c r="J4" s="64"/>
       <c r="K4" s="64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M4" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="64" t="s">
         <v>335</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>336</v>
       </c>
       <c r="O4" s="64"/>
       <c r="P4" s="64"/>
@@ -19885,35 +19882,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="49" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>579</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
+      <c r="A1" s="118" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="120"/>
     </row>
     <row r="2" spans="1:27" s="58" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
@@ -19929,73 +19926,73 @@
         <v>39</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F2" s="60" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="60" t="s">
+        <v>761</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>762</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="I2" s="60" t="s">
         <v>763</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="J2" s="60" t="s">
         <v>764</v>
       </c>
-      <c r="J2" s="60" t="s">
+      <c r="K2" s="80" t="s">
         <v>765</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="L2" s="60" t="s">
         <v>766</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="M2" s="61" t="s">
         <v>767</v>
       </c>
-      <c r="M2" s="61" t="s">
-        <v>768</v>
-      </c>
       <c r="N2" s="60" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O2" s="60" t="s">
         <v>315</v>
       </c>
       <c r="P2" s="60" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q2" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="Q2" s="60" t="s">
+      <c r="R2" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="R2" s="60" t="s">
-        <v>416</v>
-      </c>
       <c r="S2" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="T2" s="60" t="s">
         <v>769</v>
-      </c>
-      <c r="T2" s="60" t="s">
-        <v>770</v>
       </c>
       <c r="U2" s="60" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="W2" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="W2" s="60" t="s">
-        <v>323</v>
-      </c>
       <c r="X2" s="60" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Y2" s="60" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z2" s="60" t="s">
         <v>97</v>
       </c>
       <c r="AA2" s="60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -20031,57 +20028,57 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="65" t="s">
+        <v>801</v>
+      </c>
+      <c r="E4" s="108" t="s">
         <v>802</v>
       </c>
-      <c r="E4" s="108" t="s">
-        <v>803</v>
-      </c>
       <c r="F4" s="109" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G4" s="109">
         <v>1</v>
       </c>
       <c r="H4" s="109"/>
       <c r="I4" s="109" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J4" s="109">
         <v>256</v>
       </c>
       <c r="K4" s="109"/>
       <c r="L4" s="109" t="s">
+        <v>327</v>
+      </c>
+      <c r="M4" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="M4" s="109" t="s">
+      <c r="N4" s="109" t="s">
+        <v>803</v>
+      </c>
+      <c r="O4" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="N4" s="109" t="s">
-        <v>804</v>
-      </c>
-      <c r="O4" s="109" t="s">
-        <v>330</v>
-      </c>
       <c r="P4" s="110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q4" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="R4" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="R4" s="109" t="s">
+      <c r="S4" s="109" t="s">
         <v>333</v>
-      </c>
-      <c r="S4" s="109" t="s">
-        <v>334</v>
       </c>
       <c r="T4" s="109" t="b">
         <v>1</v>
@@ -20090,38 +20087,38 @@
         <v>103</v>
       </c>
       <c r="V4" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="W4" s="64" t="s">
         <v>335</v>
-      </c>
-      <c r="W4" s="64" t="s">
-        <v>336</v>
       </c>
       <c r="X4" s="64">
         <v>15</v>
       </c>
       <c r="Y4" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Z4" s="64"/>
       <c r="AA4" s="64"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" s="104" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="65" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E5" s="108" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G5" s="109">
         <v>2</v>
@@ -20130,35 +20127,35 @@
         <v>4</v>
       </c>
       <c r="I5" s="109" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J5" s="109">
         <v>256</v>
       </c>
       <c r="K5" s="109"/>
       <c r="L5" s="109" t="s">
+        <v>327</v>
+      </c>
+      <c r="M5" s="109" t="s">
         <v>328</v>
       </c>
-      <c r="M5" s="109" t="s">
-        <v>329</v>
-      </c>
       <c r="N5" s="109" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O5" s="109" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P5" s="110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Q5" s="109" t="s">
+        <v>331</v>
+      </c>
+      <c r="R5" s="109" t="s">
         <v>332</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="S5" s="109" t="s">
         <v>333</v>
-      </c>
-      <c r="S5" s="109" t="s">
-        <v>334</v>
       </c>
       <c r="T5" s="109" t="b">
         <v>1</v>
@@ -20167,16 +20164,16 @@
         <v>103</v>
       </c>
       <c r="V5" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="W5" s="64" t="s">
         <v>335</v>
-      </c>
-      <c r="W5" s="64" t="s">
-        <v>336</v>
       </c>
       <c r="X5" s="64">
         <v>15</v>
       </c>
       <c r="Y5" s="64" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Z5" s="64"/>
       <c r="AA5" s="64"/>
@@ -26234,16 +26231,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="A1" s="118" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="80" t="s">
@@ -26253,7 +26250,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>84</v>
@@ -26262,13 +26259,13 @@
         <v>85</v>
       </c>
       <c r="F2" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="G2" s="80" t="s">
         <v>782</v>
       </c>
-      <c r="G2" s="80" t="s">
-        <v>783</v>
-      </c>
       <c r="H2" s="83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -26285,19 +26282,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" s="64" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="109" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F4" s="65">
         <v>2</v>
@@ -32346,25 +32343,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="49" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="A1" s="126" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
       <c r="R1" s="86"/>
       <c r="S1" s="86"/>
       <c r="T1" s="86"/>
@@ -32381,49 +32378,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D2" s="61" t="s">
+        <v>784</v>
+      </c>
+      <c r="E2" s="80" t="s">
         <v>785</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="F2" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>762</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>767</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" s="80" t="s">
         <v>786</v>
       </c>
-      <c r="F2" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>763</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>768</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="J2" s="80" t="s">
+      <c r="K2" s="80" t="s">
         <v>787</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="L2" s="80" t="s">
         <v>788</v>
-      </c>
-      <c r="L2" s="80" t="s">
-        <v>789</v>
       </c>
       <c r="M2" s="80" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="80" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O2" s="94" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="94" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="Q2" s="87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R2" s="47"/>
       <c r="S2" s="47"/>
@@ -32455,34 +32452,34 @@
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="109" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G4" s="112">
         <v>4</v>
       </c>
       <c r="H4" s="113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I4" s="113" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J4" s="113" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K4" s="113" t="b">
         <v>1</v>
@@ -32494,12 +32491,12 @@
         <v>103</v>
       </c>
       <c r="N4" s="107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O4" s="101"/>
       <c r="P4" s="64"/>
       <c r="Q4" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -39329,13 +39326,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="44" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -39348,10 +39345,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -39359,10 +39356,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>588</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>589</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -39372,10 +39369,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>900</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>901</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>902</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -39385,10 +39382,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>590</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>591</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -39398,10 +39395,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>592</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>593</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
@@ -39411,10 +39408,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="35" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>594</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>595</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
@@ -39424,10 +39421,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="66" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>596</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>597</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="35"/>
@@ -39437,10 +39434,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="35" t="s">
         <v>598</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>599</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -39450,10 +39447,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>653</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>654</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -39463,10 +39460,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>678</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>679</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -39476,10 +39473,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>798</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>799</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>800</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -39496,13 +39493,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="35" t="s">
+        <v>902</v>
+      </c>
+      <c r="C14" s="35" t="s">
         <v>903</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="D14" s="35" t="s">
         <v>904</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>905</v>
       </c>
       <c r="E14" s="35"/>
     </row>
@@ -39511,13 +39508,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="35" t="s">
+        <v>905</v>
+      </c>
+      <c r="C15" s="35" t="s">
         <v>906</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="D15" s="35" t="s">
         <v>907</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>908</v>
       </c>
       <c r="E15" s="35"/>
     </row>
@@ -39526,13 +39523,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="35" t="s">
+        <v>908</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>909</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="D16" s="35" t="s">
         <v>910</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>911</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -39541,13 +39538,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="35" t="s">
+        <v>911</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>912</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="D17" s="35" t="s">
         <v>913</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>914</v>
       </c>
       <c r="E17" s="35"/>
     </row>
@@ -39608,40 +39605,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I1" s="82" t="s">
+        <v>765</v>
+      </c>
+      <c r="J1" s="82" t="s">
         <v>766</v>
       </c>
-      <c r="J1" s="82" t="s">
-        <v>767</v>
-      </c>
       <c r="K1" s="55" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -39649,738 +39646,738 @@
         <v>102</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>335</v>
       </c>
       <c r="I2" s="35">
         <v>80</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K2" s="37">
         <v>1</v>
       </c>
       <c r="L2" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I3" s="35">
         <v>40</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K3" s="37">
         <v>2</v>
       </c>
       <c r="L3" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F4" s="37"/>
       <c r="H4" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F5" s="37"/>
       <c r="H5" s="37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F6" s="37"/>
       <c r="H6" s="37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F7" s="37"/>
       <c r="H7" s="37" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F8" s="37"/>
       <c r="H8" s="37" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F9" s="37"/>
       <c r="H9" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F10" s="37"/>
       <c r="H10" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F11" s="37"/>
       <c r="H11" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F12" s="37"/>
       <c r="H12" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="81" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="H13" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="H14" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="37" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="37" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="37" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="37" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -40438,91 +40435,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="70" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="78" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>698</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="C1" s="78" t="s">
         <v>699</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="D1" s="78" t="s">
         <v>700</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="E1" s="78" t="s">
         <v>701</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="F1" s="78" t="s">
         <v>702</v>
-      </c>
-      <c r="F1" s="78" t="s">
-        <v>703</v>
       </c>
       <c r="G1" s="78" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="78" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1" s="78" t="s">
         <v>704</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="J1" s="78" t="s">
         <v>705</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="K1" s="78" t="s">
         <v>706</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="L1" s="78" t="s">
         <v>707</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
+        <v>755</v>
+      </c>
+      <c r="N1" s="78" t="s">
         <v>708</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="O1" s="78" t="s">
+        <v>709</v>
+      </c>
+      <c r="P1" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q1" s="78" t="s">
+        <v>711</v>
+      </c>
+      <c r="R1" s="78" t="s">
+        <v>712</v>
+      </c>
+      <c r="S1" s="78" t="s">
+        <v>713</v>
+      </c>
+      <c r="T1" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="U1" s="78" t="s">
+        <v>714</v>
+      </c>
+      <c r="V1" s="69" t="s">
+        <v>715</v>
+      </c>
+      <c r="W1" s="69" t="s">
+        <v>716</v>
+      </c>
+      <c r="X1" s="69" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y1" s="78" t="s">
         <v>756</v>
-      </c>
-      <c r="N1" s="78" t="s">
-        <v>709</v>
-      </c>
-      <c r="O1" s="78" t="s">
-        <v>710</v>
-      </c>
-      <c r="P1" s="78" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q1" s="78" t="s">
-        <v>712</v>
-      </c>
-      <c r="R1" s="78" t="s">
-        <v>713</v>
-      </c>
-      <c r="S1" s="78" t="s">
-        <v>714</v>
-      </c>
-      <c r="T1" s="78" t="s">
-        <v>758</v>
-      </c>
-      <c r="U1" s="78" t="s">
-        <v>715</v>
-      </c>
-      <c r="V1" s="69" t="s">
-        <v>716</v>
-      </c>
-      <c r="W1" s="69" t="s">
-        <v>717</v>
-      </c>
-      <c r="X1" s="69" t="s">
-        <v>718</v>
-      </c>
-      <c r="Y1" s="78" t="s">
-        <v>757</v>
       </c>
       <c r="Z1" s="69" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="69" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB1" s="69" t="s">
         <v>719</v>
       </c>
-      <c r="AB1" s="69" t="s">
+      <c r="AC1" s="69" t="s">
         <v>720</v>
-      </c>
-      <c r="AC1" s="69" t="s">
-        <v>721</v>
       </c>
       <c r="AD1" s="69" t="s">
         <v>252</v>
@@ -40543,10 +40540,10 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="69" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AK1" s="69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL1" s="69"/>
       <c r="AM1" s="69"/>
@@ -40575,7 +40572,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H2" s="72" t="s">
         <v>38</v>
@@ -40598,22 +40595,22 @@
         <v>ash-drg</v>
       </c>
       <c r="N2" s="72" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O2" s="72" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="73" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q2" s="72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R2" s="72" t="s">
         <v>56</v>
       </c>
       <c r="S2" s="72" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T2" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
@@ -40624,13 +40621,13 @@
         <v>Bastion</v>
       </c>
       <c r="V2" s="72" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="W2" s="72" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="72" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Y2" s="72" t="b">
         <v>1</v>
@@ -40639,7 +40636,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="72" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AB2" s="72" t="s">
         <v>170</v>
@@ -40669,7 +40666,7 @@
         <v>170</v>
       </c>
       <c r="AK2" s="71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -40696,7 +40693,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="72" t="s">
         <v>36</v>
@@ -40705,7 +40702,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="72" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K3" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -40719,10 +40716,10 @@
         <v/>
       </c>
       <c r="N3" s="72" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O3" s="72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P3" s="73" t="s">
         <v>79</v>
@@ -40734,7 +40731,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="72" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="T3" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -40751,7 +40748,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="72" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Y3" s="72" t="b">
         <v>0</v>
@@ -40763,7 +40760,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="72" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AC3" s="72" t="s">
         <v>172</v>
@@ -40787,10 +40784,10 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="72" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AK3" s="71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="71" customFormat="1" x14ac:dyDescent="0.2">
@@ -40815,7 +40812,7 @@
       </c>
       <c r="F4" s="72"/>
       <c r="G4" s="72" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H4" s="72"/>
       <c r="I4" s="72" t="s">
@@ -40827,7 +40824,7 @@
         <v/>
       </c>
       <c r="L4" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M4" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
@@ -40845,7 +40842,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="72" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="T4" s="72" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -40858,14 +40855,14 @@
       <c r="V4" s="72"/>
       <c r="W4" s="72"/>
       <c r="X4" s="72" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Y4" s="72"/>
       <c r="Z4" s="72" t="s">
+        <v>733</v>
+      </c>
+      <c r="AA4" s="72" t="s">
         <v>734</v>
-      </c>
-      <c r="AA4" s="72" t="s">
-        <v>735</v>
       </c>
       <c r="AB4" s="72"/>
       <c r="AC4" s="72" t="s">
@@ -40912,7 +40909,7 @@
       </c>
       <c r="F5" s="72"/>
       <c r="G5" s="72" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H5" s="72"/>
       <c r="I5" s="72" t="s">
@@ -40930,7 +40927,7 @@
       </c>
       <c r="N5" s="72"/>
       <c r="O5" s="72" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="P5" s="73"/>
       <c r="Q5" s="72"/>
@@ -40947,7 +40944,7 @@
       <c r="X5" s="72"/>
       <c r="Y5" s="72"/>
       <c r="Z5" s="72" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AA5" s="72"/>
       <c r="AB5" s="72"/>
@@ -40991,7 +40988,7 @@
       </c>
       <c r="F6" s="72"/>
       <c r="G6" s="72" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
@@ -41062,7 +41059,7 @@
       </c>
       <c r="F7" s="72"/>
       <c r="G7" s="72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
@@ -41131,7 +41128,7 @@
       </c>
       <c r="F8" s="72"/>
       <c r="G8" s="72" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H8" s="72"/>
       <c r="I8" s="72"/>
@@ -41200,7 +41197,7 @@
       </c>
       <c r="F9" s="72"/>
       <c r="G9" s="72" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
@@ -41269,7 +41266,7 @@
       </c>
       <c r="F10" s="72"/>
       <c r="G10" s="72" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
@@ -41338,7 +41335,7 @@
       </c>
       <c r="F11" s="72"/>
       <c r="G11" s="72" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H11" s="72"/>
       <c r="I11" s="72"/>
@@ -41407,7 +41404,7 @@
       </c>
       <c r="F12" s="72"/>
       <c r="G12" s="72" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H12" s="72"/>
       <c r="I12" s="72"/>
@@ -41474,7 +41471,7 @@
       </c>
       <c r="F13" s="72"/>
       <c r="G13" s="72" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H13" s="72"/>
       <c r="I13" s="72"/>
@@ -41541,7 +41538,7 @@
       </c>
       <c r="F14" s="72"/>
       <c r="G14" s="72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
@@ -41675,7 +41672,7 @@
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="72" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H16" s="72"/>
       <c r="I16" s="72"/>
@@ -41742,7 +41739,7 @@
       </c>
       <c r="F17" s="72"/>
       <c r="G17" s="72" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H17" s="72"/>
       <c r="I17" s="72"/>
@@ -41809,7 +41806,7 @@
       </c>
       <c r="F18" s="72"/>
       <c r="G18" s="72" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
@@ -41876,7 +41873,7 @@
       </c>
       <c r="F19" s="72"/>
       <c r="G19" s="72" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H19" s="72"/>
       <c r="I19" s="72"/>
@@ -41943,7 +41940,7 @@
       </c>
       <c r="F20" s="72"/>
       <c r="G20" s="72" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H20" s="72"/>
       <c r="I20" s="72"/>
@@ -42010,7 +42007,7 @@
       </c>
       <c r="F21" s="72"/>
       <c r="G21" s="72" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H21" s="72"/>
       <c r="I21" s="72"/>
@@ -42077,7 +42074,7 @@
       </c>
       <c r="F22" s="72"/>
       <c r="G22" s="72" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H22" s="72"/>
       <c r="I22" s="72"/>
@@ -42144,7 +42141,7 @@
       </c>
       <c r="F23" s="72"/>
       <c r="G23" s="72" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H23" s="72"/>
       <c r="I23" s="72"/>
@@ -42211,7 +42208,7 @@
       </c>
       <c r="F24" s="72"/>
       <c r="G24" s="72" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H24" s="72"/>
       <c r="I24" s="72"/>
@@ -43984,16 +43981,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
       <c r="B2" s="71" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -44458,16 +44455,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="44" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -44492,7 +44489,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -44500,16 +44497,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>655</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="35" t="s">
         <v>656</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>657</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
@@ -44521,7 +44518,7 @@
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
@@ -44532,16 +44529,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="91" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>600</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>601</v>
-      </c>
       <c r="E5" s="35" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
@@ -44553,7 +44550,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -44565,7 +44562,7 @@
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
@@ -44577,7 +44574,7 @@
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -44589,7 +44586,7 @@
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
       <c r="E9" s="35" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
@@ -44601,7 +44598,7 @@
       <c r="C10" s="35"/>
       <c r="D10" s="35"/>
       <c r="E10" s="35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
@@ -44613,7 +44610,7 @@
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
@@ -44625,7 +44622,7 @@
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
       <c r="E12" s="35" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
@@ -44637,7 +44634,7 @@
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -44649,7 +44646,7 @@
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
       <c r="E14" s="35" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
@@ -44661,7 +44658,7 @@
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
       <c r="E15" s="35" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35"/>
@@ -44673,7 +44670,7 @@
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="35" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35"/>
@@ -44685,7 +44682,7 @@
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
@@ -44697,7 +44694,7 @@
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
@@ -44709,7 +44706,7 @@
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
@@ -44721,7 +44718,7 @@
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
@@ -44733,7 +44730,7 @@
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35"/>
@@ -44745,7 +44742,7 @@
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
       <c r="E22" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35"/>
@@ -44757,7 +44754,7 @@
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
@@ -44769,7 +44766,7 @@
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -44781,7 +44778,7 @@
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
@@ -44793,7 +44790,7 @@
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
@@ -44805,7 +44802,7 @@
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
@@ -44817,7 +44814,7 @@
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -44829,7 +44826,7 @@
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -44841,7 +44838,7 @@
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -44853,7 +44850,7 @@
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -44865,7 +44862,7 @@
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -44877,7 +44874,7 @@
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -44889,7 +44886,7 @@
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -44901,7 +44898,7 @@
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -44913,7 +44910,7 @@
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -44925,7 +44922,7 @@
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35"/>
@@ -44937,7 +44934,7 @@
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
@@ -44949,7 +44946,7 @@
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
@@ -44961,7 +44958,7 @@
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
@@ -44973,7 +44970,7 @@
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
@@ -44985,7 +44982,7 @@
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
@@ -44997,7 +44994,7 @@
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
@@ -45009,7 +45006,7 @@
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -45021,7 +45018,7 @@
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -45032,16 +45029,16 @@
         <v>5</v>
       </c>
       <c r="B46" s="91" t="s">
+        <v>601</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="C46" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D46" s="35" t="s">
+      <c r="E46" s="35" t="s">
         <v>603</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>604</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -45053,7 +45050,7 @@
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -45065,7 +45062,7 @@
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -45077,7 +45074,7 @@
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -45089,7 +45086,7 @@
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -45101,7 +45098,7 @@
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -45113,7 +45110,7 @@
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -45125,7 +45122,7 @@
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -45137,7 +45134,7 @@
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35"/>
@@ -45149,7 +45146,7 @@
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -45161,7 +45158,7 @@
       <c r="C56" s="35"/>
       <c r="D56" s="35"/>
       <c r="E56" s="35" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -45173,7 +45170,7 @@
       <c r="C57" s="35"/>
       <c r="D57" s="35"/>
       <c r="E57" s="35" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F57" s="35"/>
       <c r="G57" s="35"/>
@@ -45185,7 +45182,7 @@
       <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -45197,7 +45194,7 @@
       <c r="C59" s="35"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -45209,7 +45206,7 @@
       <c r="C60" s="35"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -45221,7 +45218,7 @@
       <c r="C61" s="35"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -45233,7 +45230,7 @@
       <c r="C62" s="35"/>
       <c r="D62" s="35"/>
       <c r="E62" s="35" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -45244,16 +45241,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D63" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="C63" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D63" s="35" t="s">
+      <c r="E63" s="35" t="s">
         <v>685</v>
-      </c>
-      <c r="E63" s="35" t="s">
-        <v>686</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -45265,7 +45262,7 @@
       <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -45277,7 +45274,7 @@
       <c r="C65" s="35"/>
       <c r="D65" s="35"/>
       <c r="E65" s="35" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -45289,7 +45286,7 @@
       <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -45300,16 +45297,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="35" t="s">
+        <v>953</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D67" s="35" t="s">
         <v>954</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D67" s="35" t="s">
+      <c r="E67" s="35" t="s">
         <v>955</v>
-      </c>
-      <c r="E67" s="35" t="s">
-        <v>956</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -45321,7 +45318,7 @@
       <c r="C68" s="35"/>
       <c r="D68" s="35"/>
       <c r="E68" s="35" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -45333,7 +45330,7 @@
       <c r="C69" s="35"/>
       <c r="D69" s="35"/>
       <c r="E69" s="35" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
@@ -45344,16 +45341,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D70" s="35" t="s">
+        <v>957</v>
+      </c>
+      <c r="E70" s="35" t="s">
         <v>958</v>
-      </c>
-      <c r="E70" s="35" t="s">
-        <v>959</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -45365,7 +45362,7 @@
       <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
@@ -45377,7 +45374,7 @@
       <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F72" s="35"/>
       <c r="G72" s="35"/>
@@ -45389,7 +45386,7 @@
       <c r="C73" s="35"/>
       <c r="D73" s="35"/>
       <c r="E73" s="35" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F73" s="35"/>
       <c r="G73" s="35"/>
@@ -45401,7 +45398,7 @@
       <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
@@ -45413,7 +45410,7 @@
       <c r="C75" s="35"/>
       <c r="D75" s="35"/>
       <c r="E75" s="35" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F75" s="35"/>
       <c r="G75" s="35"/>
@@ -45425,7 +45422,7 @@
       <c r="C76" s="35"/>
       <c r="D76" s="35"/>
       <c r="E76" s="35" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F76" s="35"/>
       <c r="G76" s="35"/>
@@ -45437,7 +45434,7 @@
       <c r="C77" s="35"/>
       <c r="D77" s="35"/>
       <c r="E77" s="35" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
@@ -45449,7 +45446,7 @@
       <c r="C78" s="35"/>
       <c r="D78" s="35"/>
       <c r="E78" s="35" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
@@ -45461,7 +45458,7 @@
       <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
@@ -45473,7 +45470,7 @@
       <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
@@ -45485,7 +45482,7 @@
       <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
@@ -45497,7 +45494,7 @@
       <c r="C82" s="35"/>
       <c r="D82" s="35"/>
       <c r="E82" s="35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
@@ -45509,7 +45506,7 @@
       <c r="C83" s="35"/>
       <c r="D83" s="35"/>
       <c r="E83" s="35" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
@@ -45521,7 +45518,7 @@
       <c r="C84" s="35"/>
       <c r="D84" s="35"/>
       <c r="E84" s="35" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -45533,7 +45530,7 @@
       <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -45545,7 +45542,7 @@
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
@@ -45557,7 +45554,7 @@
       <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
@@ -45569,7 +45566,7 @@
       <c r="C88" s="35"/>
       <c r="D88" s="35"/>
       <c r="E88" s="35" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
@@ -45581,7 +45578,7 @@
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
       <c r="E89" s="35" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -45593,7 +45590,7 @@
       <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -45605,7 +45602,7 @@
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -45617,7 +45614,7 @@
       <c r="C92" s="35"/>
       <c r="D92" s="35"/>
       <c r="E92" s="35" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -45629,7 +45626,7 @@
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -45641,7 +45638,7 @@
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
       <c r="E94" s="35" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -45653,7 +45650,7 @@
       <c r="C95" s="35"/>
       <c r="D95" s="35"/>
       <c r="E95" s="35" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -45665,7 +45662,7 @@
       <c r="C96" s="35"/>
       <c r="D96" s="35"/>
       <c r="E96" s="35" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
@@ -45677,7 +45674,7 @@
       <c r="C97" s="35"/>
       <c r="D97" s="35"/>
       <c r="E97" s="35" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -45689,7 +45686,7 @@
       <c r="C98" s="35"/>
       <c r="D98" s="35"/>
       <c r="E98" s="35" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -45701,7 +45698,7 @@
       <c r="C99" s="35"/>
       <c r="D99" s="35"/>
       <c r="E99" s="35" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F99" s="35"/>
       <c r="G99" s="35"/>
@@ -45713,7 +45710,7 @@
       <c r="C100" s="35"/>
       <c r="D100" s="35"/>
       <c r="E100" s="35" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -45725,7 +45722,7 @@
       <c r="C101" s="35"/>
       <c r="D101" s="35"/>
       <c r="E101" s="35" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -45736,16 +45733,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="91" t="s">
+        <v>615</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D102" s="35" t="s">
         <v>616</v>
       </c>
-      <c r="C102" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D102" s="35" t="s">
-        <v>617</v>
-      </c>
       <c r="E102" s="91" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F102" s="35"/>
       <c r="G102" s="35"/>
@@ -45757,7 +45754,7 @@
       <c r="C103" s="35"/>
       <c r="D103" s="35"/>
       <c r="E103" s="91" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F103" s="35"/>
       <c r="G103" s="35"/>
@@ -45769,7 +45766,7 @@
       <c r="C104" s="35"/>
       <c r="D104" s="35"/>
       <c r="E104" s="35" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F104" s="35"/>
       <c r="G104" s="35"/>
@@ -45781,7 +45778,7 @@
       <c r="C105" s="35"/>
       <c r="D105" s="35"/>
       <c r="E105" s="35" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F105" s="35"/>
       <c r="G105" s="35"/>
@@ -45793,7 +45790,7 @@
       <c r="C106" s="35"/>
       <c r="D106" s="35"/>
       <c r="E106" s="35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F106" s="35"/>
       <c r="G106" s="35"/>
@@ -45805,7 +45802,7 @@
       <c r="C107" s="35"/>
       <c r="D107" s="35"/>
       <c r="E107" s="35" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
@@ -45817,7 +45814,7 @@
       <c r="C108" s="35"/>
       <c r="D108" s="35"/>
       <c r="E108" s="35" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F108" s="35"/>
       <c r="G108" s="35"/>
@@ -45829,7 +45826,7 @@
       <c r="C109" s="35"/>
       <c r="D109" s="35"/>
       <c r="E109" s="35" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F109" s="35"/>
       <c r="G109" s="35"/>
@@ -45841,7 +45838,7 @@
       <c r="C110" s="35"/>
       <c r="D110" s="35"/>
       <c r="E110" s="35" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F110" s="35"/>
       <c r="G110" s="35"/>
@@ -45853,7 +45850,7 @@
       <c r="C111" s="35"/>
       <c r="D111" s="35"/>
       <c r="E111" s="35" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F111" s="35"/>
       <c r="G111" s="35"/>
@@ -45865,7 +45862,7 @@
       <c r="C112" s="35"/>
       <c r="D112" s="35"/>
       <c r="E112" s="35" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F112" s="35"/>
       <c r="G112" s="35"/>
@@ -45877,7 +45874,7 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="E113" s="35" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F113" s="35"/>
       <c r="G113" s="35"/>
@@ -45889,7 +45886,7 @@
       <c r="C114" s="35"/>
       <c r="D114" s="35"/>
       <c r="E114" s="35" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
@@ -45901,7 +45898,7 @@
       <c r="C115" s="35"/>
       <c r="D115" s="35"/>
       <c r="E115" s="35" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
@@ -45913,7 +45910,7 @@
       <c r="C116" s="35"/>
       <c r="D116" s="35"/>
       <c r="E116" s="35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F116" s="35"/>
       <c r="G116" s="35"/>
@@ -45925,7 +45922,7 @@
       <c r="C117" s="35"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
@@ -45937,7 +45934,7 @@
       <c r="C118" s="35"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
@@ -45949,7 +45946,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="35"/>
       <c r="E119" s="35" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
@@ -45961,7 +45958,7 @@
       <c r="C120" s="35"/>
       <c r="D120" s="35"/>
       <c r="E120" s="35" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
@@ -45972,16 +45969,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="91" t="s">
+        <v>618</v>
+      </c>
+      <c r="C121" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D121" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="C121" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D121" s="35" t="s">
-        <v>620</v>
-      </c>
       <c r="E121" s="35" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
@@ -45993,7 +45990,7 @@
       <c r="C122" s="35"/>
       <c r="D122" s="35"/>
       <c r="E122" s="35" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
@@ -46005,7 +46002,7 @@
       <c r="C123" s="35"/>
       <c r="D123" s="35"/>
       <c r="E123" s="35" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F123" s="35"/>
       <c r="G123" s="35"/>
@@ -46017,7 +46014,7 @@
       <c r="C124" s="35"/>
       <c r="D124" s="35"/>
       <c r="E124" s="35" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F124" s="35"/>
       <c r="G124" s="35"/>
@@ -46029,7 +46026,7 @@
       <c r="C125" s="35"/>
       <c r="D125" s="35"/>
       <c r="E125" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F125" s="35"/>
       <c r="G125" s="35"/>
@@ -46041,7 +46038,7 @@
       <c r="C126" s="35"/>
       <c r="D126" s="35"/>
       <c r="E126" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F126" s="35"/>
       <c r="G126" s="35"/>
@@ -46053,7 +46050,7 @@
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
       <c r="E127" s="35" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F127" s="35"/>
       <c r="G127" s="35"/>
@@ -46065,7 +46062,7 @@
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
       <c r="E128" s="35" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F128" s="35"/>
       <c r="G128" s="35"/>
@@ -46077,7 +46074,7 @@
       <c r="C129" s="35"/>
       <c r="D129" s="35"/>
       <c r="E129" s="35" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
@@ -46089,7 +46086,7 @@
       <c r="C130" s="35"/>
       <c r="D130" s="35"/>
       <c r="E130" s="35" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F130" s="35"/>
       <c r="G130" s="35"/>
@@ -46101,7 +46098,7 @@
       <c r="C131" s="35"/>
       <c r="D131" s="35"/>
       <c r="E131" s="35" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F131" s="35"/>
       <c r="G131" s="35"/>
@@ -46113,7 +46110,7 @@
       <c r="C132" s="35"/>
       <c r="D132" s="35"/>
       <c r="E132" s="35" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F132" s="35"/>
       <c r="G132" s="35"/>
@@ -46125,7 +46122,7 @@
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
       <c r="E133" s="35" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
@@ -46137,7 +46134,7 @@
       <c r="C134" s="35"/>
       <c r="D134" s="35"/>
       <c r="E134" s="35" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
@@ -46149,7 +46146,7 @@
       <c r="C135" s="35"/>
       <c r="D135" s="35"/>
       <c r="E135" s="35" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="35"/>
@@ -46161,7 +46158,7 @@
       <c r="C136" s="35"/>
       <c r="D136" s="35"/>
       <c r="E136" s="35" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F136" s="35"/>
       <c r="G136" s="35"/>
@@ -46173,7 +46170,7 @@
       <c r="C137" s="35"/>
       <c r="D137" s="35"/>
       <c r="E137" s="35" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F137" s="35"/>
       <c r="G137" s="35"/>
@@ -46185,7 +46182,7 @@
       <c r="C138" s="35"/>
       <c r="D138" s="35"/>
       <c r="E138" s="35" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F138" s="35"/>
       <c r="G138" s="35"/>
@@ -46197,7 +46194,7 @@
       <c r="C139" s="35"/>
       <c r="D139" s="35"/>
       <c r="E139" s="35" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F139" s="35"/>
       <c r="G139" s="35"/>
@@ -46209,7 +46206,7 @@
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
       <c r="E140" s="35" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="35"/>
@@ -46221,7 +46218,7 @@
       <c r="C141" s="35"/>
       <c r="D141" s="35"/>
       <c r="E141" s="35" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="35"/>
@@ -46233,7 +46230,7 @@
       <c r="C142" s="35"/>
       <c r="D142" s="35"/>
       <c r="E142" s="35" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F142" s="35"/>
       <c r="G142" s="35"/>
@@ -46245,7 +46242,7 @@
       <c r="C143" s="35"/>
       <c r="D143" s="35"/>
       <c r="E143" s="35" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F143" s="35"/>
       <c r="G143" s="35"/>
@@ -46257,7 +46254,7 @@
       <c r="C144" s="35"/>
       <c r="D144" s="35"/>
       <c r="E144" s="35" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F144" s="35"/>
       <c r="G144" s="35"/>
@@ -46269,7 +46266,7 @@
       <c r="C145" s="35"/>
       <c r="D145" s="35"/>
       <c r="E145" s="35" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F145" s="35"/>
       <c r="G145" s="35"/>
@@ -46281,7 +46278,7 @@
       <c r="C146" s="35"/>
       <c r="D146" s="35"/>
       <c r="E146" s="35" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F146" s="35"/>
       <c r="G146" s="35"/>
@@ -46293,7 +46290,7 @@
       <c r="C147" s="35"/>
       <c r="D147" s="35"/>
       <c r="E147" s="35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="35"/>
@@ -46304,16 +46301,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="C148" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D148" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="C148" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D148" s="35" t="s">
+      <c r="E148" s="35" t="s">
         <v>660</v>
-      </c>
-      <c r="E148" s="35" t="s">
-        <v>661</v>
       </c>
       <c r="F148" s="35"/>
       <c r="G148" s="35"/>
@@ -46324,16 +46321,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="35" t="s">
+        <v>794</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D149" s="35" t="s">
         <v>795</v>
       </c>
-      <c r="C149" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D149" s="35" t="s">
+      <c r="E149" s="35" t="s">
         <v>796</v>
-      </c>
-      <c r="E149" s="35" t="s">
-        <v>797</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="35"/>
@@ -46345,7 +46342,7 @@
       <c r="C150" s="35"/>
       <c r="D150" s="35"/>
       <c r="E150" s="35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="35"/>
@@ -46357,7 +46354,7 @@
       <c r="C151" s="35"/>
       <c r="D151" s="35"/>
       <c r="E151" s="35" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="35"/>
@@ -46368,16 +46365,16 @@
         <v>5</v>
       </c>
       <c r="B152" s="91" t="s">
+        <v>620</v>
+      </c>
+      <c r="C152" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D152" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="C152" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D152" s="35" t="s">
-        <v>622</v>
-      </c>
       <c r="E152" s="35" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="35"/>
@@ -46389,7 +46386,7 @@
       <c r="C153" s="35"/>
       <c r="D153" s="35"/>
       <c r="E153" s="35" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="35"/>
@@ -46401,7 +46398,7 @@
       <c r="C154" s="35"/>
       <c r="D154" s="35"/>
       <c r="E154" s="35" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="35"/>
@@ -46413,7 +46410,7 @@
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="E155" s="35" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F155" s="35"/>
       <c r="G155" s="35"/>
@@ -46425,7 +46422,7 @@
       <c r="C156" s="35"/>
       <c r="D156" s="35"/>
       <c r="E156" s="35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="35"/>
@@ -46437,7 +46434,7 @@
       <c r="C157" s="35"/>
       <c r="D157" s="35"/>
       <c r="E157" s="35" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F157" s="35"/>
       <c r="G157" s="35"/>
@@ -46449,7 +46446,7 @@
       <c r="C158" s="35"/>
       <c r="D158" s="35"/>
       <c r="E158" s="35" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="35"/>
@@ -46461,7 +46458,7 @@
       <c r="C159" s="35"/>
       <c r="D159" s="35"/>
       <c r="E159" s="35" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="35"/>
@@ -46473,7 +46470,7 @@
       <c r="C160" s="35"/>
       <c r="D160" s="35"/>
       <c r="E160" s="35" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="35"/>
@@ -46485,7 +46482,7 @@
       <c r="C161" s="35"/>
       <c r="D161" s="35"/>
       <c r="E161" s="35" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="35"/>
@@ -46497,7 +46494,7 @@
       <c r="C162" s="35"/>
       <c r="D162" s="35"/>
       <c r="E162" s="35" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F162" s="35"/>
       <c r="G162" s="35"/>
@@ -46509,7 +46506,7 @@
       <c r="C163" s="35"/>
       <c r="D163" s="35"/>
       <c r="E163" s="35" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F163" s="35"/>
       <c r="G163" s="35"/>
@@ -46521,7 +46518,7 @@
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="E164" s="35" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F164" s="35"/>
       <c r="G164" s="35"/>
@@ -46533,7 +46530,7 @@
       <c r="C165" s="35"/>
       <c r="D165" s="35"/>
       <c r="E165" s="35" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F165" s="35"/>
       <c r="G165" s="35"/>
@@ -46545,7 +46542,7 @@
       <c r="C166" s="35"/>
       <c r="D166" s="35"/>
       <c r="E166" s="35" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="35"/>
@@ -46557,7 +46554,7 @@
       <c r="C167" s="35"/>
       <c r="D167" s="35"/>
       <c r="E167" s="35" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="35"/>
@@ -46569,7 +46566,7 @@
       <c r="C168" s="35"/>
       <c r="D168" s="35"/>
       <c r="E168" s="35" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="35"/>
@@ -46581,7 +46578,7 @@
       <c r="C169" s="35"/>
       <c r="D169" s="35"/>
       <c r="E169" s="35" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="35"/>
@@ -46593,7 +46590,7 @@
       <c r="C170" s="35"/>
       <c r="D170" s="35"/>
       <c r="E170" s="35" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="35"/>
@@ -46605,7 +46602,7 @@
       <c r="C171" s="35"/>
       <c r="D171" s="35"/>
       <c r="E171" s="35" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="35"/>
@@ -46617,7 +46614,7 @@
       <c r="C172" s="66"/>
       <c r="D172" s="66"/>
       <c r="E172" s="66" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F172" s="66"/>
       <c r="G172" s="66"/>
@@ -46629,7 +46626,7 @@
       <c r="C173" s="35"/>
       <c r="D173" s="35"/>
       <c r="E173" s="35" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="35"/>
@@ -46641,7 +46638,7 @@
       <c r="C174" s="35"/>
       <c r="D174" s="35"/>
       <c r="E174" s="35" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="35"/>
@@ -46653,7 +46650,7 @@
       <c r="C175" s="35"/>
       <c r="D175" s="35"/>
       <c r="E175" s="35" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="35"/>
@@ -46665,7 +46662,7 @@
       <c r="C176" s="35"/>
       <c r="D176" s="35"/>
       <c r="E176" s="35" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="35"/>
@@ -46677,7 +46674,7 @@
       <c r="C177" s="35"/>
       <c r="D177" s="35"/>
       <c r="E177" s="35" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F177" s="35"/>
       <c r="G177" s="35"/>
@@ -46689,7 +46686,7 @@
       <c r="C178" s="35"/>
       <c r="D178" s="35"/>
       <c r="E178" s="35" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F178" s="35"/>
       <c r="G178" s="35"/>
@@ -46701,7 +46698,7 @@
       <c r="C179" s="35"/>
       <c r="D179" s="35"/>
       <c r="E179" s="35" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F179" s="35"/>
       <c r="G179" s="35"/>
@@ -46713,7 +46710,7 @@
       <c r="C180" s="35"/>
       <c r="D180" s="35"/>
       <c r="E180" s="35" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F180" s="35"/>
       <c r="G180" s="35"/>
@@ -46725,7 +46722,7 @@
       <c r="C181" s="35"/>
       <c r="D181" s="35"/>
       <c r="E181" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="35"/>
@@ -46737,7 +46734,7 @@
       <c r="C182" s="35"/>
       <c r="D182" s="35"/>
       <c r="E182" s="35" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="35"/>
@@ -46749,7 +46746,7 @@
       <c r="C183" s="35"/>
       <c r="D183" s="35"/>
       <c r="E183" s="35" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="35"/>
@@ -46761,7 +46758,7 @@
       <c r="C184" s="35"/>
       <c r="D184" s="35"/>
       <c r="E184" s="35" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="35"/>
@@ -46773,7 +46770,7 @@
       <c r="C185" s="35"/>
       <c r="D185" s="35"/>
       <c r="E185" s="35" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="35"/>
@@ -46785,7 +46782,7 @@
       <c r="C186" s="35"/>
       <c r="D186" s="35"/>
       <c r="E186" s="35" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="35"/>
@@ -46797,7 +46794,7 @@
       <c r="C187" s="35"/>
       <c r="D187" s="35"/>
       <c r="E187" s="35" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F187" s="35"/>
       <c r="G187" s="35"/>
@@ -46809,7 +46806,7 @@
       <c r="C188" s="35"/>
       <c r="D188" s="35"/>
       <c r="E188" s="35" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F188" s="35"/>
       <c r="G188" s="35"/>
@@ -46821,7 +46818,7 @@
       <c r="C189" s="35"/>
       <c r="D189" s="35"/>
       <c r="E189" s="35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F189" s="35"/>
       <c r="G189" s="35"/>
@@ -46833,7 +46830,7 @@
       <c r="C190" s="35"/>
       <c r="D190" s="35"/>
       <c r="E190" s="35" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="35"/>
@@ -46845,7 +46842,7 @@
       <c r="C191" s="35"/>
       <c r="D191" s="35"/>
       <c r="E191" s="35" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F191" s="35"/>
       <c r="G191" s="35"/>
@@ -46857,7 +46854,7 @@
       <c r="C192" s="35"/>
       <c r="D192" s="35"/>
       <c r="E192" s="35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F192" s="35"/>
       <c r="G192" s="35"/>
@@ -46869,7 +46866,7 @@
       <c r="C193" s="35"/>
       <c r="D193" s="35"/>
       <c r="E193" s="35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F193" s="35"/>
       <c r="G193" s="35"/>
@@ -46881,7 +46878,7 @@
       <c r="C194" s="35"/>
       <c r="D194" s="35"/>
       <c r="E194" s="35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F194" s="35"/>
       <c r="G194" s="35"/>
@@ -46893,7 +46890,7 @@
       <c r="C195" s="35"/>
       <c r="D195" s="35"/>
       <c r="E195" s="35" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F195" s="35"/>
       <c r="G195" s="35"/>
@@ -46905,7 +46902,7 @@
       <c r="C196" s="35"/>
       <c r="D196" s="35"/>
       <c r="E196" s="35" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F196" s="35"/>
       <c r="G196" s="35"/>
@@ -46917,7 +46914,7 @@
       <c r="C197" s="37"/>
       <c r="D197" s="37"/>
       <c r="E197" s="35" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F197" s="35"/>
       <c r="G197" s="35"/>
@@ -46928,16 +46925,16 @@
         <v>5</v>
       </c>
       <c r="B198" s="91" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C198" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D198" s="35" t="s">
         <v>1067</v>
       </c>
-      <c r="C198" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D198" s="35" t="s">
+      <c r="E198" s="35" t="s">
         <v>1068</v>
-      </c>
-      <c r="E198" s="35" t="s">
-        <v>1069</v>
       </c>
       <c r="I198" s="90"/>
     </row>
@@ -46947,7 +46944,7 @@
       <c r="C199" s="37"/>
       <c r="D199" s="37"/>
       <c r="E199" s="35" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F199" s="37"/>
       <c r="G199" s="37"/>
@@ -46959,7 +46956,7 @@
       <c r="C200" s="37"/>
       <c r="D200" s="37"/>
       <c r="E200" s="35" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F200" s="37"/>
       <c r="G200" s="37"/>
@@ -46971,7 +46968,7 @@
       <c r="C201" s="37"/>
       <c r="D201" s="37"/>
       <c r="E201" s="35" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F201" s="37"/>
       <c r="G201" s="37"/>
@@ -46983,7 +46980,7 @@
       <c r="C202" s="37"/>
       <c r="D202" s="37"/>
       <c r="E202" s="35" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F202" s="37"/>
       <c r="G202" s="37"/>
@@ -46995,7 +46992,7 @@
       <c r="C203" s="37"/>
       <c r="D203" s="37"/>
       <c r="E203" s="35" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F203" s="37"/>
       <c r="G203" s="37"/>
@@ -47007,7 +47004,7 @@
       <c r="C204" s="37"/>
       <c r="D204" s="37"/>
       <c r="E204" s="35" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F204" s="37"/>
       <c r="G204" s="37"/>
@@ -47019,7 +47016,7 @@
       <c r="C205" s="37"/>
       <c r="D205" s="37"/>
       <c r="E205" s="35" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F205" s="37"/>
       <c r="G205" s="37"/>
@@ -47031,7 +47028,7 @@
       <c r="C206" s="37"/>
       <c r="D206" s="37"/>
       <c r="E206" s="35" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F206" s="37"/>
       <c r="G206" s="37"/>
@@ -47043,7 +47040,7 @@
       <c r="C207" s="37"/>
       <c r="D207" s="37"/>
       <c r="E207" s="35" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F207" s="37"/>
       <c r="G207" s="37"/>
@@ -47055,7 +47052,7 @@
       <c r="C208" s="37"/>
       <c r="D208" s="37"/>
       <c r="E208" s="35" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F208" s="37"/>
       <c r="G208" s="37"/>
@@ -47067,7 +47064,7 @@
       <c r="C209" s="37"/>
       <c r="D209" s="37"/>
       <c r="E209" s="35" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F209" s="37"/>
       <c r="G209" s="37"/>
@@ -47079,7 +47076,7 @@
       <c r="C210" s="37"/>
       <c r="D210" s="37"/>
       <c r="E210" s="35" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F210" s="37"/>
       <c r="G210" s="37"/>
@@ -47091,7 +47088,7 @@
       <c r="C211" s="37"/>
       <c r="D211" s="37"/>
       <c r="E211" s="35" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F211" s="37"/>
       <c r="G211" s="37"/>
@@ -47103,7 +47100,7 @@
       <c r="C212" s="37"/>
       <c r="D212" s="37"/>
       <c r="E212" s="35" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F212" s="37"/>
       <c r="G212" s="37"/>
@@ -47115,7 +47112,7 @@
       <c r="C213" s="37"/>
       <c r="D213" s="37"/>
       <c r="E213" s="35" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F213" s="37"/>
       <c r="G213" s="37"/>
@@ -47127,7 +47124,7 @@
       <c r="C214" s="37"/>
       <c r="D214" s="37"/>
       <c r="E214" s="35" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F214" s="37"/>
       <c r="G214" s="37"/>
@@ -47139,7 +47136,7 @@
       <c r="C215" s="37"/>
       <c r="D215" s="37"/>
       <c r="E215" s="35" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F215" s="37"/>
       <c r="G215" s="37"/>
@@ -47151,7 +47148,7 @@
       <c r="C216" s="37"/>
       <c r="D216" s="37"/>
       <c r="E216" s="35" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F216" s="37"/>
       <c r="G216" s="37"/>
@@ -47163,7 +47160,7 @@
       <c r="C217" s="37"/>
       <c r="D217" s="37"/>
       <c r="E217" s="35" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F217" s="37"/>
       <c r="G217" s="37"/>
@@ -47175,7 +47172,7 @@
       <c r="C218" s="37"/>
       <c r="D218" s="37"/>
       <c r="E218" s="35" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F218" s="37"/>
       <c r="G218" s="37"/>
@@ -47187,7 +47184,7 @@
       <c r="C219" s="37"/>
       <c r="D219" s="37"/>
       <c r="E219" s="35" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F219" s="37"/>
       <c r="G219" s="37"/>
@@ -47199,7 +47196,7 @@
       <c r="C220" s="37"/>
       <c r="D220" s="37"/>
       <c r="E220" s="35" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F220" s="37"/>
       <c r="G220" s="37"/>
@@ -47211,7 +47208,7 @@
       <c r="C221" s="37"/>
       <c r="D221" s="37"/>
       <c r="E221" s="35" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F221" s="37"/>
       <c r="G221" s="37"/>
@@ -47223,7 +47220,7 @@
       <c r="C222" s="37"/>
       <c r="D222" s="37"/>
       <c r="E222" s="35" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F222" s="37"/>
       <c r="G222" s="37"/>
@@ -47235,7 +47232,7 @@
       <c r="C223" s="37"/>
       <c r="D223" s="37"/>
       <c r="E223" s="35" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F223" s="37"/>
       <c r="G223" s="37"/>
@@ -47247,7 +47244,7 @@
       <c r="C224" s="37"/>
       <c r="D224" s="37"/>
       <c r="E224" s="35" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F224" s="37"/>
       <c r="G224" s="37"/>
@@ -47259,7 +47256,7 @@
       <c r="C225" s="37"/>
       <c r="D225" s="37"/>
       <c r="E225" s="35" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F225" s="37"/>
       <c r="G225" s="37"/>
@@ -47282,16 +47279,16 @@
         <v>5</v>
       </c>
       <c r="B227" s="35" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D227" s="35" t="s">
         <v>1097</v>
       </c>
-      <c r="C227" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D227" s="35" t="s">
+      <c r="E227" s="35" t="s">
         <v>1098</v>
-      </c>
-      <c r="E227" s="35" t="s">
-        <v>1099</v>
       </c>
       <c r="F227" s="37"/>
       <c r="G227" s="37"/>
@@ -47303,7 +47300,7 @@
       <c r="C228" s="35"/>
       <c r="D228" s="35"/>
       <c r="E228" s="35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F228" s="37"/>
       <c r="G228" s="37"/>
@@ -47315,7 +47312,7 @@
       <c r="C229" s="35"/>
       <c r="D229" s="35"/>
       <c r="E229" s="35" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F229" s="37"/>
       <c r="G229" s="37"/>
@@ -47326,16 +47323,16 @@
         <v>5</v>
       </c>
       <c r="B230" s="35" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C230" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D230" s="35" t="s">
         <v>1102</v>
       </c>
-      <c r="C230" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D230" s="35" t="s">
+      <c r="E230" s="35" t="s">
         <v>1103</v>
-      </c>
-      <c r="E230" s="35" t="s">
-        <v>1104</v>
       </c>
       <c r="F230" s="37"/>
       <c r="G230" s="37"/>
@@ -47347,7 +47344,7 @@
       <c r="C231" s="35"/>
       <c r="D231" s="35"/>
       <c r="E231" s="35" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F231" s="37"/>
       <c r="G231" s="37"/>
@@ -47415,19 +47412,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>755</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="120" t="s">
-        <v>899</v>
-      </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="A1" s="118" t="s">
+        <v>754</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="121" t="s">
+        <v>898</v>
+      </c>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -47455,7 +47452,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="36" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47476,7 +47473,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="64" t="s">
         <v>299</v>
@@ -47495,7 +47492,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -47503,7 +47500,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>299</v>
@@ -47519,7 +47516,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I5" s="64"/>
     </row>
@@ -47528,7 +47525,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>304</v>
@@ -47549,13 +47546,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>306</v>
@@ -47572,13 +47569,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="64" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E8" s="64" t="s">
         <v>307</v>
@@ -47595,7 +47592,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="64" t="s">
         <v>308</v>
@@ -47612,7 +47609,7 @@
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="64" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47620,7 +47617,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>308</v>
@@ -47641,7 +47638,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="64" t="s">
         <v>308</v>
@@ -47662,7 +47659,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="64" t="s">
         <v>308</v>
@@ -47677,7 +47674,7 @@
       </c>
       <c r="H12" s="64"/>
       <c r="I12" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -47685,26 +47682,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D13" s="64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E13" s="64" t="s">
+        <v>661</v>
+      </c>
+      <c r="F13" s="64" t="s">
         <v>662</v>
-      </c>
-      <c r="F13" s="64" t="s">
-        <v>663</v>
       </c>
       <c r="G13" s="64" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="64"/>
       <c r="I13" s="64" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47712,26 +47709,26 @@
         <v>5</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E14" s="64" t="s">
+        <v>663</v>
+      </c>
+      <c r="F14" s="64" t="s">
         <v>664</v>
-      </c>
-      <c r="F14" s="64" t="s">
-        <v>665</v>
       </c>
       <c r="G14" s="64" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="64"/>
       <c r="I14" s="64" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -47796,22 +47793,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="36" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
-        <v>843</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119"/>
+      <c r="A1" s="118" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="120"/>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -47824,7 +47821,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -47848,24 +47845,24 @@
         <v>18</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>21</v>
@@ -47880,7 +47877,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K3" s="37"/>
       <c r="L3" s="31"/>
@@ -47906,7 +47903,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>19</v>
@@ -47915,7 +47912,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>23</v>
@@ -47927,16 +47924,16 @@
         <v>21</v>
       </c>
       <c r="I5" s="64" t="s">
+        <v>828</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>829</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="K5" s="64" t="s">
         <v>830</v>
       </c>
-      <c r="K5" s="64" t="s">
-        <v>831</v>
-      </c>
       <c r="L5" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -47944,10 +47941,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>22</v>
@@ -47965,10 +47962,10 @@
         <v>21</v>
       </c>
       <c r="I6" s="64" t="s">
+        <v>831</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>832</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>833</v>
       </c>
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
@@ -47978,10 +47975,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>24</v>
@@ -47999,10 +47996,10 @@
         <v>21</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K7" s="64"/>
       <c r="L7" s="64"/>
@@ -48073,18 +48070,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="123" t="s">
         <v>1107</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="122" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -48094,45 +48091,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="116" t="s">
         <v>673</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="G2" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>675</v>
-      </c>
       <c r="H2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D3" s="35" t="s">
+        <v>834</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>835</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="35" t="s">
         <v>836</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>837</v>
-      </c>
       <c r="G3" s="35" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H3" s="37"/>
     </row>
@@ -48211,10 +48208,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="44" customFormat="1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>850</v>
-      </c>
-      <c r="B1" s="123"/>
+      <c r="A1" s="117" t="s">
+        <v>849</v>
+      </c>
+      <c r="B1" s="124"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -48279,16 +48276,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="116" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="A1" s="117" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="44" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -48313,18 +48310,18 @@
         <v>34</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>35</v>
@@ -48333,7 +48330,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
@@ -48355,7 +48352,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
         <v>19</v>
@@ -48370,10 +48367,10 @@
         <v>37</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48381,10 +48378,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D6" s="64" t="s">
         <v>35</v>
@@ -48403,13 +48400,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" s="64" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D7" s="64" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>38</v>
